--- a/Lists/SBBE24Attendees.xlsx
+++ b/Lists/SBBE24Attendees.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B233"/>
+  <dimension ref="A1:B323"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -372,2782 +372,3862 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Constanza Clara Maubecin</t>
+          <t>Mario César C. de Pinna</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>cmaubecin@imbiv.unc.edu.ar</t>
+          <t>pinna@ib.usp.br</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>George Pacheco</t>
+          <t>Jose Alexandre Felizola Diniz Filho</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>george.pacheco@ibv.uio.no</t>
+          <t>diniz@ufg.br</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mylena Daiana Santander</t>
+          <t>Nelio Marco Vincenzo Bizzo</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>mylena.santander@gmail.com</t>
+          <t>bizzo@unifesp.br</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Iara Patrícia Ferreira de Sousa</t>
+          <t>Nicolas Rocamundi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>profiarapatricia@gmail.com</t>
+          <t>nicolasrocamundi@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Constância F. J. Ayres</t>
+          <t>Constanza Clara Maubecin</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>constancia.ayres@fiocruz.br</t>
+          <t>cmaubecin@imbiv.unc.edu.ar</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>JOAO PAULO SANTOS DA SILVA</t>
+          <t>Clarisse Palma da Silva</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jpbiosilva@gmail.com</t>
+          <t>cpalma@unicamp.br</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BRENO BEZERRA JUST</t>
+          <t>Maria Emilia Yamamoto</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>brenojust99@gmail.com</t>
+          <t>emiliayamamoto@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ana Karoline da Nóbrega Nunes Alves</t>
+          <t>Luiz Eduardo Vieira Del Bem</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>anakarolinealves1@hotmail.com</t>
+          <t>levdelbem@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>José Eduardo Gomes De Oliveira</t>
+          <t>Fabricio Santos</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>zezinho20052005@gmail.com</t>
+          <t>fabricio-santos@ufmg.br</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Adrian Antonio Garda</t>
+          <t>Eduardo Tarazona</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pseudis@gmail.com</t>
+          <t>edutars@icb.ufmg.br</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Gleyce Medeiros da Silva</t>
+          <t>Santiago Benitez Vieyra</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>gleycemedeiros96@gmail.com</t>
+          <t>santiagombv@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Paolla Gabryelle Cavalcante de Souza</t>
+          <t>Waldemir rosa</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>paollasouzac@gmail.com</t>
+          <t>waldemir.rosa@unila.edu.br</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Igor Peres Puertas dos Santos</t>
+          <t>George Pacheco</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>igorperesp@hotmail.com</t>
+          <t>george.pacheco@ibv.uio.no</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Graziela Santos Andrade</t>
+          <t>Andrea Pedrosa Harand</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>grazielaandrade.bio@gmail.com</t>
+          <t>andrea.harand@ufpe.br</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Jonas Conduru Barros Neto</t>
+          <t>Kelly Zamudio</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jonas.barrosneto@discente.univasf.edu.br</t>
+          <t>kelly.zamudio@austin.utexas.edu</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ana Carolina Vilas Boas</t>
+          <t>Mylena Daiana Santander</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ananinanina@gmail.com</t>
+          <t>mylena.santander@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Henrique Batalha-Filho</t>
+          <t>Kateryna D Makov</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>henrique.batalha@outlook.com</t>
+          <t>makovakateryna@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Emilio de Lanna Neto</t>
+          <t>Prof. Dr. Frederico Henning</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>emiliolanna@gmail.com</t>
+          <t>fhenning@acd.ufrj.br</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Alessandra Selbach Schnadelbach</t>
+          <t>Ana Lúcia Tourinho</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>alessandra.schnadelbach@gmail.com</t>
+          <t>amtourinho@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Beatriz Santos De Brito</t>
+          <t>Thomaz Pinotti</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>beatrizbiologia2017@gmail.com</t>
+          <t>thomaz.pinoti@sund.ku.dk</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Isabelle Oliveira Lima Luz</t>
+          <t>Pedro Paulo Ferreira da Silva</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>isabelleluz@outlook.com.br</t>
+          <t>pedropaulofers@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Júlia de Lima Carvalho</t>
+          <t>Constância F. J. Ayres</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>julialima.carvalho18@gmail.com</t>
+          <t>constancia.ayres@fiocruz.br</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Fernanda Cavalcanti</t>
+          <t>JOAO PAULO SANTOS DA SILVA</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>fernanda.porifera@gmail.com</t>
+          <t>jpbiosilva@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Laysla Bomfim Adam</t>
+          <t>Ana Karoline da Nóbrega Nunes Alves</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>laysla.adam@gmail.com</t>
+          <t>anakarolinealves1@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Tami Mott</t>
+          <t>Sávio Torres de Farias</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>tami.mott@icbs.ufal.br</t>
+          <t>stfarias@yahoo.com.br</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>João Vitor Rodrigues Costa</t>
+          <t>BRENO BEZERRA JUST</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>vitorrodc@usp.br</t>
+          <t>brenojust99@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sarah Waldschmidt da Cunha</t>
+          <t>Iara Patrícia Ferreira de Sousa</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>sarah.w.c2@gmail.com</t>
+          <t>profiarapatricia@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Esthefany Ovando De Mello</t>
+          <t>José Eduardo Gomes De Oliveira</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>esthefany0ovando@gmail.com</t>
+          <t>zezinho20052005@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sarah Mângia Barros</t>
+          <t>Adrian Antonio Garda</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>sarahmangia@yahoo.com.br</t>
+          <t>pseudis@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Amanda Varago</t>
+          <t>Gleyce Medeiros da Silva</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>amandavarago021@gmail.com</t>
+          <t>gleycemedeiros96@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Evandro Douglas Moore de Lucena</t>
+          <t>Igor Peres Puertas dos Santos</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>douglas.moore@unesp.br</t>
+          <t>igorperesp@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Jeferson Vidart Ramos</t>
+          <t>Paolla Gabryelle Cavalcante de Souza</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>jeff.bioinfo@gmail.com</t>
+          <t>paollasouzac@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Larissa Bortoli de Souza</t>
+          <t>Aline Ghilardi</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>bortoli.larissa16@gmail.com</t>
+          <t>aline.ghilardi@ufrn.br</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Diego José Santana Silva</t>
+          <t>Graziela Santos Andrade</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>jose.santana@ufms.br</t>
+          <t>grazielaandrade.bio@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Matheus Sthanley Ferreira Firme</t>
+          <t>Ana Carolina Vilas Boas</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>fmatheuspba@gmail.com</t>
+          <t>ananinanina@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Guilherme Duarte</t>
+          <t>Bruno Cajado Almeida Gouveia</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>guilhermeduartepr@gmail.com</t>
+          <t>cajadobruno96@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Andressa Emanuele Johann</t>
+          <t>Emilio de Lanna Neto</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>johann_andressa@ufms.br</t>
+          <t>emiliolanna@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Vitória Infran De Morais</t>
+          <t>Henrique Batalha-Filho</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>vitoria.infran@ufms.br</t>
+          <t>henrique.batalha@outlook.com</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Lethícia Stéfany Barbosa Dias</t>
+          <t>Isabelle Oliveira Lima Luz</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>lethicia_dias@ufms.br</t>
+          <t>isabelleluz@outlook.com.br</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Aline Pedroso Lorenz</t>
+          <t>Alessandra Selbach Schnadelbach</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>aline.lorenz@ufms.br</t>
+          <t>alessandra.schnadelbach@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Akyel Kiffiner de França Mendonça</t>
+          <t>Beatriz Santos De Brito</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>a.kiffiner@gmail.com</t>
+          <t>beatrizbiologia2017@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Fernando Munir Lima Calarge</t>
+          <t>Júlia de Lima Carvalho</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>fernando.calarge@gmail.com</t>
+          <t>julialima.carvalho18@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Gecele Matos Paggi</t>
+          <t>Fernanda Cavalcanti</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>gecele.paggi@ufms.br</t>
+          <t>fernanda.porifera@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Bruna Da Rocha Maia</t>
+          <t>Laysla Bomfim Adam</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Brunadarochamaia@gmail.com</t>
+          <t>laysla.adam@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Renato Caparroz</t>
+          <t>Tami Mott</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>renatocz@yahoo.com.br</t>
+          <t>tami.mott@icbs.ufal.br</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Thiago Jose de Carvalho Andre</t>
+          <t>João Vitor Rodrigues Costa</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>thiago.andre@unb.br</t>
+          <t>vitorrodc@usp.br</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Marco Aurélio Mendes Elias</t>
+          <t>Bruna Da Rocha Maia</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>marcoelias.ecoevo@gmail.com</t>
+          <t>Brunadarochamaia@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Thannya Nascimento Soares</t>
+          <t>Roullien Henrique Martins Silva</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>tnsoares@ufg.br</t>
+          <t>roullien.silva@ufms.br</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Inês Soares de Menezes</t>
+          <t>Caio Lucas Barroso Nascimento Teixeira de Souza</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>iassismenezes@gmail.com</t>
+          <t>caiobarroso212@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Iderval da Silva Júnior Sobrinho</t>
+          <t>Larissa Bortoli de Souza</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>iderval_jr@yahoo.com</t>
+          <t>bortoli.larissa16@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Diogo Reis de Oliveira</t>
+          <t>Diego José Santana Silva</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>diogo.reisoliv@gmail.com</t>
+          <t>jose.santana@ufms.br</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Juliani Maciel dos Santos</t>
+          <t>Matheus Sthanley Ferreira Firme</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>juli.maciels@gmail.com</t>
+          <t>fmatheuspba@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Alejandra Bonilla Sánchez</t>
+          <t>Andressa Emanuele Johann</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>alejabonilla.sanchez@gmail.com</t>
+          <t>johann_andressa@ufms.br</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Lucca Azevedo Fanti</t>
+          <t>Gecele Matos Paggi</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>luccafanti2002@gmail.com</t>
+          <t>gecele.paggi@ufms.br</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Thaynara da Silva Lopes Lima</t>
+          <t>Fernando Munir Lima Calarge</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>thaynaralima_tsll@hotmail.com</t>
+          <t>fernando.calarge@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Carlos Robson Costa Cruz</t>
+          <t>Guilherme Duarte</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>cruz.carlosr21@gmail.com</t>
+          <t>guilhermeduartepr@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Letícia Monteiro</t>
+          <t>Leandro de Avelar Oliveira</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>leticiamonteiro.bio@gmail.com</t>
+          <t>leandro.avelar.bio@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Bruna Boizonave Andriola</t>
+          <t>Sarah Waldschmidt da Cunha</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>bruna.andriola@edu.pucrs.br</t>
+          <t>sarah.w.c2@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Gabriele Zenato Lazzari</t>
+          <t>Jeferson Vidart Ramos</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>gabriele.lazzari@edu.pucrs.br</t>
+          <t>jeff.bioinfo@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Marcia Holsbach Beltrame</t>
+          <t>Evandro Douglas Moore de Lucena</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>marcia.beltrame@ufrgs.br</t>
+          <t>douglas.moore@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>LAERCIO MOREIRA CARDOSO JUNIOR</t>
+          <t>Esthefany Ovando De Mello</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>laerciop53@gmail.com</t>
+          <t>esthefany0ovando@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Karoline Silva Zenato</t>
+          <t>Amanda Varago</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>karoline.szen@gmail.com</t>
+          <t>amandavarago021@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Juliana Cristine Fontana</t>
+          <t>Vitória Infran De Morais</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>julianacfontana@gmail.com</t>
+          <t>vitoria.infran@ufms.br</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Luana Sousa Soares</t>
+          <t>Lethícia Stéfany Barbosa Dias</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>lusousa.soares11@gmail.com</t>
+          <t>lethicia_dias@ufms.br</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Maikel Varal</t>
+          <t>Akyel Kiffiner de França Mendonça</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>maikelvaral@yahoo.com.br</t>
+          <t>a.kiffiner@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>André Luís da Silva Zani</t>
+          <t>Sarah Mângia Barros</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>zani.andre@yahoo.com.br</t>
+          <t>sarahmangia@yahoo.com.br</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Matías Maximiliano Malleret</t>
+          <t>Aline Pedroso Lorenz</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>malleret2@gmail.com</t>
+          <t>aline.lorenz@ufms.br</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ANDREIA CARINA TURCHETTO ZOLET</t>
+          <t>Mariana Nunes Menegat</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>aturchetto@gmail.com</t>
+          <t>marianamenegat@outlook.com</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Juliene Lopes Costa</t>
+          <t>Isabela Caroline Moura dos Santos</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>julopescosta.23@gmail.com</t>
+          <t>bela_carolinem@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Pâmela Giordani Vielmo</t>
+          <t>Ariely Loyane Garcia Soares</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>pamelavielmo@hotmail.com</t>
+          <t>soares.loyane@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Mateus sousa de almeida</t>
+          <t>Renato Caparroz</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>mateus_btec@hotmail.com</t>
+          <t>renatocz@yahoo.com.br</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Aldo Mellender de Araújo</t>
+          <t>Thiago Jose de Carvalho Andre</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>aldo1806@gmail.com</t>
+          <t>thiago.andre@unb.br</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Bruna Oliveira Missaggia</t>
+          <t>Patricia Sanae Sujii</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>bmissaggia@gmail.com</t>
+          <t>sujiips@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Paulyana dos Santos Moura</t>
+          <t>Fernando Pacheco Rodrigues</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>paulyanamoura@gmail.com</t>
+          <t>fprodrigues@unb.br</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Manuel Adrian Riveros Escalona</t>
+          <t>Lilian Gimenes Giugliano</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>manuelriveros72@hotmail.com</t>
+          <t>liliangiu@unb.br</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Lorena Sanches Vieira</t>
+          <t>Marco Aurélio Mendes Elias</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>lolly.vieirasa@gmail.com</t>
+          <t>marcoelias.ecoevo@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Alejandra Niño Reyes</t>
+          <t>Thannya Nascimento Soares</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>alejandra.reyes@edu.pucrs.br</t>
+          <t>tnsoares@ufg.br</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Marco Silva Gottschalk</t>
+          <t>João Carlos Nabout</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>marco.gottschalk@yahoo.com</t>
+          <t>jcnabout@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Monica Laner Blauth</t>
+          <t>Inês Soares de Menezes</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>blauth.monica@gmail.com</t>
+          <t>iassismenezes@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Mariana Nunes Menegat</t>
+          <t>Iderval da Silva Júnior Sobrinho</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>marianamenegat@outlook.com</t>
+          <t>iderval_jr@yahoo.com</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Joana Gehlen Tessaro</t>
+          <t>Diogo Reis de Oliveira</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>tessarojg@gmail.com</t>
+          <t>diogo.reisoliv@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Roger Henrique Dalcin</t>
+          <t>Juliani Maciel dos Santos</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>roger.dalcin@gmail.com</t>
+          <t>juli.maciels@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Manuella Cardoso Teixeira</t>
+          <t>Alejandra Bonilla Sánchez</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>manuella.mhc2@gmail.com</t>
+          <t>alejabonilla.sanchez@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Andrea Rita Marrero</t>
+          <t>Marcia Holsbach Beltrame</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>andrea.marrero@ufsc.br</t>
+          <t>marcia.beltrame@ufrgs.br</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Giovanna Hernandez Garcia</t>
+          <t>LAERCIO MOREIRA CARDOSO JUNIOR</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>giio.ufsc@gmail.com</t>
+          <t>laerciop53@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Luiza Kittel Chiká</t>
+          <t>Juliana Cristine Fontana</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>luizakittel@gmail.com</t>
+          <t>julianacfontana@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Antonio Felipe Pereira dos Santos</t>
+          <t>Lucca Azevedo Fanti</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>antonio.fps@hotmail.com</t>
+          <t>luccafanti2002@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Jéssica Sueli dos Santos Batista</t>
+          <t>Bruna Boizonave Andriola</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>jessica.ssb@grad.ufsc.br</t>
+          <t>bruna.andriola@edu.pucrs.br</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Alexandre do Sacramento Alves Anselmo</t>
+          <t>Carolina Prauchner Silva</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>alexandre.sa.anselmo@gmail.com</t>
+          <t>carol_prauchner@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Nicoli Taísi Ornaghi</t>
+          <t>Karoline Silva Zenato</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ra134020@uem.br</t>
+          <t>karoline.szen@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Pamella Oliveira Fardin</t>
+          <t>Gabriele Zenato Lazzari</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ra134937@uem.br</t>
+          <t>gabriele.lazzari@edu.pucrs.br</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Aparecido Soares da Silva Júnior</t>
+          <t>João Pedro Carmo Filgueiras</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ra124357@uem.br</t>
+          <t>jcarmofilgueiras@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Wanderley Dantas dos Santos</t>
+          <t>Lorena Sanches Vieira</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>wdsantos@uem.br</t>
+          <t>lolly.vieirasa@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Vinicius Oliveira Miranda</t>
+          <t>Manuel Adrian Riveros Escalona</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>viny.olmiranda@gmail.com</t>
+          <t>manuelriveros72@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Luiz Gustavo Gutierrez Ferreira</t>
+          <t>Paulyana dos Santos Moura</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>luiz318guti@gmail.com</t>
+          <t>paulyanamoura@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Maria Eduarda Araujo Ribeiro</t>
+          <t>Cássio Hervé</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ra130004@uem.br</t>
+          <t>cassioherve@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Luana Garcia Siqueira Da Silva</t>
+          <t>Alejandra Niño Reyes</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ra133953@uem.br</t>
+          <t>alejandra.reyes@edu.pucrs.br</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Wes</t>
+          <t>Luana Sousa Soares</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>wesley94moraes@gmail.com</t>
+          <t>lusousa.soares11@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Rodrigo A. Torres</t>
+          <t>André Luís da Silva Zani</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>rodrigotorres@utfpr.edu.br</t>
+          <t>zani.andre@yahoo.com.br</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Fabiano Stefanello</t>
+          <t>Maikel Varal</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>stefanellof@gmail.com</t>
+          <t>maikelvaral@yahoo.com.br</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Wesley Gomes Bojarski</t>
+          <t>Carlos Robson Costa Cruz</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>wesleybojarski@gmail.com</t>
+          <t>cruz.carlosr21@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Lucas Szekut de Paula</t>
+          <t>Letícia Monteiro</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>lucasszekutdepaula@gmail.com</t>
+          <t>leticiamonteiro.bio@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Adler Dvorak Barboza</t>
+          <t>Thaynara da Silva Lopes Lima</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>adlerdvorak@gmail.com</t>
+          <t>thaynaralima_tsll@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Marcela Naomi Okabayashi da Silva</t>
+          <t>ANDREIA CARINA TURCHETTO ZOLET</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>marcela.naomi@ufpr.br</t>
+          <t>aturchetto@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Valéria Ribeiro Da Silva</t>
+          <t>Matías Maximiliano Malleret</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>valeriaribeirosilva1@outlook.com</t>
+          <t>malleret2@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>João Mateus Zepson Capucho</t>
+          <t>Aldo Mellender de Araújo</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>joao.capucho@ufpr.br</t>
+          <t>aldo1806@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Michele Bertoncello</t>
+          <t>Bruna Oliveira Missaggia</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>michelebertoncello146@gmail.com</t>
+          <t>bmissaggia@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Marcos Barbeitos</t>
+          <t>Mateus sousa de almeida</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>msbarbeitos@gmail.com</t>
+          <t>mateus_btec@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Desirrê Alexia Lourenço Petters Vandresen</t>
+          <t>Marcelo Henrique Schwade</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>desirre.petters@gmail.com</t>
+          <t>marceloh.schwade@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Maria Julia Michelini de Almeida</t>
+          <t>Juliene Lopes Costa</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>majumichelini@gmail.com</t>
+          <t>julopescosta.23@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Mayara Pereira Neves</t>
+          <t>Pâmela Giordani Vielmo</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>mayara-nevesbio@hotmail.com</t>
+          <t>pamelavielmo@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Ana Beatriz Viergbiski Schwitzner</t>
+          <t>ISABEL GOMES VIEIRA</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>anabeatrizviergbiskischwitzner@gmail.com</t>
+          <t>belgovieira@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Thais Neves</t>
+          <t>Juliana Cordeiro</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>thaisneves2366@gmail.com</t>
+          <t>jlncdr@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Izadora Moraes da Silva</t>
+          <t>Aléxia Vittória Dariva Tormen</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>moraesiza12@gmail.com</t>
+          <t>alexia.tormen@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Vic Sant'Ana dos Santos</t>
+          <t>Marco Silva Gottschalk</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>rachel.santana2302@gmail.com</t>
+          <t>marco.gottschalk@yahoo.com</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>VILMAR FERNANDO BUENO JUNIOR</t>
+          <t>Monica Laner Blauth</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>vilmarbueno_@hotmail.com</t>
+          <t>blauth.monica@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Elisa de Castro Wille Nonino</t>
+          <t>Joana Gehlen Tessaro</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>elisanonino00@gmail.com</t>
+          <t>tessarojg@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Vitória Sávio Buchi</t>
+          <t>Roger Henrique Dalcin</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>viccabuchi@gmail.com</t>
+          <t>roger.dalcin@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Rodrigo Barbosa Gonçalves</t>
+          <t>Manuella Cardoso Teixeira</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>goncalvesrb@gmail.com</t>
+          <t>manuella.mhc2@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Raiana Santiago da Costa</t>
+          <t>Andrea Rita Marrero</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>val_raiana@hotmail.com</t>
+          <t>andrea.marrero@ufsc.br</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Juliane Xavier</t>
+          <t>Jéssica Sueli dos Santos Batista</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>julianexavier57361@gmail.com</t>
+          <t>jessica.ssb@grad.ufsc.br</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>LUCAS KATSUMI ROCHA HINOSHITA</t>
+          <t>Gabriéli Luiza Steffens Knapp</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>katsumilucas@gmail.com</t>
+          <t>gabrieli_steffens-pzo@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Ricardo Lehtonen Rodrigues Souza</t>
+          <t>Edgar De Paula Guerreiro</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>lehtonen@ufpr.br</t>
+          <t>edgar.guerreiro@tutanota.com</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>João Vitor Mello Hortega</t>
+          <t>Luiza Kittel Chiká</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>joaovitormelloh@gmail.com</t>
+          <t>luizakittel@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Bruno Torquato</t>
+          <t>Anglia Lavinia Lopes Moreira</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>brunotorquato100@gmail.com</t>
+          <t>anglia.lopes@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Henrique Luiz Rieger</t>
+          <t>Lorenzo Driessen Cigognini</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>henriquerieger2001@gmail.com</t>
+          <t>lorenzocigognini@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Juliana Rosa Matias Ciccheto</t>
+          <t>Antonio Felipe Pereira dos Santos</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>cicchetoju@gmail.com</t>
+          <t>antonio.fps@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Ana Julia Possamai de Oliveira</t>
+          <t>Giovanna Hernandez Garcia</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>anaju.possamai@gmail.com</t>
+          <t>giio.ufsc@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Maria Vitoria Lima da Silva</t>
+          <t>Vinicius Oliveira Miranda</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>mariavitoriadelima020@gmail.com</t>
+          <t>viny.olmiranda@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Mariana Guolo Moschen</t>
+          <t>Henrique Batista Gomes da Silva</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>marianagmoschen17@gmail.com</t>
+          <t>ra130150@uem.br</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Alexandre Henrique Pedroso</t>
+          <t>Wanderley Dantas dos Santos</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>ahenriquepedroso@gmail.com</t>
+          <t>wdsantos@uem.br</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Thamyris Weber Pereira</t>
+          <t>Aparecido Soares da Silva Júnior</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>thamyweber@gmail.com</t>
+          <t>ra124357@uem.br</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Bruna Buss</t>
+          <t>Luiz Gustavo Gutierrez Ferreira</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>brunacarolinebuss@gmail.com</t>
+          <t>luiz318guti@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Arquimedes Paixão de Santana Filho</t>
+          <t>Pamella Oliveira Fardin</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>santana@ufpr.br</t>
+          <t>ra134937@uem.br</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Leonardo Ricardo Nunes</t>
+          <t>Rodrigo de Mello</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>leonardoricardo518@gmail.com</t>
+          <t>rdemellobr@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Matheus Igor Fontana</t>
+          <t>Wes</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>matheu-igor@hotmail.com</t>
+          <t>wesley94moraes@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Amanda Beatriz Loureiro</t>
+          <t>Luana Garcia Siqueira Da Silva</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>amandabeatrizloureiro@gmail.com</t>
+          <t>ra133953@uem.br</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Leonardo Tyskowski Felix</t>
+          <t>Maria Eduarda Araujo Ribeiro</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>leotyszko@gmail.com</t>
+          <t>ra130004@uem.br</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Pedro Natale Cavezzale Dias</t>
+          <t>Alexandre do Sacramento Alves Anselmo</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>pnatalecd@gmail.com</t>
+          <t>alexandre.sa.anselmo@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Vitória Ibane</t>
+          <t>Nicoli Taísi Ornaghi</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>viibane@outlook.com</t>
+          <t>ra134020@uem.br</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Letícia Caroline Chaves</t>
+          <t>Leonardo Rodrigues Tolardo</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>leticia.leticiacchaves@gmail.com</t>
+          <t>leonardorodriguestolardo@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Luís Gustavo da Conceição Galego</t>
+          <t>Rodrigo A. Torres</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>luis.galego@uftm.edu.br</t>
+          <t>rodrigotorres@utfpr.edu.br</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Ronielson Gaia Da Silva</t>
+          <t>Roberto Ferreira Artoni</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ronielsongaia@hotmail.com</t>
+          <t>rfartoni@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Thieres Tayroni Martins da Silva</t>
+          <t>Fabiano Stefanello</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>thierestayroni@gmail.com</t>
+          <t>stefanellof@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Fernando Araujo Perini</t>
+          <t>Luana Vieira</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>faperini@ufmg.br</t>
+          <t>luanavieira.snow@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Henry Paul Granger Neto</t>
+          <t>Wesley Gomes Bojarski</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>hp.granger98@gmail.com</t>
+          <t>wesleybojarski@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Laura Mara Silva Pereira</t>
+          <t>Lucas Szekut de Paula</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>laura.marasp@gmail.com</t>
+          <t>lucasszekutdepaula@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Davi Barbalho Cavalcanti</t>
+          <t>Adler Dvorak Barboza</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>barbalhodavi123@gmail.com</t>
+          <t>adlerdvorak@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Patricia Sanae Sujii</t>
+          <t>Marcela Naomi Okabayashi da Silva</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>sujiips@gmail.com</t>
+          <t>marcela.naomi@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>MATEUS CHAMONE BURGARELLI</t>
+          <t>Valéria Ribeiro Da Silva</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>mateuschamone95@gmail.com</t>
+          <t>valeriaribeirosilva1@outlook.com</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Isaac Rafael Freitas Borges</t>
+          <t>Luddy Searom Carias de Moraes</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>isaacborges966@gmail.com</t>
+          <t>luddysearom@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ANA CECILIA HOLLER DEL PRETTE</t>
+          <t>Maria Julia Michelini de Almeida</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>anacecilia.holler@gmail.com</t>
+          <t>majumichelini@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Gabriel Costa Santos</t>
+          <t>Marcos Barbeitos</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>gabrielscosta90@gmail.com</t>
+          <t>msbarbeitos@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Origilene Bezerra Dantas</t>
+          <t>Desirrê Alexia Lourenço Petters Vandresen</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>origilenedantas@gmail.com</t>
+          <t>desirre.petters@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Ramon Moreira Fernandes</t>
+          <t>João Mateus Zepson Capucho</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ramonmf360@gmail.com</t>
+          <t>joao.capucho@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Welignton Clarindo</t>
+          <t>Michele Bertoncello</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>well.clarindo@ufv.br</t>
+          <t>michelebertoncello146@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Alessandro Marques De Oliveira</t>
+          <t>Fabricius Maia Chaves Bicalho Domingos</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>biolessandro@gmail.com</t>
+          <t>fabricius.domingos@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Mariana Fonseca Rossi</t>
+          <t>Arquimedes Paixão de Santana Filho</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>mfonsecarossi@gmail.com</t>
+          <t>santana@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>André Yves</t>
+          <t>Amanda Beatriz Loureiro</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>andreyves7@gmail.com</t>
+          <t>amandabeatrizloureiro@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Henrique José de Oliveira</t>
+          <t>Bruna Buss</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>henrique.bio22@gmail.com</t>
+          <t>brunacarolinebuss@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>João Pedro Almeida Caetano</t>
+          <t>Matheus Maciel Alcantara Salles</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>20201200051@pq.uenf.br</t>
+          <t>matheusmaciel.salles@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Yasmim Alvarenga</t>
+          <t>Pedro Natale Cavezzale Dias</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>y.alvarenga.abreu@gmail.com</t>
+          <t>pnatalecd@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Juliana Lopes De Lima</t>
+          <t>Leonardo Tyskowski Felix</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>julianapv100@gmail.com</t>
+          <t>leotyszko@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Ismar de Souza Carvalho</t>
+          <t>Alexandre Henrique Pedroso</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ismar@geologia.ufrj.br</t>
+          <t>ahenriquepedroso@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Clarice Assumpção da Costa</t>
+          <t>Thamyris Weber Pereira</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>assumpcao.clarice@gmail.com</t>
+          <t>thamyweber@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Luiza Silva Anselmini</t>
+          <t>Matheus Igor Fontana</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>miniansel.lu@gmail.com</t>
+          <t>matheu-igor@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Alessandra Pavan Lamarca</t>
+          <t>Leonardo Ricardo Nunes</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>pavanlamarca@gmail.com</t>
+          <t>leonardoricardo518@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Gabriela Ferreira Mota</t>
+          <t>Fernanda Witt Cidade</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>motafgabriela@gmail.com</t>
+          <t>fernandacidade@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Jose Ricardo Miras Mermudes</t>
+          <t>Mariana Guolo Moschen</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>jrmermudes@gmail.com</t>
+          <t>marianagmoschen17@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>José Mateus dos Santos</t>
+          <t>Ana Beatriz Viergbiski Schwitzner</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>mateussantosprof14@gmail.com</t>
+          <t>anabeatrizviergbiskischwitzner@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Davi Marques De Oliveira De Sá</t>
+          <t>Mayara Pereira Neves</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>ivadmarques48@gmail.com</t>
+          <t>mayara-nevesbio@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Claudia Augusta de Moraes Russo</t>
+          <t>Thais Neves</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>claurusso@hotmail.com</t>
+          <t>thaisneves2366@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Gabriel Henrique Nunes Rodrigues</t>
+          <t>Izadora Moraes da Silva</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>gabhengel@gmail.com</t>
+          <t>moraesiza12@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Alexandra Paris Toledo</t>
+          <t>Juliana Rosa Matias Ciccheto</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>alepariis@gmail.com</t>
+          <t>cicchetoju@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Lais Henriques de Mattos</t>
+          <t>Eric de Camargo Smidt</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>laishenriques91@gmail.com</t>
+          <t>ecsmidt@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Melissa Bars Closel</t>
+          <t>Maria Vitoria Lima da Silva</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>melissabars@gmail.com</t>
+          <t>mariavitoriadelima020@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Breno Michelon Seixas</t>
+          <t>Henrique Luiz Rieger</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>breno.mseixas@usp.br</t>
+          <t>henriquerieger2001@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Lucas Barcelos</t>
+          <t>Bruno Torquato</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>lucasabarcelos@gmail.com</t>
+          <t>brunotorquato100@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Thiago Takeshi Goto</t>
+          <t>João Vitor Mello Hortega</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>thi.takeshi@gmail.com</t>
+          <t>joaovitormelloh@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Danilo Camargo Fernandes</t>
+          <t>Ricardo Lehtonen Rodrigues Souza</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>danilo.fernandes@usp.br</t>
+          <t>lehtonen@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Fernanda Biscaino Saluceste</t>
+          <t>LUCAS KATSUMI ROCHA HINOSHITA</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>fernanda.saluceste@unesp.br</t>
+          <t>katsumilucas@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Gustavo da Silva Ambrosio</t>
+          <t>Ana Julia Possamai de Oliveira</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>gustavo.ambrosio@unesp.br</t>
+          <t>anaju.possamai@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Gabriel Tofanelo Vanin</t>
+          <t>Rodrigo Barbosa Gonçalves</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>gabriel.vanin@unesp.br</t>
+          <t>goncalvesrb@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Leonardo Maurici Borges</t>
+          <t>Elisa de Castro Wille Nonino</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>aquitemcaqui@gmail.com</t>
+          <t>elisanonino00@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Rafael Fernandes Barduzzi</t>
+          <t>Vitória Sávio Buchi</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>rfbarduzzi@gmail.com</t>
+          <t>viccabuchi@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>João Pedro Fujita</t>
+          <t>Laura Laino da Costa</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>joaopedrofujita@estudante.ufscar.br</t>
+          <t>laura.costa231@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Victor Hugo Barbosa Pereira</t>
+          <t>Raiana Santiago da Costa</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>vhb.pereira@unesp.br</t>
+          <t>val_raiana@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Analice Gabrielle Marquezin Gomes</t>
+          <t>Juliane Xavier</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>analice.gabrielle@unesp.br</t>
+          <t>julianexavier57361@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Francisco Borges</t>
+          <t>Vic Sant'Ana dos Santos</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>fa.borges@unesp.br</t>
+          <t>rachel.santana2302@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Felipe Messias Leandro</t>
+          <t>VILMAR FERNANDO BUENO JUNIOR</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>felipe.messias@unesp.br</t>
+          <t>vilmarbueno_@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Pábulo Matheus Domiciano</t>
+          <t>Vitória Ibane</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>pabulodomiciano@gmail.com</t>
+          <t>viibane@outlook.com</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Pedro Henrique Pacheco Mosquini</t>
+          <t>Fernanda S. Caron</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>mosquiniphp@gmail.com</t>
+          <t>fernandadesouzacaron@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Tami da Costa Cacossi</t>
+          <t>Paulo Henrique Mueller</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>tamiccacossi@gmail.com</t>
+          <t>profmueller@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Vera Nisaka Solferini</t>
+          <t>Letícia Caroline Chaves</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>veras@unicamp.br</t>
+          <t>leticia.leticiacchaves@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Leonardo Duarte Santos</t>
+          <t>Heloise Tainá Sant’Anna</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>santosldbio@gmail.com</t>
+          <t>helo.taina.sa@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Henrique Vilela da Mata Bianchini</t>
+          <t>Luís Gustavo da Conceição Galego</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>h236891@dac.unicamp.br</t>
+          <t>luis.galego@uftm.edu.br</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Lucas Albuquerque dos Santos</t>
+          <t>Ronielson Gaia Da Silva</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>lucasabqsto@gmail.com</t>
+          <t>ronielsongaia@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Nicolle Souza Leto</t>
+          <t>Thieres Tayroni Martins da Silva</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>letonicolle@gmail.com</t>
+          <t>thierestayroni@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Diliane Harumi Yaguinuma</t>
+          <t>Henry Paul Granger Neto</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>diliane-harumi@hotmail.com</t>
+          <t>hp.granger98@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Tiago Benedito dos Santos</t>
+          <t>Laura Mara Silva Pereira</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>tiagobio02@yahoo.com.br</t>
+          <t>laura.marasp@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Jardel De Oliveira</t>
+          <t>Fernando Araujo Perini</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>jardel.oliveira90@hotmail.com</t>
+          <t>faperini@ufmg.br</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Ana Claudia Lessinger</t>
+          <t>Lucas Bleicher</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>lessinger@ufscar.br</t>
+          <t>lbleicher@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Miguel Piovesana Pereira Romeiro</t>
+          <t>Pammella Teixeira</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>miguelpromeiro@gmail.com</t>
+          <t>pammellateixeira@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Irene De Fátima Vieira De Moraes</t>
+          <t>Davi Barbalho Cavalcanti</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>irenef.vieiram@gmail.com</t>
+          <t>barbalhodavi123@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Eduardo Koerich Nery</t>
+          <t>MATEUS CHAMONE BURGARELLI</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>eduardo.k.nery@gmail.com</t>
+          <t>mateuschamone95@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>AMMIR YACOUB HELOU</t>
+          <t>Isaac Rafael Freitas Borges</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>ammir@usp.br</t>
+          <t>isaacborges966@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Letícia Wanderley Cavalcanti</t>
+          <t>ANA CECILIA HOLLER DEL PRETTE</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>letcavalcanti02@gmail.com</t>
+          <t>anacecilia.holler@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Gabriela Procópio Camacho</t>
+          <t>Gabriel Costa Santos</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>gpcamacho@usp.br</t>
+          <t>gabrielscosta90@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Nathália Caldeira Dias</t>
+          <t>Origilene Bezerra Dantas</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>caldeira.nathalia@gmail.com</t>
+          <t>origilenedantas@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Thiago Silva Loboda</t>
+          <t>Rafael Félix de Magalhães</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>loboda_bio@yahoo.com.br</t>
+          <t>rafaelmagalhaes@ufsj.edu.br</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Denis Calandriello Calio</t>
+          <t>Ramon Moreira Fernandes</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>denis.calan@gmail.com</t>
+          <t>ramonmf360@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Carlos Cristiano Simões Ferreira e Penha</t>
+          <t>Welignton Clarindo</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>cristianosf@usp.br</t>
+          <t>well.clarindo@ufv.br</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Ana Paula Becker</t>
+          <t>Alessandro Marques De Oliveira</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>ana.becker023@gmail.com</t>
+          <t>biolessandro@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Weverton dos Santos Azevedo</t>
+          <t>Mariana Fonseca Rossi</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>weverton.azevedo@hotmail.com</t>
+          <t>mfonsecarossi@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Rafaela Velloso Missagia</t>
+          <t>Henrique Caldeira Costa</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>rafaelamissagia@gmail.com</t>
+          <t>ccostah@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Marcelo Duarte</t>
+          <t>Henrique José de Oliveira</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>mduartes@usp.br</t>
+          <t>henrique.bio22@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Diogo Melo</t>
+          <t>André Yves</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>diogro@gmail.com</t>
+          <t>andreyves7@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Samuel Augusto Aguiar dos Anjos</t>
+          <t>João Pedro Almeida Caetano</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>sam_aanjos@usp.br</t>
+          <t>20201200051@pq.uenf.br</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Ana Paula Assis</t>
+          <t>Bruno Clarkson</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>paulaassis@ib.usp.br</t>
+          <t>brclarkson@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Joyce Rodrigues do Prado</t>
+          <t>Juliana Lopes De Lima</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>joyce.prado@usp.br</t>
+          <t>julianapv100@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>katarine nogueira norbertino</t>
+          <t>Yasmim Alvarenga</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>katarinenn@outlook.com</t>
+          <t>y.alvarenga.abreu@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Ivan Sergio Nunes Silva Filho</t>
+          <t>Davi Marques De Oliveira De Sá</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>ivan.nunes@unesp.br</t>
+          <t>ivadmarques48@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Erik Henrique de Lacerda Choueri</t>
+          <t>CLARISSA COIMBRA CANEDO</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>chouerik@gmail.com</t>
+          <t>clarissa.canedo@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Frederico Felizardo Barbosa</t>
+          <t>Miguel Godinho Alvares</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>fredericofb012@gmail.com</t>
+          <t>miguelgodinhoalvares@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Amanda Freitas Haase</t>
+          <t>Dener Soares Da Costa Junior</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>amandafreitashaase@gmail.com</t>
+          <t>denerdacosta12@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Felipe Arian de Andrade Araújo</t>
+          <t>Bruno Loreto de Aragão Pedroso</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>araujo.felipearian@gmail.com</t>
+          <t>bruno.loreto.aragao@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Gilmax Gonçalves Ferreira</t>
+          <t>Gabriel Henrique Nunes Rodrigues</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>gillmax88@gmail.com</t>
+          <t>gabhengel@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Thais Helena Condez</t>
+          <t>Claudia Augusta de Moraes Russo</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>thacondez@gmail.com</t>
+          <t>claurusso@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Pamela Maciel Cremonez</t>
+          <t>RAFAEL FILGUEIRA JORGE</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>pamelacremonez@gmail.com</t>
+          <t>rafajorgebio@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Isabella Fagundes Rosa Limão</t>
+          <t>Beatriz Mello Carvalho</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>isaarlimao@gmail.com</t>
+          <t>biaumello@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Gabriela Procopio Leite</t>
+          <t>Ana Carolina Martins Junqueira</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>gabrielaprocopio3@gmail.com</t>
+          <t>anacmj@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
+          <t>José Mateus dos Santos</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>mateussantosprof14@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Jose Ricardo Miras Mermudes</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>jrmermudes@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Carlos Eduardo Guerra Schrago</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>carlos.schrago@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Gabriela Ferreira Mota</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>motafgabriela@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Ismar de Souza Carvalho</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>ismar@geologia.ufrj.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Clarice Assumpção da Costa</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>assumpcao.clarice@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Ingrid Martins Machado Garcia Veiga</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>ingridgveiga@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Luiza Silva Anselmini</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>miniansel.lu@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>ALENA MAYO INIGUEZ</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>alenainiguez@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Lais Henriques de Mattos</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>laishenriques91@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Inês Corrêa Gonçalves</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>inescg.bio@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Lucas Pereira da Rocha</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>lucasrocha700@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Alexandra Paris Toledo</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>alepariis@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Alessandra Pavan Lamarca</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>pavanlamarca@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Luísa Andrade Mendes</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>mendesluisa1997@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Melissa Bars Closel</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>melissabars@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Breno Michelon Seixas</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>breno.mseixas@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Martín Rodrigo Escobar</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>martin.escobar@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Thiago Takeshi Goto</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>thi.takeshi@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Danilo Camargo Fernandes</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>danilo.fernandes@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Lucas Barcelos</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>lucasabarcelos@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Lígia Mouriño de Almeida Prado</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>ligia.prado@unesp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Ana Malaghini de Abreu</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>anamalaghini9gold@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Gabriel Tofanelo Vanin</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>gabriel.vanin@unesp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Gustavo da Silva Ambrosio</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>gustavo.ambrosio@unesp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Fernanda Biscaino Saluceste</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>fernanda.saluceste@unesp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Leonardo Maurici Borges</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>aquitemcaqui@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Rafael Fernandes Barduzzi</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>rfbarduzzi@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Lucas Pereira Camargo</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>lucaspc@estudante.ufscar.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>João Pedro Fujita</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>joaopedrofujita@estudante.ufscar.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Victor Hugo Barbosa Pereira</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>vhb.pereira@unesp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Francisco Borges</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>fa.borges@unesp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>João Francisco Ponticelli Tottene</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>tott.joao@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Felipe Messias Leandro</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>felipe.messias@unesp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Analice Gabrielle Marquezin Gomes</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>analice.gabrielle@unesp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Luiza de Moraes Magaldi</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>luiza.magaldi@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>João Claudio de Sousa Nascimento</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>j.claudionasci@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Pábulo Matheus Domiciano</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>pabulodomiciano@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Nicolle Souza Leto</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>letonicolle@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Pedro Henrique Pacheco Mosquini</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>mosquiniphp@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Tami da Costa Cacossi</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>tamiccacossi@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Leonardo Duarte Santos</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>santosldbio@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Vera Nisaka Solferini</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>veras@unicamp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Julia Nader Acquaviva</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>julianader95@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Henrique Vilela da Mata Bianchini</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>h236891@dac.unicamp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Paulo Aecyo Francisco da Silva</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>pauloaecyo_1997@hotmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Beatriz Helena Macari Daros</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>beatrizdarosbio@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Pedro Paulo Goulart Taucci</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>pedrotaucce@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Pedro Danel de Souza Ugarte</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>pedaugaso@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Lucas Albuquerque dos Santos</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>lucasabqsto@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Amanda Lichtscheidl Graciadio</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>a265805@dac.unicamp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Tiago Benedito dos Santos</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>tiagobio02@yahoo.com.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Jardel De Oliveira</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>jardel.oliveira90@hotmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Diliane Harumi Yaguinuma</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>diliane-harumi@hotmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Ana Claudia Lessinger</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>lessinger@ufscar.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Miguel Piovesana Pereira Romeiro</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>miguelpromeiro@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Eduardo Koerich Nery</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>eduardo.k.nery@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Irene De Fátima Vieira De Moraes</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>irenef.vieiram@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Ana Paula Becker</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>ana.becker023@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Marcelo Duarte</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>mduartes@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Rafaela Velloso Missagia</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>rafaelamissagia@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Diogo Melo</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>diogro@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Weverton dos Santos Azevedo</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>weverton.azevedo@hotmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Ana Paula Assis</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>paulaassis@ib.usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Joyce Rodrigues do Prado</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>joyce.prado@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Samuel Augusto Aguiar dos Anjos</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>sam_aanjos@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>katarine nogueira norbertino</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>katarinenn@outlook.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Letícia Wanderley Cavalcanti</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>letcavalcanti02@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Tábita Hünemeier</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>hunemeier@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Gabriela Procópio Camacho</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>gpcamacho@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Thiago Silva Loboda</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>loboda_bio@yahoo.com.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Nathália Caldeira Dias</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>caldeira.nathalia@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Carlos Cristiano Simões Ferreira e Penha</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>cristianosf@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Denis Calandriello Calio</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>denis.calan@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Tiago Bosisio Quental</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>tbquental@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>AMMIR YACOUB HELOU</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>ammir@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Ivan Sergio Nunes Silva Filho</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>ivan.nunes@unesp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Alexander Tamanini Mônico</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>alexandermonico@hotmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Fernanda de Pinho Werneck</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>fewerneck@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Erik Henrique de Lacerda Choueri</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>chouerik@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Esteban Diego Koch</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>edkoch17@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Frederico Felizardo Barbosa</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>fredericofb012@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Amanda Freitas Haase</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>amandafreitashaase@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Felipe Arian de Andrade Araújo</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>araujo.felipearian@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Gilmax Gonçalves Ferreira</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>gillmax88@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Thais Helena Condez</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>thacondez@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Pamela Maciel Cremonez</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>pamelacremonez@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Isabella Fagundes Rosa Limão</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>isaarlimao@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Jonas Conduru Barros Neto</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>jonas.barrosneto@discente.univasf.edu.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Gabriela Procopio Leite</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>gabrielaprocopio3@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
           <t>Jonathan Murilo Andreu Conrado</t>
         </is>
       </c>
-      <c r="B233" t="inlineStr">
+      <c r="B323" t="inlineStr">
         <is>
           <t>jonathan.conrajo@gmail.com</t>
         </is>

--- a/Lists/SBBE24Attendees.xlsx
+++ b/Lists/SBBE24Attendees.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B323"/>
+  <dimension ref="A1:B333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,24 +420,24 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Constanza Clara Maubecin</t>
+          <t>Clarisse Palma da Silva</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>cmaubecin@imbiv.unc.edu.ar</t>
+          <t>cpalma@unicamp.br</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Clarisse Palma da Silva</t>
+          <t>Constanza Clara Maubecin</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>cpalma@unicamp.br</t>
+          <t>cmaubecin@imbiv.unc.edu.ar</t>
         </is>
       </c>
     </row>
@@ -804,72 +804,72 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Emilio de Lanna Neto</t>
+          <t>Henrique Batalha-Filho</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>emiliolanna@gmail.com</t>
+          <t>henrique.batalha@outlook.com</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Henrique Batalha-Filho</t>
+          <t>Isabelle Oliveira Lima Luz</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>henrique.batalha@outlook.com</t>
+          <t>isabelleluz@outlook.com.br</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Isabelle Oliveira Lima Luz</t>
+          <t>Júlia de Lima Carvalho</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>isabelleluz@outlook.com.br</t>
+          <t>julialima.carvalho18@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Alessandra Selbach Schnadelbach</t>
+          <t>Emilio de Lanna Neto</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>alessandra.schnadelbach@gmail.com</t>
+          <t>emiliolanna@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Beatriz Santos De Brito</t>
+          <t>Alessandra Selbach Schnadelbach</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>beatrizbiologia2017@gmail.com</t>
+          <t>alessandra.schnadelbach@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Júlia de Lima Carvalho</t>
+          <t>Beatriz Santos De Brito</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>julialima.carvalho18@gmail.com</t>
+          <t>beatrizbiologia2017@gmail.com</t>
         </is>
       </c>
     </row>
@@ -948,96 +948,96 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Caio Lucas Barroso Nascimento Teixeira de Souza</t>
+          <t>Andressa Emanuele Johann</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>caiobarroso212@gmail.com</t>
+          <t>johann_andressa@ufms.br</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Larissa Bortoli de Souza</t>
+          <t>Diego José Santana Silva</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>bortoli.larissa16@gmail.com</t>
+          <t>jose.santana@ufms.br</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Diego José Santana Silva</t>
+          <t>Caio Lucas Barroso Nascimento Teixeira de Souza</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>jose.santana@ufms.br</t>
+          <t>caiobarroso212@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Matheus Sthanley Ferreira Firme</t>
+          <t>Larissa Bortoli de Souza</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>fmatheuspba@gmail.com</t>
+          <t>bortoli.larissa16@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Andressa Emanuele Johann</t>
+          <t>Matheus Sthanley Ferreira Firme</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>johann_andressa@ufms.br</t>
+          <t>fmatheuspba@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Gecele Matos Paggi</t>
+          <t>Guilherme Duarte</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>gecele.paggi@ufms.br</t>
+          <t>guilhermeduartepr@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Fernando Munir Lima Calarge</t>
+          <t>Gecele Matos Paggi</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>fernando.calarge@gmail.com</t>
+          <t>gecele.paggi@ufms.br</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Guilherme Duarte</t>
+          <t>Fernando Munir Lima Calarge</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>guilhermeduartepr@gmail.com</t>
+          <t>fernando.calarge@gmail.com</t>
         </is>
       </c>
     </row>
@@ -1104,60 +1104,60 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Amanda Varago</t>
+          <t>Vitória Infran De Morais</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>amandavarago021@gmail.com</t>
+          <t>vitoria.infran@ufms.br</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Vitória Infran De Morais</t>
+          <t>Lethícia Stéfany Barbosa Dias</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>vitoria.infran@ufms.br</t>
+          <t>lethicia_dias@ufms.br</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Lethícia Stéfany Barbosa Dias</t>
+          <t>Sarah Mângia Barros</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>lethicia_dias@ufms.br</t>
+          <t>sarahmangia@yahoo.com.br</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Akyel Kiffiner de França Mendonça</t>
+          <t>Amanda Varago</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>a.kiffiner@gmail.com</t>
+          <t>amandavarago021@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sarah Mângia Barros</t>
+          <t>Akyel Kiffiner de França Mendonça</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>sarahmangia@yahoo.com.br</t>
+          <t>a.kiffiner@gmail.com</t>
         </is>
       </c>
     </row>
@@ -1224,72 +1224,72 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Thiago Jose de Carvalho Andre</t>
+          <t>Frederico Hillesheim Horst</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>thiago.andre@unb.br</t>
+          <t>fredhorst7@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Patricia Sanae Sujii</t>
+          <t>Thiago Jose de Carvalho Andre</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>sujiips@gmail.com</t>
+          <t>thiago.andre@unb.br</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Fernando Pacheco Rodrigues</t>
+          <t>Patricia Sanae Sujii</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>fprodrigues@unb.br</t>
+          <t>sujiips@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Lilian Gimenes Giugliano</t>
+          <t>Fernando Pacheco Rodrigues</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>liliangiu@unb.br</t>
+          <t>fprodrigues@unb.br</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Marco Aurélio Mendes Elias</t>
+          <t>Lilian Gimenes Giugliano</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>marcoelias.ecoevo@gmail.com</t>
+          <t>liliangiu@unb.br</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Thannya Nascimento Soares</t>
+          <t>Marco Aurélio Mendes Elias</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>tnsoares@ufg.br</t>
+          <t>marcoelias.ecoevo@gmail.com</t>
         </is>
       </c>
     </row>
@@ -1308,96 +1308,96 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Inês Soares de Menezes</t>
+          <t>Thannya Nascimento Soares</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>iassismenezes@gmail.com</t>
+          <t>tnsoares@ufg.br</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Iderval da Silva Júnior Sobrinho</t>
+          <t>Inês Soares de Menezes</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>iderval_jr@yahoo.com</t>
+          <t>iassismenezes@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Diogo Reis de Oliveira</t>
+          <t>Iderval da Silva Júnior Sobrinho</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>diogo.reisoliv@gmail.com</t>
+          <t>iderval_jr@yahoo.com</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Juliani Maciel dos Santos</t>
+          <t>Diogo Reis de Oliveira</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>juli.maciels@gmail.com</t>
+          <t>diogo.reisoliv@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Alejandra Bonilla Sánchez</t>
+          <t>Juliani Maciel dos Santos</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>alejabonilla.sanchez@gmail.com</t>
+          <t>juli.maciels@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Marcia Holsbach Beltrame</t>
+          <t>Alejandra Bonilla Sánchez</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>marcia.beltrame@ufrgs.br</t>
+          <t>alejabonilla.sanchez@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>LAERCIO MOREIRA CARDOSO JUNIOR</t>
+          <t>Marcia Holsbach Beltrame</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>laerciop53@gmail.com</t>
+          <t>marcia.beltrame@ufrgs.br</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Juliana Cristine Fontana</t>
+          <t>LAERCIO MOREIRA CARDOSO JUNIOR</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>julianacfontana@gmail.com</t>
+          <t>laerciop53@gmail.com</t>
         </is>
       </c>
     </row>
@@ -1428,36 +1428,36 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Carolina Prauchner Silva</t>
+          <t>Karoline Silva Zenato</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>carol_prauchner@hotmail.com</t>
+          <t>karoline.szen@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Karoline Silva Zenato</t>
+          <t>Juliana Cristine Fontana</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>karoline.szen@gmail.com</t>
+          <t>julianacfontana@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Gabriele Zenato Lazzari</t>
+          <t>Carolina Prauchner Silva</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>gabriele.lazzari@edu.pucrs.br</t>
+          <t>carol_prauchner@hotmail.com</t>
         </is>
       </c>
     </row>
@@ -1476,120 +1476,120 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Lorena Sanches Vieira</t>
+          <t>Alejandra Niño Reyes</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>lolly.vieirasa@gmail.com</t>
+          <t>alejandra.reyes@edu.pucrs.br</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Manuel Adrian Riveros Escalona</t>
+          <t>Cássio Hervé</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>manuelriveros72@hotmail.com</t>
+          <t>cassioherve@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Paulyana dos Santos Moura</t>
+          <t>Manuel Adrian Riveros Escalona</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>paulyanamoura@gmail.com</t>
+          <t>manuelriveros72@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Cássio Hervé</t>
+          <t>Lorena Sanches Vieira</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>cassioherve@gmail.com</t>
+          <t>lolly.vieirasa@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Alejandra Niño Reyes</t>
+          <t>Gabriele Zenato Lazzari</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>alejandra.reyes@edu.pucrs.br</t>
+          <t>gabriele.lazzari@edu.pucrs.br</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Luana Sousa Soares</t>
+          <t>Paulyana dos Santos Moura</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>lusousa.soares11@gmail.com</t>
+          <t>paulyanamoura@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>André Luís da Silva Zani</t>
+          <t>Luana Sousa Soares</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>zani.andre@yahoo.com.br</t>
+          <t>lusousa.soares11@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Maikel Varal</t>
+          <t>André Luís da Silva Zani</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>maikelvaral@yahoo.com.br</t>
+          <t>zani.andre@yahoo.com.br</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Carlos Robson Costa Cruz</t>
+          <t>Maikel Varal</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>cruz.carlosr21@gmail.com</t>
+          <t>maikelvaral@yahoo.com.br</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Letícia Monteiro</t>
+          <t>Carlos Robson Costa Cruz</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>leticiamonteiro.bio@gmail.com</t>
+          <t>cruz.carlosr21@gmail.com</t>
         </is>
       </c>
     </row>
@@ -1608,552 +1608,552 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ANDREIA CARINA TURCHETTO ZOLET</t>
+          <t>Letícia Monteiro</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>aturchetto@gmail.com</t>
+          <t>leticiamonteiro.bio@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Matías Maximiliano Malleret</t>
+          <t>ANDREIA CARINA TURCHETTO ZOLET</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>malleret2@gmail.com</t>
+          <t>aturchetto@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Aldo Mellender de Araújo</t>
+          <t>Matías Maximiliano Malleret</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>aldo1806@gmail.com</t>
+          <t>malleret2@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Bruna Oliveira Missaggia</t>
+          <t>Aldo Mellender de Araújo</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>bmissaggia@gmail.com</t>
+          <t>aldo1806@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Mateus sousa de almeida</t>
+          <t>Bruna Oliveira Missaggia</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>mateus_btec@hotmail.com</t>
+          <t>bmissaggia@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Marcelo Henrique Schwade</t>
+          <t>Juliene Lopes Costa</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>marceloh.schwade@gmail.com</t>
+          <t>julopescosta.23@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Juliene Lopes Costa</t>
+          <t>Pâmela Giordani Vielmo</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>julopescosta.23@gmail.com</t>
+          <t>pamelavielmo@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Pâmela Giordani Vielmo</t>
+          <t>Mateus sousa de almeida</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>pamelavielmo@hotmail.com</t>
+          <t>mateus_btec@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>ISABEL GOMES VIEIRA</t>
+          <t>Marcelo Henrique Schwade</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>belgovieira@gmail.com</t>
+          <t>marceloh.schwade@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Juliana Cordeiro</t>
+          <t>ISABEL GOMES VIEIRA</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>jlncdr@gmail.com</t>
+          <t>belgovieira@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Aléxia Vittória Dariva Tormen</t>
+          <t>Juliana Cordeiro</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>alexia.tormen@hotmail.com</t>
+          <t>jlncdr@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Marco Silva Gottschalk</t>
+          <t>Aléxia Vittória Dariva Tormen</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>marco.gottschalk@yahoo.com</t>
+          <t>alexia.tormen@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Monica Laner Blauth</t>
+          <t>Marco Silva Gottschalk</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>blauth.monica@gmail.com</t>
+          <t>marco.gottschalk@yahoo.com</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Joana Gehlen Tessaro</t>
+          <t>Monica Laner Blauth</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>tessarojg@gmail.com</t>
+          <t>blauth.monica@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Roger Henrique Dalcin</t>
+          <t>Joana Gehlen Tessaro</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>roger.dalcin@gmail.com</t>
+          <t>tessarojg@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Manuella Cardoso Teixeira</t>
+          <t>Roger Henrique Dalcin</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>manuella.mhc2@gmail.com</t>
+          <t>roger.dalcin@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Andrea Rita Marrero</t>
+          <t>Manuella Cardoso Teixeira</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>andrea.marrero@ufsc.br</t>
+          <t>manuella.mhc2@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Jéssica Sueli dos Santos Batista</t>
+          <t>Andrea Rita Marrero</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>jessica.ssb@grad.ufsc.br</t>
+          <t>andrea.marrero@ufsc.br</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Gabriéli Luiza Steffens Knapp</t>
+          <t>Jéssica Sueli dos Santos Batista</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>gabrieli_steffens-pzo@hotmail.com</t>
+          <t>jessica.ssb@grad.ufsc.br</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Edgar De Paula Guerreiro</t>
+          <t>Gabriéli Luiza Steffens Knapp</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>edgar.guerreiro@tutanota.com</t>
+          <t>gabrieli_steffens-pzo@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Luiza Kittel Chiká</t>
+          <t>Edgar De Paula Guerreiro</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>luizakittel@gmail.com</t>
+          <t>edgar.guerreiro@tutanota.com</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Anglia Lavinia Lopes Moreira</t>
+          <t>Luiza Kittel Chiká</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>anglia.lopes@gmail.com</t>
+          <t>luizakittel@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Lorenzo Driessen Cigognini</t>
+          <t>Anglia Lavinia Lopes Moreira</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>lorenzocigognini@gmail.com</t>
+          <t>anglia.lopes@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Antonio Felipe Pereira dos Santos</t>
+          <t>Lorenzo Driessen Cigognini</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>antonio.fps@hotmail.com</t>
+          <t>lorenzocigognini@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Giovanna Hernandez Garcia</t>
+          <t>Antonio Felipe Pereira dos Santos</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>giio.ufsc@gmail.com</t>
+          <t>antonio.fps@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Vinicius Oliveira Miranda</t>
+          <t>Giovanna Hernandez Garcia</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>viny.olmiranda@gmail.com</t>
+          <t>giio.ufsc@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Henrique Batista Gomes da Silva</t>
+          <t>Vinicius Oliveira Miranda</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ra130150@uem.br</t>
+          <t>viny.olmiranda@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Wanderley Dantas dos Santos</t>
+          <t>Henrique Batista Gomes da Silva</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>wdsantos@uem.br</t>
+          <t>ra130150@uem.br</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Aparecido Soares da Silva Júnior</t>
+          <t>Wanderley Dantas dos Santos</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ra124357@uem.br</t>
+          <t>wdsantos@uem.br</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Luiz Gustavo Gutierrez Ferreira</t>
+          <t>Aparecido Soares da Silva Júnior</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>luiz318guti@gmail.com</t>
+          <t>ra124357@uem.br</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Pamella Oliveira Fardin</t>
+          <t>Luiz Gustavo Gutierrez Ferreira</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ra134937@uem.br</t>
+          <t>luiz318guti@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Rodrigo de Mello</t>
+          <t>Pamella Oliveira Fardin</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>rdemellobr@gmail.com</t>
+          <t>ra134937@uem.br</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Wes</t>
+          <t>Rodrigo de Mello</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>wesley94moraes@gmail.com</t>
+          <t>rdemellobr@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Luana Garcia Siqueira Da Silva</t>
+          <t>Wes</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ra133953@uem.br</t>
+          <t>wesley94moraes@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Maria Eduarda Araujo Ribeiro</t>
+          <t>Luana Garcia Siqueira Da Silva</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ra130004@uem.br</t>
+          <t>ra133953@uem.br</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Alexandre do Sacramento Alves Anselmo</t>
+          <t>Maria Eduarda Araujo Ribeiro</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>alexandre.sa.anselmo@gmail.com</t>
+          <t>ra130004@uem.br</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Nicoli Taísi Ornaghi</t>
+          <t>Alexandre do Sacramento Alves Anselmo</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ra134020@uem.br</t>
+          <t>alexandre.sa.anselmo@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Leonardo Rodrigues Tolardo</t>
+          <t>Nicoli Taísi Ornaghi</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>leonardorodriguestolardo@gmail.com</t>
+          <t>ra134020@uem.br</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Rodrigo A. Torres</t>
+          <t>Leonardo Rodrigues Tolardo</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>rodrigotorres@utfpr.edu.br</t>
+          <t>leonardorodriguestolardo@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Roberto Ferreira Artoni</t>
+          <t>Rodrigo A. Torres</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>rfartoni@gmail.com</t>
+          <t>rodrigotorres@utfpr.edu.br</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Fabiano Stefanello</t>
+          <t>Roberto Ferreira Artoni</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>stefanellof@gmail.com</t>
+          <t>rfartoni@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Luana Vieira</t>
+          <t>Fabiano Stefanello</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>luanavieira.snow@gmail.com</t>
+          <t>stefanellof@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Wesley Gomes Bojarski</t>
+          <t>Luana Vieira</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>wesleybojarski@gmail.com</t>
+          <t>luanavieira.snow@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Lucas Szekut de Paula</t>
+          <t>Wesley Gomes Bojarski</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>lucasszekutdepaula@gmail.com</t>
+          <t>wesleybojarski@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Adler Dvorak Barboza</t>
+          <t>Lucas Szekut de Paula</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>adlerdvorak@gmail.com</t>
+          <t>lucasszekutdepaula@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Marcela Naomi Okabayashi da Silva</t>
+          <t>Adler Dvorak Barboza</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>marcela.naomi@ufpr.br</t>
+          <t>adlerdvorak@gmail.com</t>
         </is>
       </c>
     </row>
@@ -2172,120 +2172,120 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Luddy Searom Carias de Moraes</t>
+          <t>Marcela Naomi Okabayashi da Silva</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>luddysearom@gmail.com</t>
+          <t>marcela.naomi@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Maria Julia Michelini de Almeida</t>
+          <t>Luddy Searom Carias de Moraes</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>majumichelini@gmail.com</t>
+          <t>luddysearom@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Marcos Barbeitos</t>
+          <t>João Mateus Zepson Capucho</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>msbarbeitos@gmail.com</t>
+          <t>joao.capucho@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Desirrê Alexia Lourenço Petters Vandresen</t>
+          <t>Maria Julia Michelini de Almeida</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>desirre.petters@gmail.com</t>
+          <t>majumichelini@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>João Mateus Zepson Capucho</t>
+          <t>Michele Bertoncello</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>joao.capucho@ufpr.br</t>
+          <t>michelebertoncello146@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Michele Bertoncello</t>
+          <t>Marcos Barbeitos</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>michelebertoncello146@gmail.com</t>
+          <t>msbarbeitos@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Fabricius Maia Chaves Bicalho Domingos</t>
+          <t>Desirrê Alexia Lourenço Petters Vandresen</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>fabricius.domingos@ufpr.br</t>
+          <t>desirre.petters@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Arquimedes Paixão de Santana Filho</t>
+          <t>Fabricius Maia Chaves Bicalho Domingos</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>santana@ufpr.br</t>
+          <t>fabricius.domingos@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Amanda Beatriz Loureiro</t>
+          <t>Arquimedes Paixão de Santana Filho</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>amandabeatrizloureiro@gmail.com</t>
+          <t>santana@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Bruna Buss</t>
+          <t>Amanda Beatriz Loureiro</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>brunacarolinebuss@gmail.com</t>
+          <t>amandabeatrizloureiro@gmail.com</t>
         </is>
       </c>
     </row>
@@ -2304,1404 +2304,1404 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Pedro Natale Cavezzale Dias</t>
+          <t>Fernanda Freitas de Oliveira</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>pnatalecd@gmail.com</t>
+          <t>fernandaoliveira@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Leonardo Tyskowski Felix</t>
+          <t>Pedro Natale Cavezzale Dias</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>leotyszko@gmail.com</t>
+          <t>pnatalecd@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Alexandre Henrique Pedroso</t>
+          <t>Leonardo Tyskowski Felix</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ahenriquepedroso@gmail.com</t>
+          <t>leotyszko@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Thamyris Weber Pereira</t>
+          <t>Alexandre Henrique Pedroso</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>thamyweber@gmail.com</t>
+          <t>ahenriquepedroso@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Matheus Igor Fontana</t>
+          <t>Thamyris Weber Pereira</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>matheu-igor@hotmail.com</t>
+          <t>thamyweber@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Leonardo Ricardo Nunes</t>
+          <t>Fernanda Witt Cidade</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>leonardoricardo518@gmail.com</t>
+          <t>fernandacidade@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Fernanda Witt Cidade</t>
+          <t>Mariana Guolo Moschen</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>fernandacidade@gmail.com</t>
+          <t>marianagmoschen17@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Mariana Guolo Moschen</t>
+          <t>Leonardo Ricardo Nunes</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>marianagmoschen17@gmail.com</t>
+          <t>leonardoricardo518@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Ana Beatriz Viergbiski Schwitzner</t>
+          <t>Matheus Igor Fontana</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>anabeatrizviergbiskischwitzner@gmail.com</t>
+          <t>matheu-igor@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Mayara Pereira Neves</t>
+          <t>Talita Helen Bombardelli Gomig</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>mayara-nevesbio@hotmail.com</t>
+          <t>talitahbg@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Thais Neves</t>
+          <t>Bruna Buss</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>thaisneves2366@gmail.com</t>
+          <t>brunacarolinebuss@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Izadora Moraes da Silva</t>
+          <t>VILMAR FERNANDO BUENO JUNIOR</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>moraesiza12@gmail.com</t>
+          <t>vilmarbueno_@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Juliana Rosa Matias Ciccheto</t>
+          <t>Vic Sant'Ana dos Santos</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>cicchetoju@gmail.com</t>
+          <t>rachel.santana2302@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Eric de Camargo Smidt</t>
+          <t>Rodrigo Barbosa Gonçalves</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>ecsmidt@gmail.com</t>
+          <t>goncalvesrb@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Maria Vitoria Lima da Silva</t>
+          <t>Raiana Santiago da Costa</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>mariavitoriadelima020@gmail.com</t>
+          <t>val_raiana@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Henrique Luiz Rieger</t>
+          <t>Juliane Xavier</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>henriquerieger2001@gmail.com</t>
+          <t>julianexavier57361@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Bruno Torquato</t>
+          <t>Elisa de Castro Wille Nonino</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>brunotorquato100@gmail.com</t>
+          <t>elisanonino00@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>João Vitor Mello Hortega</t>
+          <t>Laura Laino da Costa</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>joaovitormelloh@gmail.com</t>
+          <t>laura.costa231@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Ricardo Lehtonen Rodrigues Souza</t>
+          <t>Vitória Ibane</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>lehtonen@ufpr.br</t>
+          <t>viibane@outlook.com</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>LUCAS KATSUMI ROCHA HINOSHITA</t>
+          <t>Fernanda S. Caron</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>katsumilucas@gmail.com</t>
+          <t>fernandadesouzacaron@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Ana Julia Possamai de Oliveira</t>
+          <t>Nicole Isabelle Stocco</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>anaju.possamai@gmail.com</t>
+          <t>nicole.ufpr@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Rodrigo Barbosa Gonçalves</t>
+          <t>Vitória Sávio Buchi</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>goncalvesrb@gmail.com</t>
+          <t>viccabuchi@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Elisa de Castro Wille Nonino</t>
+          <t>Bruno Torquato</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>elisanonino00@gmail.com</t>
+          <t>brunotorquato100@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Vitória Sávio Buchi</t>
+          <t>João Vitor Mello Hortega</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>viccabuchi@gmail.com</t>
+          <t>joaovitormelloh@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Laura Laino da Costa</t>
+          <t>Ricardo Lehtonen Rodrigues Souza</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>laura.costa231@gmail.com</t>
+          <t>lehtonen@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Raiana Santiago da Costa</t>
+          <t>LUCAS KATSUMI ROCHA HINOSHITA</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>val_raiana@hotmail.com</t>
+          <t>katsumilucas@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Juliane Xavier</t>
+          <t>Ana Julia Possamai de Oliveira</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>julianexavier57361@gmail.com</t>
+          <t>anaju.possamai@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Vic Sant'Ana dos Santos</t>
+          <t>Mayara Pereira Neves</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>rachel.santana2302@gmail.com</t>
+          <t>mayara-nevesbio@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>VILMAR FERNANDO BUENO JUNIOR</t>
+          <t>Thais Neves</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>vilmarbueno_@hotmail.com</t>
+          <t>thaisneves2366@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Vitória Ibane</t>
+          <t>Izadora Moraes da Silva</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>viibane@outlook.com</t>
+          <t>moraesiza12@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Fernanda S. Caron</t>
+          <t>Viviane da Silva-Pereira</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>fernandadesouzacaron@gmail.com</t>
+          <t>visilvapereira@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Paulo Henrique Mueller</t>
+          <t>Ana Beatriz Viergbiski Schwitzner</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>profmueller@gmail.com</t>
+          <t>anabeatrizviergbiskischwitzner@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Letícia Caroline Chaves</t>
+          <t>Juliana Rosa Matias Ciccheto</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>leticia.leticiacchaves@gmail.com</t>
+          <t>cicchetoju@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Heloise Tainá Sant’Anna</t>
+          <t>Eric de Camargo Smidt</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>helo.taina.sa@gmail.com</t>
+          <t>ecsmidt@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Luís Gustavo da Conceição Galego</t>
+          <t>Maria Vitoria Lima da Silva</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>luis.galego@uftm.edu.br</t>
+          <t>mariavitoriadelima020@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Ronielson Gaia Da Silva</t>
+          <t>Henrique Luiz Rieger</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>ronielsongaia@hotmail.com</t>
+          <t>henriquerieger2001@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Thieres Tayroni Martins da Silva</t>
+          <t>Paulo Henrique Mueller</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>thierestayroni@gmail.com</t>
+          <t>profmueller@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Henry Paul Granger Neto</t>
+          <t>Letícia Caroline Chaves</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>hp.granger98@gmail.com</t>
+          <t>leticia.leticiacchaves@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Laura Mara Silva Pereira</t>
+          <t>Heloise Tainá Sant’Anna</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>laura.marasp@gmail.com</t>
+          <t>helo.taina.sa@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Fernando Araujo Perini</t>
+          <t>Ronielson Gaia Da Silva</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>faperini@ufmg.br</t>
+          <t>ronielsongaia@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Lucas Bleicher</t>
+          <t>Luís Gustavo da Conceição Galego</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>lbleicher@gmail.com</t>
+          <t>luis.galego@uftm.edu.br</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Pammella Teixeira</t>
+          <t>Henry Paul Granger Neto</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>pammellateixeira@gmail.com</t>
+          <t>hp.granger98@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Davi Barbalho Cavalcanti</t>
+          <t>Laura Mara Silva Pereira</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>barbalhodavi123@gmail.com</t>
+          <t>laura.marasp@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>MATEUS CHAMONE BURGARELLI</t>
+          <t>Fernando Araujo Perini</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>mateuschamone95@gmail.com</t>
+          <t>faperini@ufmg.br</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Isaac Rafael Freitas Borges</t>
+          <t>Thieres Tayroni Martins da Silva</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>isaacborges966@gmail.com</t>
+          <t>thierestayroni@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>ANA CECILIA HOLLER DEL PRETTE</t>
+          <t>Lucas Bleicher</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>anacecilia.holler@gmail.com</t>
+          <t>lbleicher@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Gabriel Costa Santos</t>
+          <t>Davi Barbalho Cavalcanti</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>gabrielscosta90@gmail.com</t>
+          <t>barbalhodavi123@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Origilene Bezerra Dantas</t>
+          <t>Pammella Teixeira</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>origilenedantas@gmail.com</t>
+          <t>pammellateixeira@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Rafael Félix de Magalhães</t>
+          <t>MATEUS CHAMONE BURGARELLI</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>rafaelmagalhaes@ufsj.edu.br</t>
+          <t>mateuschamone95@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Ramon Moreira Fernandes</t>
+          <t>Isaac Rafael Freitas Borges</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>ramonmf360@gmail.com</t>
+          <t>isaacborges966@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Welignton Clarindo</t>
+          <t>ANA CECILIA HOLLER DEL PRETTE</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>well.clarindo@ufv.br</t>
+          <t>anacecilia.holler@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Alessandro Marques De Oliveira</t>
+          <t>Gabriel Costa Santos</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>biolessandro@gmail.com</t>
+          <t>gabrielscosta90@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Mariana Fonseca Rossi</t>
+          <t>Origilene Bezerra Dantas</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>mfonsecarossi@gmail.com</t>
+          <t>origilenedantas@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Henrique Caldeira Costa</t>
+          <t>Rafael Félix de Magalhães</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>ccostah@gmail.com</t>
+          <t>rafaelmagalhaes@ufsj.edu.br</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Henrique José de Oliveira</t>
+          <t>Ramon Moreira Fernandes</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>henrique.bio22@gmail.com</t>
+          <t>ramonmf360@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>André Yves</t>
+          <t>Welignton Clarindo</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>andreyves7@gmail.com</t>
+          <t>well.clarindo@ufv.br</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>João Pedro Almeida Caetano</t>
+          <t>Alessandro Marques De Oliveira</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>20201200051@pq.uenf.br</t>
+          <t>biolessandro@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Bruno Clarkson</t>
+          <t>Mariana Fonseca Rossi</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>brclarkson@gmail.com</t>
+          <t>mfonsecarossi@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Juliana Lopes De Lima</t>
+          <t>Henrique Caldeira Costa</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>julianapv100@gmail.com</t>
+          <t>ccostah@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Yasmim Alvarenga</t>
+          <t>Henrique José de Oliveira</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>y.alvarenga.abreu@gmail.com</t>
+          <t>henrique.bio22@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Davi Marques De Oliveira De Sá</t>
+          <t>André Yves</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>ivadmarques48@gmail.com</t>
+          <t>andreyves7@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>CLARISSA COIMBRA CANEDO</t>
+          <t>João Pedro Almeida Caetano</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>clarissa.canedo@gmail.com</t>
+          <t>20201200051@pq.uenf.br</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Miguel Godinho Alvares</t>
+          <t>Bruno Clarkson</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>miguelgodinhoalvares@gmail.com</t>
+          <t>brclarkson@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Dener Soares Da Costa Junior</t>
+          <t>Juliana Lopes De Lima</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>denerdacosta12@gmail.com</t>
+          <t>julianapv100@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Bruno Loreto de Aragão Pedroso</t>
+          <t>Yasmim Alvarenga</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>bruno.loreto.aragao@hotmail.com</t>
+          <t>y.alvarenga.abreu@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Gabriel Henrique Nunes Rodrigues</t>
+          <t>Comissão Avaliadora</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>gabhengel@gmail.com</t>
+          <t>angela_portella@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Claudia Augusta de Moraes Russo</t>
+          <t>RAFAEL FILGUEIRA JORGE</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>claurusso@hotmail.com</t>
+          <t>rafajorgebio@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>RAFAEL FILGUEIRA JORGE</t>
+          <t>Ana Carolina Martins Junqueira</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>rafajorgebio@gmail.com</t>
+          <t>anacmj@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Beatriz Mello Carvalho</t>
+          <t>José Mateus dos Santos</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>biaumello@gmail.com</t>
+          <t>mateussantosprof14@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Ana Carolina Martins Junqueira</t>
+          <t>Jose Ricardo Miras Mermudes</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>anacmj@gmail.com</t>
+          <t>jrmermudes@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>José Mateus dos Santos</t>
+          <t>Davi Marques De Oliveira De Sá</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>mateussantosprof14@gmail.com</t>
+          <t>ivadmarques48@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Jose Ricardo Miras Mermudes</t>
+          <t>CLARISSA COIMBRA CANEDO</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>jrmermudes@gmail.com</t>
+          <t>clarissa.canedo@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Carlos Eduardo Guerra Schrago</t>
+          <t>Miguel Godinho Alvares</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>carlos.schrago@gmail.com</t>
+          <t>miguelgodinhoalvares@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Gabriela Ferreira Mota</t>
+          <t>Dener Soares Da Costa Junior</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>motafgabriela@gmail.com</t>
+          <t>denerdacosta12@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Ismar de Souza Carvalho</t>
+          <t>Bruno Loreto de Aragão Pedroso</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>ismar@geologia.ufrj.br</t>
+          <t>bruno.loreto.aragao@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Clarice Assumpção da Costa</t>
+          <t>Gabriel Henrique Nunes Rodrigues</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>assumpcao.clarice@gmail.com</t>
+          <t>gabhengel@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Ingrid Martins Machado Garcia Veiga</t>
+          <t>Claudia Augusta de Moraes Russo</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>ingridgveiga@gmail.com</t>
+          <t>claurusso@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Luiza Silva Anselmini</t>
+          <t>Carlos Eduardo Guerra Schrago</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>miniansel.lu@gmail.com</t>
+          <t>carlos.schrago@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>ALENA MAYO INIGUEZ</t>
+          <t>Beatriz Mello Carvalho</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>alenainiguez@gmail.com</t>
+          <t>biaumello@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Lais Henriques de Mattos</t>
+          <t>Gabriela Ferreira Mota</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>laishenriques91@gmail.com</t>
+          <t>motafgabriela@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Inês Corrêa Gonçalves</t>
+          <t>Ismar de Souza Carvalho</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>inescg.bio@gmail.com</t>
+          <t>ismar@geologia.ufrj.br</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Lucas Pereira da Rocha</t>
+          <t>Clarice Assumpção da Costa</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>lucasrocha700@gmail.com</t>
+          <t>assumpcao.clarice@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Alexandra Paris Toledo</t>
+          <t>Ingrid Martins Machado Garcia Veiga</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>alepariis@gmail.com</t>
+          <t>ingridgveiga@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Alessandra Pavan Lamarca</t>
+          <t>Luiza Silva Anselmini</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>pavanlamarca@gmail.com</t>
+          <t>miniansel.lu@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Luísa Andrade Mendes</t>
+          <t>Gabriela Mussalem Haddad</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>mendesluisa1997@gmail.com</t>
+          <t>gabimh3181@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Melissa Bars Closel</t>
+          <t>Luísa Andrade Mendes</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>melissabars@gmail.com</t>
+          <t>mendesluisa1997@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Breno Michelon Seixas</t>
+          <t>Lais Henriques de Mattos</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>breno.mseixas@usp.br</t>
+          <t>laishenriques91@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Martín Rodrigo Escobar</t>
+          <t>Inês Corrêa Gonçalves</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>martin.escobar@usp.br</t>
+          <t>inescg.bio@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Thiago Takeshi Goto</t>
+          <t>ALENA MAYO INIGUEZ</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>thi.takeshi@gmail.com</t>
+          <t>alenainiguez@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Danilo Camargo Fernandes</t>
+          <t>Lucas Pereira da Rocha</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>danilo.fernandes@usp.br</t>
+          <t>lucasrocha700@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Lucas Barcelos</t>
+          <t>Alessandra Pavan Lamarca</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>lucasabarcelos@gmail.com</t>
+          <t>pavanlamarca@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Lígia Mouriño de Almeida Prado</t>
+          <t>Alexandra Paris Toledo</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>ligia.prado@unesp.br</t>
+          <t>alepariis@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Ana Malaghini de Abreu</t>
+          <t>Melissa Bars Closel</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>anamalaghini9gold@gmail.com</t>
+          <t>melissabars@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Gabriel Tofanelo Vanin</t>
+          <t>Breno Michelon Seixas</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>gabriel.vanin@unesp.br</t>
+          <t>breno.mseixas@usp.br</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Gustavo da Silva Ambrosio</t>
+          <t>Martín Rodrigo Escobar</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>gustavo.ambrosio@unesp.br</t>
+          <t>martin.escobar@usp.br</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Fernanda Biscaino Saluceste</t>
+          <t>Danilo Camargo Fernandes</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>fernanda.saluceste@unesp.br</t>
+          <t>danilo.fernandes@usp.br</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Leonardo Maurici Borges</t>
+          <t>Thiago Takeshi Goto</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>aquitemcaqui@gmail.com</t>
+          <t>thi.takeshi@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Rafael Fernandes Barduzzi</t>
+          <t>Lucas Barcelos</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>rfbarduzzi@gmail.com</t>
+          <t>lucasabarcelos@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Lucas Pereira Camargo</t>
+          <t>Lígia Mouriño de Almeida Prado</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>lucaspc@estudante.ufscar.br</t>
+          <t>ligia.prado@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>João Pedro Fujita</t>
+          <t>Ana Malaghini de Abreu</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>joaopedrofujita@estudante.ufscar.br</t>
+          <t>anamalaghini9gold@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Victor Hugo Barbosa Pereira</t>
+          <t>Gabriel Tofanelo Vanin</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>vhb.pereira@unesp.br</t>
+          <t>gabriel.vanin@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Francisco Borges</t>
+          <t>Gustavo da Silva Ambrosio</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>fa.borges@unesp.br</t>
+          <t>gustavo.ambrosio@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>João Francisco Ponticelli Tottene</t>
+          <t>Fernanda Biscaino Saluceste</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>tott.joao@gmail.com</t>
+          <t>fernanda.saluceste@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Felipe Messias Leandro</t>
+          <t>Leonardo Maurici Borges</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>felipe.messias@unesp.br</t>
+          <t>aquitemcaqui@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Analice Gabrielle Marquezin Gomes</t>
+          <t>Rafael Fernandes Barduzzi</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>analice.gabrielle@unesp.br</t>
+          <t>rfbarduzzi@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Luiza de Moraes Magaldi</t>
+          <t>Lucas Pereira Camargo</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>luiza.magaldi@gmail.com</t>
+          <t>lucaspc@estudante.ufscar.br</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>João Claudio de Sousa Nascimento</t>
+          <t>João Pedro Fujita</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>j.claudionasci@gmail.com</t>
+          <t>joaopedrofujita@estudante.ufscar.br</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Pábulo Matheus Domiciano</t>
+          <t>Francisco Borges</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>pabulodomiciano@gmail.com</t>
+          <t>fa.borges@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Nicolle Souza Leto</t>
+          <t>João Francisco Ponticelli Tottene</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>letonicolle@gmail.com</t>
+          <t>tott.joao@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Pedro Henrique Pacheco Mosquini</t>
+          <t>Felipe Messias Leandro</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>mosquiniphp@gmail.com</t>
+          <t>felipe.messias@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Tami da Costa Cacossi</t>
+          <t>Victor Hugo Barbosa Pereira</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>tamiccacossi@gmail.com</t>
+          <t>vhb.pereira@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Leonardo Duarte Santos</t>
+          <t>Analice Gabrielle Marquezin Gomes</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>santosldbio@gmail.com</t>
+          <t>analice.gabrielle@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Vera Nisaka Solferini</t>
+          <t>Lina Maria Ameida Silva</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>veras@unicamp.br</t>
+          <t>linamas@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Julia Nader Acquaviva</t>
+          <t>Amanda Lichtscheidl Graciadio</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>julianader95@gmail.com</t>
+          <t>a265805@dac.unicamp.br</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Henrique Vilela da Mata Bianchini</t>
+          <t>Pedro Danel de Souza Ugarte</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>h236891@dac.unicamp.br</t>
+          <t>pedaugaso@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Paulo Aecyo Francisco da Silva</t>
+          <t>Beatriz Helena Macari Daros</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>pauloaecyo_1997@hotmail.com</t>
+          <t>beatrizdarosbio@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Beatriz Helena Macari Daros</t>
+          <t>Paulo Aecyo Francisco da Silva</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>beatrizdarosbio@gmail.com</t>
+          <t>pauloaecyo_1997@hotmail.com</t>
         </is>
       </c>
     </row>
@@ -3720,514 +3720,634 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Pedro Danel de Souza Ugarte</t>
+          <t>Lucas Albuquerque dos Santos</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>pedaugaso@gmail.com</t>
+          <t>lucasabqsto@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Lucas Albuquerque dos Santos</t>
+          <t>Luiza de Moraes Magaldi</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>lucasabqsto@gmail.com</t>
+          <t>luiza.magaldi@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Amanda Lichtscheidl Graciadio</t>
+          <t>João Claudio de Sousa Nascimento</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>a265805@dac.unicamp.br</t>
+          <t>j.claudionasci@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Tiago Benedito dos Santos</t>
+          <t>Fernando Sotero de Lara</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>tiagobio02@yahoo.com.br</t>
+          <t>f236823@dac.unicamp.br</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Jardel De Oliveira</t>
+          <t>Pábulo Matheus Domiciano</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>jardel.oliveira90@hotmail.com</t>
+          <t>pabulodomiciano@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Diliane Harumi Yaguinuma</t>
+          <t>Nicolle Souza Leto</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>diliane-harumi@hotmail.com</t>
+          <t>letonicolle@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Ana Claudia Lessinger</t>
+          <t>Pedro Henrique Pacheco Mosquini</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>lessinger@ufscar.br</t>
+          <t>mosquiniphp@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Miguel Piovesana Pereira Romeiro</t>
+          <t>Tami da Costa Cacossi</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>miguelpromeiro@gmail.com</t>
+          <t>tamiccacossi@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Eduardo Koerich Nery</t>
+          <t>Leonardo Duarte Santos</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>eduardo.k.nery@gmail.com</t>
+          <t>santosldbio@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Irene De Fátima Vieira De Moraes</t>
+          <t>Isa Eloá de Freitas Poloni</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>irenef.vieiram@gmail.com</t>
+          <t>isaeloa011203@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Ana Paula Becker</t>
+          <t>Vera Nisaka Solferini</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>ana.becker023@gmail.com</t>
+          <t>veras@unicamp.br</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Marcelo Duarte</t>
+          <t>Julia Nader Acquaviva</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>mduartes@usp.br</t>
+          <t>julianader95@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Rafaela Velloso Missagia</t>
+          <t>Henrique Vilela da Mata Bianchini</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>rafaelamissagia@gmail.com</t>
+          <t>h236891@dac.unicamp.br</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Diogo Melo</t>
+          <t>Diliane Harumi Yaguinuma</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>diogro@gmail.com</t>
+          <t>diliane-harumi@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Weverton dos Santos Azevedo</t>
+          <t>Jardel De Oliveira</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>weverton.azevedo@hotmail.com</t>
+          <t>jardel.oliveira90@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Ana Paula Assis</t>
+          <t>Tiago Benedito dos Santos</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>paulaassis@ib.usp.br</t>
+          <t>tiagobio02@yahoo.com.br</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Joyce Rodrigues do Prado</t>
+          <t>Ana Claudia Lessinger</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>joyce.prado@usp.br</t>
+          <t>lessinger@ufscar.br</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Samuel Augusto Aguiar dos Anjos</t>
+          <t>Miguel Piovesana Pereira Romeiro</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>sam_aanjos@usp.br</t>
+          <t>miguelpromeiro@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>katarine nogueira norbertino</t>
+          <t>Eduardo Koerich Nery</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>katarinenn@outlook.com</t>
+          <t>eduardo.k.nery@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Letícia Wanderley Cavalcanti</t>
+          <t>Irene De Fátima Vieira De Moraes</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>letcavalcanti02@gmail.com</t>
+          <t>irenef.vieiram@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Tábita Hünemeier</t>
+          <t>Ana Paula Becker</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>hunemeier@usp.br</t>
+          <t>ana.becker023@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Gabriela Procópio Camacho</t>
+          <t>Marcelo Duarte</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>gpcamacho@usp.br</t>
+          <t>mduartes@usp.br</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Thiago Silva Loboda</t>
+          <t>Weverton dos Santos Azevedo</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>loboda_bio@yahoo.com.br</t>
+          <t>weverton.azevedo@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Nathália Caldeira Dias</t>
+          <t>Rafaela Velloso Missagia</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>caldeira.nathalia@gmail.com</t>
+          <t>rafaelamissagia@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Carlos Cristiano Simões Ferreira e Penha</t>
+          <t>Diogo Melo</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>cristianosf@usp.br</t>
+          <t>diogro@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Denis Calandriello Calio</t>
+          <t>Ana Paula Assis</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>denis.calan@gmail.com</t>
+          <t>paulaassis@ib.usp.br</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Tiago Bosisio Quental</t>
+          <t>Joyce Rodrigues do Prado</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>tbquental@usp.br</t>
+          <t>joyce.prado@usp.br</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>AMMIR YACOUB HELOU</t>
+          <t>katarine nogueira norbertino</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>ammir@usp.br</t>
+          <t>katarinenn@outlook.com</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Ivan Sergio Nunes Silva Filho</t>
+          <t>Samuel Augusto Aguiar dos Anjos</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>ivan.nunes@unesp.br</t>
+          <t>sam_aanjos@usp.br</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Alexander Tamanini Mônico</t>
+          <t>Letícia Wanderley Cavalcanti</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>alexandermonico@hotmail.com</t>
+          <t>letcavalcanti02@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Fernanda de Pinho Werneck</t>
+          <t>Tábita Hünemeier</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>fewerneck@gmail.com</t>
+          <t>hunemeier@usp.br</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Erik Henrique de Lacerda Choueri</t>
+          <t>Gabriela Procópio Camacho</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>chouerik@gmail.com</t>
+          <t>gpcamacho@usp.br</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Esteban Diego Koch</t>
+          <t>Thiago Silva Loboda</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>edkoch17@gmail.com</t>
+          <t>loboda_bio@yahoo.com.br</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Frederico Felizardo Barbosa</t>
+          <t>Nathália Caldeira Dias</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>fredericofb012@gmail.com</t>
+          <t>caldeira.nathalia@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Amanda Freitas Haase</t>
+          <t>Denis Calandriello Calio</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>amandafreitashaase@gmail.com</t>
+          <t>denis.calan@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Felipe Arian de Andrade Araújo</t>
+          <t>Carlos Cristiano Simões Ferreira e Penha</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>araujo.felipearian@gmail.com</t>
+          <t>cristianosf@usp.br</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Gilmax Gonçalves Ferreira</t>
+          <t>Tiago Bosisio Quental</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>gillmax88@gmail.com</t>
+          <t>tbquental@usp.br</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Thais Helena Condez</t>
+          <t>AMMIR YACOUB HELOU</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>thacondez@gmail.com</t>
+          <t>ammir@usp.br</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Pamela Maciel Cremonez</t>
+          <t>Ivan Sergio Nunes Silva Filho</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>pamelacremonez@gmail.com</t>
+          <t>ivan.nunes@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Isabella Fagundes Rosa Limão</t>
+          <t>Fernanda de Pinho Werneck</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>isaarlimao@gmail.com</t>
+          <t>fewerneck@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Jonas Conduru Barros Neto</t>
+          <t>Erik Henrique de Lacerda Choueri</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>jonas.barrosneto@discente.univasf.edu.br</t>
+          <t>chouerik@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Gabriela Procopio Leite</t>
+          <t>Alexander Tamanini Mônico</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>gabrielaprocopio3@gmail.com</t>
+          <t>alexandermonico@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
+          <t>Esteban Diego Koch</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>edkoch17@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Frederico Felizardo Barbosa</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>fredericofb012@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Amanda Freitas Haase</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>amandafreitashaase@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Felipe Arian de Andrade Araújo</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>araujo.felipearian@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Gilmax Gonçalves Ferreira</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>gillmax88@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Thais Helena Condez</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>thacondez@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Pamela Maciel Cremonez</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>pamelacremonez@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Isabella Fagundes Rosa Limão</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>isaarlimao@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Jonas Conduru Barros Neto</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>jonas.barrosneto@discente.univasf.edu.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Gabriela Procopio Leite</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>gabrielaprocopio3@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
           <t>Jonathan Murilo Andreu Conrado</t>
         </is>
       </c>
-      <c r="B323" t="inlineStr">
+      <c r="B333" t="inlineStr">
         <is>
           <t>jonathan.conrajo@gmail.com</t>
         </is>

--- a/Lists/SBBE24Attendees.xlsx
+++ b/Lists/SBBE24Attendees.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B333"/>
+  <dimension ref="A1:B390"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,132 +420,132 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Clarisse Palma da Silva</t>
+          <t>Constanza Clara Maubecin</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>cpalma@unicamp.br</t>
+          <t>cmaubecin@imbiv.unc.edu.ar</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Constanza Clara Maubecin</t>
+          <t>Maria Emilia Yamamoto</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>cmaubecin@imbiv.unc.edu.ar</t>
+          <t>emiliayamamoto@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Maria Emilia Yamamoto</t>
+          <t>Luiz Eduardo Vieira Del Bem</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>emiliayamamoto@gmail.com</t>
+          <t>levdelbem@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Luiz Eduardo Vieira Del Bem</t>
+          <t>Fabricio Santos</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>levdelbem@gmail.com</t>
+          <t>fabricio-santos@ufmg.br</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Fabricio Santos</t>
+          <t>Eduardo Tarazona</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>fabricio-santos@ufmg.br</t>
+          <t>edutars@icb.ufmg.br</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Eduardo Tarazona</t>
+          <t>Santiago Benitez Vieyra</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>edutars@icb.ufmg.br</t>
+          <t>santiagombv@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Santiago Benitez Vieyra</t>
+          <t>Waldemir rosa</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>santiagombv@gmail.com</t>
+          <t>waldemir.rosa@unila.edu.br</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Waldemir rosa</t>
+          <t>George Pacheco</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>waldemir.rosa@unila.edu.br</t>
+          <t>george.pacheco@ibv.uio.no</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>George Pacheco</t>
+          <t>Andrea Pedrosa Harand</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>george.pacheco@ibv.uio.no</t>
+          <t>andrea.harand@ufpe.br</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Andrea Pedrosa Harand</t>
+          <t>Kelly Zamudio</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>andrea.harand@ufpe.br</t>
+          <t>kelly.zamudio@austin.utexas.edu</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Kelly Zamudio</t>
+          <t>CAMILO HECTOR RAYMAT RATTO</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>kelly.zamudio@austin.utexas.edu</t>
+          <t>camiloraymatratto@gmail.com</t>
         </is>
       </c>
     </row>
@@ -612,444 +612,444 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Pedro Paulo Ferreira da Silva</t>
+          <t>Gustavo Frensch</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pedropaulofers@gmail.com</t>
+          <t>gustavo.frensch@univasf.edu.br</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Constância F. J. Ayres</t>
+          <t>Liliane Gallindo Dantas</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>constancia.ayres@fiocruz.br</t>
+          <t>dantas.lg@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>JOAO PAULO SANTOS DA SILVA</t>
+          <t>Pedro Paulo Ferreira da Silva</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>jpbiosilva@gmail.com</t>
+          <t>pedropaulofers@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Ana Karoline da Nóbrega Nunes Alves</t>
+          <t>Constância F. J. Ayres</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>anakarolinealves1@hotmail.com</t>
+          <t>constancia.ayres@fiocruz.br</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sávio Torres de Farias</t>
+          <t>JOAO PAULO SANTOS DA SILVA</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>stfarias@yahoo.com.br</t>
+          <t>jpbiosilva@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BRENO BEZERRA JUST</t>
+          <t>Sávio Torres de Farias</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>brenojust99@gmail.com</t>
+          <t>stfarias@yahoo.com.br</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Iara Patrícia Ferreira de Sousa</t>
+          <t>BRENO BEZERRA JUST</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>profiarapatricia@gmail.com</t>
+          <t>brenojust99@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>José Eduardo Gomes De Oliveira</t>
+          <t>Ana Karoline da Nóbrega Nunes Alves</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>zezinho20052005@gmail.com</t>
+          <t>anakarolinealves1@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Adrian Antonio Garda</t>
+          <t>Iara Patrícia Ferreira de Sousa</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pseudis@gmail.com</t>
+          <t>profiarapatricia@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Gleyce Medeiros da Silva</t>
+          <t>José Eduardo Gomes De Oliveira</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>gleycemedeiros96@gmail.com</t>
+          <t>zezinho20052005@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Igor Peres Puertas dos Santos</t>
+          <t>Felipe Torquato</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>igorperesp@hotmail.com</t>
+          <t>felipe_o_torquato@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Paolla Gabryelle Cavalcante de Souza</t>
+          <t>Adrian Antonio Garda</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>paollasouzac@gmail.com</t>
+          <t>pseudis@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Aline Ghilardi</t>
+          <t>Gleyce Medeiros da Silva</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>aline.ghilardi@ufrn.br</t>
+          <t>gleycemedeiros96@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Graziela Santos Andrade</t>
+          <t>Aline Ghilardi</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>grazielaandrade.bio@gmail.com</t>
+          <t>aline.ghilardi@ufrn.br</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Ana Carolina Vilas Boas</t>
+          <t>Paolla Gabryelle Cavalcante de Souza</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ananinanina@gmail.com</t>
+          <t>paollasouzac@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Bruno Cajado Almeida Gouveia</t>
+          <t>Igor Peres Puertas dos Santos</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>cajadobruno96@gmail.com</t>
+          <t>igorperesp@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Henrique Batalha-Filho</t>
+          <t>EDILSON DIVINO DE ARAUJO</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>henrique.batalha@outlook.com</t>
+          <t>edaraujoufs@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Isabelle Oliveira Lima Luz</t>
+          <t>Graziela Santos Andrade</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>isabelleluz@outlook.com.br</t>
+          <t>grazielaandrade.bio@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Júlia de Lima Carvalho</t>
+          <t>Ana Carolina Vilas Boas</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>julialima.carvalho18@gmail.com</t>
+          <t>ananinanina@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Emilio de Lanna Neto</t>
+          <t>Bruno Cajado Almeida Gouveia</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>emiliolanna@gmail.com</t>
+          <t>cajadobruno96@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Alessandra Selbach Schnadelbach</t>
+          <t>Henrique Batalha-Filho</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>alessandra.schnadelbach@gmail.com</t>
+          <t>henrique.batalha@outlook.com</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Beatriz Santos De Brito</t>
+          <t>Isabelle Oliveira Lima Luz</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>beatrizbiologia2017@gmail.com</t>
+          <t>isabelleluz@outlook.com.br</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Fernanda Cavalcanti</t>
+          <t>Júlia de Lima Carvalho</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>fernanda.porifera@gmail.com</t>
+          <t>julialima.carvalho18@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Laysla Bomfim Adam</t>
+          <t>Beatriz Santos De Brito</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>laysla.adam@gmail.com</t>
+          <t>beatrizbiologia2017@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Tami Mott</t>
+          <t>Fernanda Cavalcanti</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>tami.mott@icbs.ufal.br</t>
+          <t>fernanda.porifera@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>João Vitor Rodrigues Costa</t>
+          <t>Alessandra Selbach Schnadelbach</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>vitorrodc@usp.br</t>
+          <t>alessandra.schnadelbach@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Bruna Da Rocha Maia</t>
+          <t>Emilio de Lanna Neto</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Brunadarochamaia@gmail.com</t>
+          <t>emiliolanna@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Roullien Henrique Martins Silva</t>
+          <t>Aline Santana Santos</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>roullien.silva@ufms.br</t>
+          <t>santanalune@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Andressa Emanuele Johann</t>
+          <t>Luciana Aguilar Aleixo</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>johann_andressa@ufms.br</t>
+          <t>lucianaaleixo@uesb.edu.br</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Diego José Santana Silva</t>
+          <t>Laysla Bomfim Adam</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>jose.santana@ufms.br</t>
+          <t>laysla.adam@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Caio Lucas Barroso Nascimento Teixeira de Souza</t>
+          <t>Tami Mott</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>caiobarroso212@gmail.com</t>
+          <t>tami.mott@icbs.ufal.br</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Larissa Bortoli de Souza</t>
+          <t>João Vitor Rodrigues Costa</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>bortoli.larissa16@gmail.com</t>
+          <t>vitorrodc@usp.br</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Matheus Sthanley Ferreira Firme</t>
+          <t>Esthefany Ovando De Mello</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>fmatheuspba@gmail.com</t>
+          <t>esthefany0ovando@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Guilherme Duarte</t>
+          <t>Sarah Mângia Barros</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>guilhermeduartepr@gmail.com</t>
+          <t>sarahmangia@yahoo.com.br</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Gecele Matos Paggi</t>
+          <t>Amanda Varago</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>gecele.paggi@ufms.br</t>
+          <t>amandavarago021@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Fernando Munir Lima Calarge</t>
+          <t>Akyel Kiffiner de França Mendonça</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>fernando.calarge@gmail.com</t>
+          <t>a.kiffiner@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Leandro de Avelar Oliveira</t>
+          <t>Aline Pedroso Lorenz</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>leandro.avelar.bio@gmail.com</t>
+          <t>aline.lorenz@ufms.br</t>
         </is>
       </c>
     </row>
@@ -1092,3262 +1092,3946 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Esthefany Ovando De Mello</t>
+          <t>Roullien Henrique Martins Silva</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>esthefany0ovando@gmail.com</t>
+          <t>roullien.silva@ufms.br</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Vitória Infran De Morais</t>
+          <t>Caio Lucas Barroso Nascimento Teixeira de Souza</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>vitoria.infran@ufms.br</t>
+          <t>caiobarroso212@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Lethícia Stéfany Barbosa Dias</t>
+          <t>Larissa Bortoli de Souza</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>lethicia_dias@ufms.br</t>
+          <t>bortoli.larissa16@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sarah Mângia Barros</t>
+          <t>Diego José Santana Silva</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>sarahmangia@yahoo.com.br</t>
+          <t>jose.santana@ufms.br</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Amanda Varago</t>
+          <t>Andressa Emanuele Johann</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>amandavarago021@gmail.com</t>
+          <t>johann_andressa@ufms.br</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Akyel Kiffiner de França Mendonça</t>
+          <t>Bruna Da Rocha Maia</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>a.kiffiner@gmail.com</t>
+          <t>Brunadarochamaia@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Aline Pedroso Lorenz</t>
+          <t>Lethícia Stéfany Barbosa Dias</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>aline.lorenz@ufms.br</t>
+          <t>lethicia_dias@ufms.br</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Mariana Nunes Menegat</t>
+          <t>Vitória Infran De Morais</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>marianamenegat@outlook.com</t>
+          <t>vitoria.infran@ufms.br</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Isabela Caroline Moura dos Santos</t>
+          <t>Fernando Munir Lima Calarge</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>bela_carolinem@hotmail.com</t>
+          <t>fernando.calarge@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Ariely Loyane Garcia Soares</t>
+          <t>Gecele Matos Paggi</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>soares.loyane@gmail.com</t>
+          <t>gecele.paggi@ufms.br</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Renato Caparroz</t>
+          <t>Matheus Sthanley Ferreira Firme</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>renatocz@yahoo.com.br</t>
+          <t>fmatheuspba@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Frederico Hillesheim Horst</t>
+          <t>Guilherme Duarte</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>fredhorst7@gmail.com</t>
+          <t>guilhermeduartepr@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Thiago Jose de Carvalho Andre</t>
+          <t>Leandro de Avelar Oliveira</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>thiago.andre@unb.br</t>
+          <t>leandro.avelar.bio@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Patricia Sanae Sujii</t>
+          <t>Mariana Nunes Menegat</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>sujiips@gmail.com</t>
+          <t>marianamenegat@outlook.com</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Fernando Pacheco Rodrigues</t>
+          <t>Ariely Loyane Garcia Soares</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>fprodrigues@unb.br</t>
+          <t>soares.loyane@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Lilian Gimenes Giugliano</t>
+          <t>Isabela Caroline Moura dos Santos</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>liliangiu@unb.br</t>
+          <t>bela_carolinem@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Marco Aurélio Mendes Elias</t>
+          <t>Thiago Jose de Carvalho Andre</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>marcoelias.ecoevo@gmail.com</t>
+          <t>thiago.andre@unb.br</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>João Carlos Nabout</t>
+          <t>Lilian Gimenes Giugliano</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>jcnabout@gmail.com</t>
+          <t>liliangiu@unb.br</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Thannya Nascimento Soares</t>
+          <t>Angele dos Reis Martins</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>tnsoares@ufg.br</t>
+          <t>angelemartins@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Inês Soares de Menezes</t>
+          <t>Fernando Pacheco Rodrigues</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>iassismenezes@gmail.com</t>
+          <t>fprodrigues@unb.br</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Iderval da Silva Júnior Sobrinho</t>
+          <t>Patricia Sanae Sujii</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>iderval_jr@yahoo.com</t>
+          <t>sujiips@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Diogo Reis de Oliveira</t>
+          <t>Renato Caparroz</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>diogo.reisoliv@gmail.com</t>
+          <t>renatocz@yahoo.com.br</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Juliani Maciel dos Santos</t>
+          <t>Frederico Hillesheim Horst</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>juli.maciels@gmail.com</t>
+          <t>fredhorst7@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Alejandra Bonilla Sánchez</t>
+          <t>Thannya Nascimento Soares</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>alejabonilla.sanchez@gmail.com</t>
+          <t>tnsoares@ufg.br</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Marcia Holsbach Beltrame</t>
+          <t>João Carlos Nabout</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>marcia.beltrame@ufrgs.br</t>
+          <t>jcnabout@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>LAERCIO MOREIRA CARDOSO JUNIOR</t>
+          <t>Marco Aurélio Mendes Elias</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>laerciop53@gmail.com</t>
+          <t>marcoelias.ecoevo@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Lucca Azevedo Fanti</t>
+          <t>Inês Soares de Menezes</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>luccafanti2002@gmail.com</t>
+          <t>iassismenezes@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Bruna Boizonave Andriola</t>
+          <t>Iderval da Silva Júnior Sobrinho</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>bruna.andriola@edu.pucrs.br</t>
+          <t>iderval_jr@yahoo.com</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Karoline Silva Zenato</t>
+          <t>Maria Paula Sacol</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>karoline.szen@gmail.com</t>
+          <t>mariapaulasacol@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Juliana Cristine Fontana</t>
+          <t>Diogo Reis de Oliveira</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>julianacfontana@gmail.com</t>
+          <t>diogo.reisoliv@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Carolina Prauchner Silva</t>
+          <t>Juliani Maciel dos Santos</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>carol_prauchner@hotmail.com</t>
+          <t>juli.maciels@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>João Pedro Carmo Filgueiras</t>
+          <t>Alejandra Bonilla Sánchez</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>jcarmofilgueiras@gmail.com</t>
+          <t>alejabonilla.sanchez@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Alejandra Niño Reyes</t>
+          <t>Carlos Robson Costa Cruz</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>alejandra.reyes@edu.pucrs.br</t>
+          <t>cruz.carlosr21@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Cássio Hervé</t>
+          <t>LAERCIO MOREIRA CARDOSO JUNIOR</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>cassioherve@gmail.com</t>
+          <t>laerciop53@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Manuel Adrian Riveros Escalona</t>
+          <t>Lucca Azevedo Fanti</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>manuelriveros72@hotmail.com</t>
+          <t>luccafanti2002@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Lorena Sanches Vieira</t>
+          <t>Marcia Holsbach Beltrame</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>lolly.vieirasa@gmail.com</t>
+          <t>marcia.beltrame@ufrgs.br</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Gabriele Zenato Lazzari</t>
+          <t>Juliana Cristine Fontana</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>gabriele.lazzari@edu.pucrs.br</t>
+          <t>julianacfontana@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Paulyana dos Santos Moura</t>
+          <t>Bruna Boizonave Andriola</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>paulyanamoura@gmail.com</t>
+          <t>bruna.andriola@edu.pucrs.br</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Luana Sousa Soares</t>
+          <t>Carolina Prauchner Silva</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>lusousa.soares11@gmail.com</t>
+          <t>carol_prauchner@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>André Luís da Silva Zani</t>
+          <t>Karoline Silva Zenato</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>zani.andre@yahoo.com.br</t>
+          <t>karoline.szen@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Maikel Varal</t>
+          <t>Lorena Sanches Vieira</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>maikelvaral@yahoo.com.br</t>
+          <t>lolly.vieirasa@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Carlos Robson Costa Cruz</t>
+          <t>João Pedro Carmo Filgueiras</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>cruz.carlosr21@gmail.com</t>
+          <t>jcarmofilgueiras@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Thaynara da Silva Lopes Lima</t>
+          <t>Manuel Adrian Riveros Escalona</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>thaynaralima_tsll@hotmail.com</t>
+          <t>manuelriveros72@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Letícia Monteiro</t>
+          <t>Paulyana dos Santos Moura</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>leticiamonteiro.bio@gmail.com</t>
+          <t>paulyanamoura@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ANDREIA CARINA TURCHETTO ZOLET</t>
+          <t>Gabriele Zenato Lazzari</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>aturchetto@gmail.com</t>
+          <t>gabriele.lazzari@edu.pucrs.br</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Matías Maximiliano Malleret</t>
+          <t>Letícia Monteiro</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>malleret2@gmail.com</t>
+          <t>leticiamonteiro.bio@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Aldo Mellender de Araújo</t>
+          <t>Thaynara da Silva Lopes Lima</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>aldo1806@gmail.com</t>
+          <t>thaynaralima_tsll@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Bruna Oliveira Missaggia</t>
+          <t>Luana Sousa Soares</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>bmissaggia@gmail.com</t>
+          <t>lusousa.soares11@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Juliene Lopes Costa</t>
+          <t>ANDREIA CARINA TURCHETTO ZOLET</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>julopescosta.23@gmail.com</t>
+          <t>aturchetto@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Pâmela Giordani Vielmo</t>
+          <t>Matías Maximiliano Malleret</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>pamelavielmo@hotmail.com</t>
+          <t>malleret2@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Mateus sousa de almeida</t>
+          <t>André Luís da Silva Zani</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>mateus_btec@hotmail.com</t>
+          <t>zani.andre@yahoo.com.br</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Marcelo Henrique Schwade</t>
+          <t>Maikel Varal</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>marceloh.schwade@gmail.com</t>
+          <t>maikelvaral@yahoo.com.br</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ISABEL GOMES VIEIRA</t>
+          <t>Mateus sousa de almeida</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>belgovieira@gmail.com</t>
+          <t>mateus_btec@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Juliana Cordeiro</t>
+          <t>Juliene Lopes Costa</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>jlncdr@gmail.com</t>
+          <t>julopescosta.23@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Aléxia Vittória Dariva Tormen</t>
+          <t>Pâmela Giordani Vielmo</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>alexia.tormen@hotmail.com</t>
+          <t>pamelavielmo@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Marco Silva Gottschalk</t>
+          <t>Maria Eduarda Gonçalves Lacerda</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>marco.gottschalk@yahoo.com</t>
+          <t>maed.lacerda@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Monica Laner Blauth</t>
+          <t>Marcelo Henrique Schwade</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>blauth.monica@gmail.com</t>
+          <t>marceloh.schwade@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Joana Gehlen Tessaro</t>
+          <t>Aldo Mellender de Araújo</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>tessarojg@gmail.com</t>
+          <t>aldo1806@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Roger Henrique Dalcin</t>
+          <t>Bruna Oliveira Missaggia</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>roger.dalcin@gmail.com</t>
+          <t>bmissaggia@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Manuella Cardoso Teixeira</t>
+          <t>Alejandra Niño Reyes</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>manuella.mhc2@gmail.com</t>
+          <t>alejandra.reyes@edu.pucrs.br</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Andrea Rita Marrero</t>
+          <t>Cássio Hervé</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>andrea.marrero@ufsc.br</t>
+          <t>cassioherve@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Jéssica Sueli dos Santos Batista</t>
+          <t>Marco Silva Gottschalk</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>jessica.ssb@grad.ufsc.br</t>
+          <t>marco.gottschalk@yahoo.com</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Gabriéli Luiza Steffens Knapp</t>
+          <t>Monica Laner Blauth</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>gabrieli_steffens-pzo@hotmail.com</t>
+          <t>blauth.monica@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Edgar De Paula Guerreiro</t>
+          <t>ISABEL GOMES VIEIRA</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>edgar.guerreiro@tutanota.com</t>
+          <t>belgovieira@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Luiza Kittel Chiká</t>
+          <t>Aléxia Vittória Dariva Tormen</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>luizakittel@gmail.com</t>
+          <t>alexia.tormen@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Anglia Lavinia Lopes Moreira</t>
+          <t>Juliana Cordeiro</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>anglia.lopes@gmail.com</t>
+          <t>jlncdr@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Lorenzo Driessen Cigognini</t>
+          <t>Joana Gehlen Tessaro</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>lorenzocigognini@gmail.com</t>
+          <t>tessarojg@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Antonio Felipe Pereira dos Santos</t>
+          <t>Roger Henrique Dalcin</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>antonio.fps@hotmail.com</t>
+          <t>roger.dalcin@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Giovanna Hernandez Garcia</t>
+          <t>Manuella Cardoso Teixeira</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>giio.ufsc@gmail.com</t>
+          <t>manuella.mhc2@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Vinicius Oliveira Miranda</t>
+          <t>Norma Machado da Silva</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>viny.olmiranda@gmail.com</t>
+          <t>norma.machado@ufsc.br</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Henrique Batista Gomes da Silva</t>
+          <t>Jéssica Sueli dos Santos Batista</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>ra130150@uem.br</t>
+          <t>jessica.ssb@grad.ufsc.br</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Wanderley Dantas dos Santos</t>
+          <t>Ana Luisa Endler de Oliveira</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>wdsantos@uem.br</t>
+          <t>oliveira.ana245@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Aparecido Soares da Silva Júnior</t>
+          <t>Gabriéli Luiza Steffens Knapp</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ra124357@uem.br</t>
+          <t>gabrieli_steffens-pzo@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Luiz Gustavo Gutierrez Ferreira</t>
+          <t>Andrea Rita Marrero</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>luiz318guti@gmail.com</t>
+          <t>andrea.marrero@ufsc.br</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Pamella Oliveira Fardin</t>
+          <t>Any Heloisa da Silva Tomé</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ra134937@uem.br</t>
+          <t>any.tome1@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Rodrigo de Mello</t>
+          <t>Anglia Lavinia Lopes Moreira</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>rdemellobr@gmail.com</t>
+          <t>anglia.lopes@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Wes</t>
+          <t>Luiza Kittel Chiká</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>wesley94moraes@gmail.com</t>
+          <t>luizakittel@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Luana Garcia Siqueira Da Silva</t>
+          <t>Antonio Felipe Pereira dos Santos</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ra133953@uem.br</t>
+          <t>antonio.fps@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Maria Eduarda Araujo Ribeiro</t>
+          <t>Lorenzo Driessen Cigognini</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ra130004@uem.br</t>
+          <t>lorenzocigognini@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Alexandre do Sacramento Alves Anselmo</t>
+          <t>Ana Paula Lula Costa</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>alexandre.sa.anselmo@gmail.com</t>
+          <t>anapaulalula@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Nicoli Taísi Ornaghi</t>
+          <t>Giovanna Hernandez Garcia</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ra134020@uem.br</t>
+          <t>giio.ufsc@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Leonardo Rodrigues Tolardo</t>
+          <t>Edgar De Paula Guerreiro</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>leonardorodriguestolardo@gmail.com</t>
+          <t>edgar.guerreiro@tutanota.com</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Rodrigo A. Torres</t>
+          <t>Júlia Corrêa Martins</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>rodrigotorres@utfpr.edu.br</t>
+          <t>j.ulia123@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Roberto Ferreira Artoni</t>
+          <t>Vinicius Oliveira Miranda</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>rfartoni@gmail.com</t>
+          <t>viny.olmiranda@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Fabiano Stefanello</t>
+          <t>Aparecido Soares da Silva Júnior</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>stefanellof@gmail.com</t>
+          <t>ra124357@uem.br</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Luana Vieira</t>
+          <t>Wanderley Dantas dos Santos</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>luanavieira.snow@gmail.com</t>
+          <t>wdsantos@uem.br</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Wesley Gomes Bojarski</t>
+          <t>Luiz Gustavo Gutierrez Ferreira</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>wesleybojarski@gmail.com</t>
+          <t>luiz318guti@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Lucas Szekut de Paula</t>
+          <t>Pamella Oliveira Fardin</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>lucasszekutdepaula@gmail.com</t>
+          <t>ra134937@uem.br</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Adler Dvorak Barboza</t>
+          <t>Henrique Batista Gomes da Silva</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>adlerdvorak@gmail.com</t>
+          <t>ra130150@uem.br</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Valéria Ribeiro Da Silva</t>
+          <t>Rodrigo de Mello</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>valeriaribeirosilva1@outlook.com</t>
+          <t>rdemellobr@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Marcela Naomi Okabayashi da Silva</t>
+          <t>Wes</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>marcela.naomi@ufpr.br</t>
+          <t>wesley94moraes@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Luddy Searom Carias de Moraes</t>
+          <t>Luana Garcia Siqueira Da Silva</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>luddysearom@gmail.com</t>
+          <t>ra133953@uem.br</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>João Mateus Zepson Capucho</t>
+          <t>Maria Eduarda Araujo Ribeiro</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>joao.capucho@ufpr.br</t>
+          <t>ra130004@uem.br</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Maria Julia Michelini de Almeida</t>
+          <t>Nicoli Taísi Ornaghi</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>majumichelini@gmail.com</t>
+          <t>ra134020@uem.br</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Michele Bertoncello</t>
+          <t>Alexandre do Sacramento Alves Anselmo</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>michelebertoncello146@gmail.com</t>
+          <t>alexandre.sa.anselmo@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Marcos Barbeitos</t>
+          <t>Leonardo Rodrigues Tolardo</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>msbarbeitos@gmail.com</t>
+          <t>leonardorodriguestolardo@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Desirrê Alexia Lourenço Petters Vandresen</t>
+          <t>Rodrigo A. Torres</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>desirre.petters@gmail.com</t>
+          <t>rodrigotorres@utfpr.edu.br</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Fabricius Maia Chaves Bicalho Domingos</t>
+          <t>Rafael de Assis</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>fabricius.domingos@ufpr.br</t>
+          <t>rafaeldeassiis@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Arquimedes Paixão de Santana Filho</t>
+          <t>Luz Elena De La Ossa Guerra</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>santana@ufpr.br</t>
+          <t>03ledg@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Amanda Beatriz Loureiro</t>
+          <t>Roberto Ferreira Artoni</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>amandabeatrizloureiro@gmail.com</t>
+          <t>rfartoni@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Matheus Maciel Alcantara Salles</t>
+          <t>Juliane Gabriele Martins</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>matheusmaciel.salles@gmail.com</t>
+          <t>juliane.gabrielemartins@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Fernanda Freitas de Oliveira</t>
+          <t>Jesús María Hernández Gómez</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>fernandaoliveira@ufpr.br</t>
+          <t>jesus7hdez@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Pedro Natale Cavezzale Dias</t>
+          <t>Allan Leal</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>pnatalecd@gmail.com</t>
+          <t>lealallan05@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Leonardo Tyskowski Felix</t>
+          <t>Fabiano Stefanello</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>leotyszko@gmail.com</t>
+          <t>stefanellof@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Alexandre Henrique Pedroso</t>
+          <t>Luana Vieira Carlin dos Santos</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ahenriquepedroso@gmail.com</t>
+          <t>luanavieira.snow@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Thamyris Weber Pereira</t>
+          <t>Carolina Martins da Silva</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>thamyweber@gmail.com</t>
+          <t>carolina.mrtinssilva@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Fernanda Witt Cidade</t>
+          <t>Wesley Gomes Bojarski</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>fernandacidade@gmail.com</t>
+          <t>wesleybojarski@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Mariana Guolo Moschen</t>
+          <t>Lucas Szekut de Paula</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>marianagmoschen17@gmail.com</t>
+          <t>lucasszekutdepaula@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Leonardo Ricardo Nunes</t>
+          <t>Júnior Nadaline</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>leonardoricardo518@gmail.com</t>
+          <t>jr.nadaline@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Matheus Igor Fontana</t>
+          <t>Adler Dvorak Barboza</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>matheu-igor@hotmail.com</t>
+          <t>adlerdvorak@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Talita Helen Bombardelli Gomig</t>
+          <t>Maria Julia Michelini de Almeida</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>talitahbg@ufpr.br</t>
+          <t>majumichelini@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Bruna Buss</t>
+          <t>João Mateus Zepson Capucho</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>brunacarolinebuss@gmail.com</t>
+          <t>joao.capucho@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>VILMAR FERNANDO BUENO JUNIOR</t>
+          <t>Luddy Searom Carias de Moraes</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>vilmarbueno_@hotmail.com</t>
+          <t>luddysearom@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Vic Sant'Ana dos Santos</t>
+          <t>Marcela Naomi Okabayashi da Silva</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>rachel.santana2302@gmail.com</t>
+          <t>marcela.naomi@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Rodrigo Barbosa Gonçalves</t>
+          <t>Valéria Ribeiro Da Silva</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>goncalvesrb@gmail.com</t>
+          <t>valeriaribeirosilva1@outlook.com</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Raiana Santiago da Costa</t>
+          <t>Mayara Pereira Neves</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>val_raiana@hotmail.com</t>
+          <t>mayara-nevesbio@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Juliane Xavier</t>
+          <t>Thais Neves</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>julianexavier57361@gmail.com</t>
+          <t>thaisneves2366@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Elisa de Castro Wille Nonino</t>
+          <t>Izadora Moraes da Silva</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>elisanonino00@gmail.com</t>
+          <t>moraesiza12@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Laura Laino da Costa</t>
+          <t>Juliana Rosa Matias Ciccheto</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>laura.costa231@gmail.com</t>
+          <t>cicchetoju@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Vitória Ibane</t>
+          <t>Eric de Camargo Smidt</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>viibane@outlook.com</t>
+          <t>ecsmidt@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Fernanda S. Caron</t>
+          <t>Henrique Luiz Rieger</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>fernandadesouzacaron@gmail.com</t>
+          <t>henriquerieger2001@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Nicole Isabelle Stocco</t>
+          <t>Maria Vitoria Lima da Silva</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>nicole.ufpr@gmail.com</t>
+          <t>mariavitoriadelima020@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Vitória Sávio Buchi</t>
+          <t>Carla Elizabeth De Oliveira Ferreira</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>viccabuchi@gmail.com</t>
+          <t>carla_cae@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Bruno Torquato</t>
+          <t>PAULA CAROLINA FERREIRA</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>brunotorquato100@gmail.com</t>
+          <t>paulacarolina2712@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>João Vitor Mello Hortega</t>
+          <t>Ana Julia Possamai de Oliveira</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>joaovitormelloh@gmail.com</t>
+          <t>anaju.possamai@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Ricardo Lehtonen Rodrigues Souza</t>
+          <t>LUCAS KATSUMI ROCHA HINOSHITA</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>lehtonen@ufpr.br</t>
+          <t>katsumilucas@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>LUCAS KATSUMI ROCHA HINOSHITA</t>
+          <t>Bruno Torquato</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>katsumilucas@gmail.com</t>
+          <t>brunotorquato100@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Ana Julia Possamai de Oliveira</t>
+          <t>João Vitor Mello Hortega</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>anaju.possamai@gmail.com</t>
+          <t>joaovitormelloh@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Mayara Pereira Neves</t>
+          <t>Ricardo Lehtonen Rodrigues Souza</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>mayara-nevesbio@hotmail.com</t>
+          <t>lehtonen@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Thais Neves</t>
+          <t>Viviane da Silva-Pereira</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>thaisneves2366@gmail.com</t>
+          <t>visilvapereira@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Izadora Moraes da Silva</t>
+          <t>Antonio Millas Silva Pinto</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>moraesiza12@gmail.com</t>
+          <t>millaspinto@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Viviane da Silva-Pereira</t>
+          <t>Ana Beatriz Viergbiski Schwitzner</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>visilvapereira@gmail.com</t>
+          <t>anabeatrizviergbiskischwitzner@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Ana Beatriz Viergbiski Schwitzner</t>
+          <t>Vic Sant'Ana dos Santos</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>anabeatrizviergbiskischwitzner@gmail.com</t>
+          <t>rachel.santana2302@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Juliana Rosa Matias Ciccheto</t>
+          <t>VILMAR FERNANDO BUENO JUNIOR</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>cicchetoju@gmail.com</t>
+          <t>vilmarbueno_@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Eric de Camargo Smidt</t>
+          <t>Rodrigo Barbosa Gonçalves</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>ecsmidt@gmail.com</t>
+          <t>goncalvesrb@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Maria Vitoria Lima da Silva</t>
+          <t>Laura Laino da Costa</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>mariavitoriadelima020@gmail.com</t>
+          <t>laura.costa231@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Henrique Luiz Rieger</t>
+          <t>Raiana Santiago da Costa</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>henriquerieger2001@gmail.com</t>
+          <t>val_raiana@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Paulo Henrique Mueller</t>
+          <t>Juliane Xavier</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>profmueller@gmail.com</t>
+          <t>julianexavier57361@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Letícia Caroline Chaves</t>
+          <t>Elisa de Castro Wille Nonino</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>leticia.leticiacchaves@gmail.com</t>
+          <t>elisanonino00@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Heloise Tainá Sant’Anna</t>
+          <t>Vitória Sávio Buchi</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>helo.taina.sa@gmail.com</t>
+          <t>viccabuchi@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Ronielson Gaia Da Silva</t>
+          <t>Nicole Isabelle Stocco</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>ronielsongaia@hotmail.com</t>
+          <t>nicole.ufpr@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Luís Gustavo da Conceição Galego</t>
+          <t>Amanda Beatriz Loureiro</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>luis.galego@uftm.edu.br</t>
+          <t>amandabeatrizloureiro@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Henry Paul Granger Neto</t>
+          <t>Bruna Buss</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>hp.granger98@gmail.com</t>
+          <t>brunacarolinebuss@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Laura Mara Silva Pereira</t>
+          <t>Leonardo Tyskowski Felix</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>laura.marasp@gmail.com</t>
+          <t>leotyszko@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Fernando Araujo Perini</t>
+          <t>Arquimedes Paixão de Santana Filho</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>faperini@ufmg.br</t>
+          <t>santana@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Thieres Tayroni Martins da Silva</t>
+          <t>Vitória Ibane</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>thierestayroni@gmail.com</t>
+          <t>viibane@outlook.com</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Lucas Bleicher</t>
+          <t>Fernanda S. Caron</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>lbleicher@gmail.com</t>
+          <t>fernandadesouzacaron@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Davi Barbalho Cavalcanti</t>
+          <t>Matheus Maciel Alcantara Salles</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>barbalhodavi123@gmail.com</t>
+          <t>matheusmaciel.salles@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Pammella Teixeira</t>
+          <t>Fernanda Freitas de Oliveira</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>pammellateixeira@gmail.com</t>
+          <t>fernandaoliveira@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>MATEUS CHAMONE BURGARELLI</t>
+          <t>Pedro Natale Cavezzale Dias</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>mateuschamone95@gmail.com</t>
+          <t>pnatalecd@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Isaac Rafael Freitas Borges</t>
+          <t>Alexandre Henrique Pedroso</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>isaacborges966@gmail.com</t>
+          <t>ahenriquepedroso@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>ANA CECILIA HOLLER DEL PRETTE</t>
+          <t>Thamyris Weber Pereira</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>anacecilia.holler@gmail.com</t>
+          <t>thamyweber@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Gabriel Costa Santos</t>
+          <t>Matheus Igor Fontana</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>gabrielscosta90@gmail.com</t>
+          <t>matheu-igor@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Origilene Bezerra Dantas</t>
+          <t>Talita Helen Bombardelli Gomig</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>origilenedantas@gmail.com</t>
+          <t>talitahbg@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Rafael Félix de Magalhães</t>
+          <t>Leonardo Ricardo Nunes</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>rafaelmagalhaes@ufsj.edu.br</t>
+          <t>leonardoricardo518@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Ramon Moreira Fernandes</t>
+          <t>Fernanda Witt Cidade</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>ramonmf360@gmail.com</t>
+          <t>fernandacidade@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Welignton Clarindo</t>
+          <t>Mariana Guolo Moschen</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>well.clarindo@ufv.br</t>
+          <t>marianagmoschen17@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Alessandro Marques De Oliveira</t>
+          <t>Michele Bertoncello</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>biolessandro@gmail.com</t>
+          <t>michelebertoncello146@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Mariana Fonseca Rossi</t>
+          <t>Marcos Barbeitos</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>mfonsecarossi@gmail.com</t>
+          <t>msbarbeitos@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Henrique Caldeira Costa</t>
+          <t>Marcos Cesar Pochynski Galvão Junior</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>ccostah@gmail.com</t>
+          <t>mrc.marcoscesar@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Henrique José de Oliveira</t>
+          <t>Desirrê Alexia Lourenço Petters Vandresen</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>henrique.bio22@gmail.com</t>
+          <t>desirre.petters@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>André Yves</t>
+          <t>Fabricius Maia Chaves Bicalho Domingos</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>andreyves7@gmail.com</t>
+          <t>fabricius.domingos@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>João Pedro Almeida Caetano</t>
+          <t>Paulo Henrique Mueller</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>20201200051@pq.uenf.br</t>
+          <t>profmueller@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Bruno Clarkson</t>
+          <t>Letícia Caroline Chaves</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>brclarkson@gmail.com</t>
+          <t>leticia.leticiacchaves@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Juliana Lopes De Lima</t>
+          <t>Heloise Tainá Sant’Anna</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>julianapv100@gmail.com</t>
+          <t>helo.taina.sa@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Yasmim Alvarenga</t>
+          <t>Ronielson Gaia Da Silva</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>y.alvarenga.abreu@gmail.com</t>
+          <t>ronielsongaia@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Comissão Avaliadora</t>
+          <t>Luís Gustavo da Conceição Galego</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>angela_portella@hotmail.com</t>
+          <t>luis.galego@uftm.edu.br</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>RAFAEL FILGUEIRA JORGE</t>
+          <t>Laura Mara Silva Pereira</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>rafajorgebio@gmail.com</t>
+          <t>laura.marasp@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Ana Carolina Martins Junqueira</t>
+          <t>Henry Paul Granger Neto</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>anacmj@gmail.com</t>
+          <t>hp.granger98@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>José Mateus dos Santos</t>
+          <t>Davi Barbalho Cavalcanti</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>mateussantosprof14@gmail.com</t>
+          <t>barbalhodavi123@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Jose Ricardo Miras Mermudes</t>
+          <t>Lucas Bleicher</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>jrmermudes@gmail.com</t>
+          <t>lbleicher@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Davi Marques De Oliveira De Sá</t>
+          <t>Pammella Teixeira</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>ivadmarques48@gmail.com</t>
+          <t>pammellateixeira@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>CLARISSA COIMBRA CANEDO</t>
+          <t>Thieres Tayroni Martins da Silva</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>clarissa.canedo@gmail.com</t>
+          <t>thierestayroni@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Miguel Godinho Alvares</t>
+          <t>Fernando Araujo Perini</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>miguelgodinhoalvares@gmail.com</t>
+          <t>faperini@ufmg.br</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Dener Soares Da Costa Junior</t>
+          <t>Jean Carlo Pedroso de Oliveira</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>denerdacosta12@gmail.com</t>
+          <t>pedrosojco@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Bruno Loreto de Aragão Pedroso</t>
+          <t>MATEUS CHAMONE BURGARELLI</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>bruno.loreto.aragao@hotmail.com</t>
+          <t>mateuschamone95@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Gabriel Henrique Nunes Rodrigues</t>
+          <t>Isaac Rafael Freitas Borges</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>gabhengel@gmail.com</t>
+          <t>isaacborges966@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Claudia Augusta de Moraes Russo</t>
+          <t>Gabriel Costa Santos</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>claurusso@hotmail.com</t>
+          <t>gabrielscosta90@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Carlos Eduardo Guerra Schrago</t>
+          <t>ANA CECILIA HOLLER DEL PRETTE</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>carlos.schrago@gmail.com</t>
+          <t>anacecilia.holler@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Beatriz Mello Carvalho</t>
+          <t>Origilene Bezerra Dantas</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>biaumello@gmail.com</t>
+          <t>origilenedantas@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Gabriela Ferreira Mota</t>
+          <t>Rafael Félix de Magalhães</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>motafgabriela@gmail.com</t>
+          <t>rafaelmagalhaes@ufsj.edu.br</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Ismar de Souza Carvalho</t>
+          <t>Ramon Moreira Fernandes</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>ismar@geologia.ufrj.br</t>
+          <t>ramonmf360@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Clarice Assumpção da Costa</t>
+          <t>Welignton Clarindo</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>assumpcao.clarice@gmail.com</t>
+          <t>well.clarindo@ufv.br</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Ingrid Martins Machado Garcia Veiga</t>
+          <t>Alessandro Marques De Oliveira</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>ingridgveiga@gmail.com</t>
+          <t>biolessandro@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Luiza Silva Anselmini</t>
+          <t>Mariana Fonseca Rossi</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>miniansel.lu@gmail.com</t>
+          <t>mfonsecarossi@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Gabriela Mussalem Haddad</t>
+          <t>Henrique Caldeira Costa</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>gabimh3181@gmail.com</t>
+          <t>ccostah@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Luísa Andrade Mendes</t>
+          <t>André Yves</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>mendesluisa1997@gmail.com</t>
+          <t>andreyves7@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Lais Henriques de Mattos</t>
+          <t>Henrique José de Oliveira</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>laishenriques91@gmail.com</t>
+          <t>henrique.bio22@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Inês Corrêa Gonçalves</t>
+          <t>João Pedro Almeida Caetano</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>inescg.bio@gmail.com</t>
+          <t>20201200051@pq.uenf.br</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>ALENA MAYO INIGUEZ</t>
+          <t>Bruno Clarkson</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>alenainiguez@gmail.com</t>
+          <t>brclarkson@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Lucas Pereira da Rocha</t>
+          <t>Yasmim Alvarenga</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>lucasrocha700@gmail.com</t>
+          <t>y.alvarenga.abreu@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Alessandra Pavan Lamarca</t>
+          <t>Juliana Lopes De Lima</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>pavanlamarca@gmail.com</t>
+          <t>julianapv100@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Alexandra Paris Toledo</t>
+          <t>Comissão Avaliadora</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>alepariis@gmail.com</t>
+          <t>angela_portella@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Melissa Bars Closel</t>
+          <t>RAFAEL FILGUEIRA JORGE</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>melissabars@gmail.com</t>
+          <t>rafajorgebio@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Breno Michelon Seixas</t>
+          <t>Ana Carolina Martins Junqueira</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>breno.mseixas@usp.br</t>
+          <t>anacmj@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Martín Rodrigo Escobar</t>
+          <t>Jose Ricardo Miras Mermudes</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>martin.escobar@usp.br</t>
+          <t>jrmermudes@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Danilo Camargo Fernandes</t>
+          <t>Davi Marques De Oliveira De Sá</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>danilo.fernandes@usp.br</t>
+          <t>ivadmarques48@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Thiago Takeshi Goto</t>
+          <t>CLARISSA COIMBRA CANEDO</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>thi.takeshi@gmail.com</t>
+          <t>clarissa.canedo@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Lucas Barcelos</t>
+          <t>Gabriel Henrique Nunes Rodrigues</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>lucasabarcelos@gmail.com</t>
+          <t>gabhengel@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Lígia Mouriño de Almeida Prado</t>
+          <t>Claudia Augusta de Moraes Russo</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>ligia.prado@unesp.br</t>
+          <t>claurusso@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Ana Malaghini de Abreu</t>
+          <t>Dener Soares Da Costa Junior</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>anamalaghini9gold@gmail.com</t>
+          <t>denerdacosta12@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Gabriel Tofanelo Vanin</t>
+          <t>Bruno Loreto de Aragão Pedroso</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>gabriel.vanin@unesp.br</t>
+          <t>bruno.loreto.aragao@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Gustavo da Silva Ambrosio</t>
+          <t>Miguel Godinho Alvares</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>gustavo.ambrosio@unesp.br</t>
+          <t>miguelgodinhoalvares@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Fernanda Biscaino Saluceste</t>
+          <t>Carlos Eduardo Guerra Schrago</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>fernanda.saluceste@unesp.br</t>
+          <t>carlos.schrago@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Leonardo Maurici Borges</t>
+          <t>Beatriz Mello Carvalho</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>aquitemcaqui@gmail.com</t>
+          <t>biaumello@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Rafael Fernandes Barduzzi</t>
+          <t>Gabriela Ferreira Mota</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>rfbarduzzi@gmail.com</t>
+          <t>motafgabriela@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Lucas Pereira Camargo</t>
+          <t>José Mateus dos Santos</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>lucaspc@estudante.ufscar.br</t>
+          <t>mateussantosprof14@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>João Pedro Fujita</t>
+          <t>Lucas Pereira da Rocha</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>joaopedrofujita@estudante.ufscar.br</t>
+          <t>lucasrocha700@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Francisco Borges</t>
+          <t>Alexandra Paris Toledo</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>fa.borges@unesp.br</t>
+          <t>alepariis@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>João Francisco Ponticelli Tottene</t>
+          <t>Alessandra Pavan Lamarca</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>tott.joao@gmail.com</t>
+          <t>pavanlamarca@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Felipe Messias Leandro</t>
+          <t>Ismar de Souza Carvalho</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>felipe.messias@unesp.br</t>
+          <t>ismar@geologia.ufrj.br</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Victor Hugo Barbosa Pereira</t>
+          <t>Luiza Silva Anselmini</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>vhb.pereira@unesp.br</t>
+          <t>miniansel.lu@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Analice Gabrielle Marquezin Gomes</t>
+          <t>Clarice Assumpção da Costa</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>analice.gabrielle@unesp.br</t>
+          <t>assumpcao.clarice@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Lina Maria Ameida Silva</t>
+          <t>Ingrid Martins Machado Garcia Veiga</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>linamas@gmail.com</t>
+          <t>ingridgveiga@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Amanda Lichtscheidl Graciadio</t>
+          <t>Gabriela Mussalem Haddad</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>a265805@dac.unicamp.br</t>
+          <t>gabimh3181@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Pedro Danel de Souza Ugarte</t>
+          <t>Inês Corrêa Gonçalves</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>pedaugaso@gmail.com</t>
+          <t>inescg.bio@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Beatriz Helena Macari Daros</t>
+          <t>Lais Henriques de Mattos</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>beatrizdarosbio@gmail.com</t>
+          <t>laishenriques91@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Paulo Aecyo Francisco da Silva</t>
+          <t>Luísa Andrade Mendes</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>pauloaecyo_1997@hotmail.com</t>
+          <t>mendesluisa1997@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Pedro Paulo Goulart Taucci</t>
+          <t>ALENA MAYO INIGUEZ</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>pedrotaucce@gmail.com</t>
+          <t>alenainiguez@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Lucas Albuquerque dos Santos</t>
+          <t>Melissa Bars Closel</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>lucasabqsto@gmail.com</t>
+          <t>melissabars@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Luiza de Moraes Magaldi</t>
+          <t>Adriana Coletto Morales</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>luiza.magaldi@gmail.com</t>
+          <t>adriana.morales@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>João Claudio de Sousa Nascimento</t>
+          <t>Pedro Henrique Nunes Zani</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>j.claudionasci@gmail.com</t>
+          <t>pedrohnz@usp.br</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Fernando Sotero de Lara</t>
+          <t>Martín Rodrigo Escobar</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>f236823@dac.unicamp.br</t>
+          <t>martin.escobar@usp.br</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Pábulo Matheus Domiciano</t>
+          <t>Juliana Luzete Monteiro</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>pabulodomiciano@gmail.com</t>
+          <t>julianaluzete@usp.br</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Nicolle Souza Leto</t>
+          <t>Breno Michelon Seixas</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>letonicolle@gmail.com</t>
+          <t>breno.mseixas@usp.br</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Pedro Henrique Pacheco Mosquini</t>
+          <t>Lucas Barcelos</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>mosquiniphp@gmail.com</t>
+          <t>lucasabarcelos@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Tami da Costa Cacossi</t>
+          <t>Danilo Camargo Fernandes</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>tamiccacossi@gmail.com</t>
+          <t>danilo.fernandes@usp.br</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Leonardo Duarte Santos</t>
+          <t>Thiago Takeshi Goto</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>santosldbio@gmail.com</t>
+          <t>thi.takeshi@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Isa Eloá de Freitas Poloni</t>
+          <t>Lígia Mouriño de Almeida Prado</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>isaeloa011203@gmail.com</t>
+          <t>ligia.prado@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Vera Nisaka Solferini</t>
+          <t>Rodrigo Zeni</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>veras@unicamp.br</t>
+          <t>rodrigo-zeni@outlook.com.br</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Julia Nader Acquaviva</t>
+          <t>Natália dos Santos</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>julianader95@gmail.com</t>
+          <t>n.santos97@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Henrique Vilela da Mata Bianchini</t>
+          <t>Amanda Bueno da Silva</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>h236891@dac.unicamp.br</t>
+          <t>amanda.bueno-silva@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Diliane Harumi Yaguinuma</t>
+          <t>Gabriel Tofanelo Vanin</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>diliane-harumi@hotmail.com</t>
+          <t>gabriel.vanin@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Jardel De Oliveira</t>
+          <t>Jordana Oliveira</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>jardel.oliveira90@hotmail.com</t>
+          <t>jordanainoliveira@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Tiago Benedito dos Santos</t>
+          <t>Gustavo da Silva Ambrosio</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>tiagobio02@yahoo.com.br</t>
+          <t>gustavo.ambrosio@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Ana Claudia Lessinger</t>
+          <t>Fernanda Biscaino Saluceste</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>lessinger@ufscar.br</t>
+          <t>fernanda.saluceste@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Miguel Piovesana Pereira Romeiro</t>
+          <t>Gustavo Ballen</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>miguelpromeiro@gmail.com</t>
+          <t>gustavo.a.ballen@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Eduardo Koerich Nery</t>
+          <t>Ana Malaghini de Abreu</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>eduardo.k.nery@gmail.com</t>
+          <t>anamalaghini9gold@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Irene De Fátima Vieira De Moraes</t>
+          <t>Lucas Pereira Camargo</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>irenef.vieiram@gmail.com</t>
+          <t>lucaspc@estudante.ufscar.br</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Ana Paula Becker</t>
+          <t>João Pedro Fujita</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>ana.becker023@gmail.com</t>
+          <t>joaopedrofujita@estudante.ufscar.br</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Marcelo Duarte</t>
+          <t>Rafael Fernandes Barduzzi</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>mduartes@usp.br</t>
+          <t>rfbarduzzi@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Weverton dos Santos Azevedo</t>
+          <t>Guilherme Mota Souza</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>weverton.azevedo@hotmail.com</t>
+          <t>guilherme.mota@estudante.ufscar.br</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Rafaela Velloso Missagia</t>
+          <t>Leonardo Maurici Borges</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>rafaelamissagia@gmail.com</t>
+          <t>aquitemcaqui@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Diogo Melo</t>
+          <t>Miguel Henrique Valentim Sanches</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>diogro@gmail.com</t>
+          <t>miguelvalentim@estudante.ufscar.br</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Ana Paula Assis</t>
+          <t>Analice Gabrielle Marquezin Gomes</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>paulaassis@ib.usp.br</t>
+          <t>analice.gabrielle@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Joyce Rodrigues do Prado</t>
+          <t>Victor Hugo Barbosa Pereira</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>joyce.prado@usp.br</t>
+          <t>vhb.pereira@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>katarine nogueira norbertino</t>
+          <t>Francisco Borges</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>katarinenn@outlook.com</t>
+          <t>fa.borges@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Samuel Augusto Aguiar dos Anjos</t>
+          <t>João Francisco Ponticelli Tottene</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>sam_aanjos@usp.br</t>
+          <t>tott.joao@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Letícia Wanderley Cavalcanti</t>
+          <t>Felipe Messias Leandro</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>letcavalcanti02@gmail.com</t>
+          <t>felipe.messias@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Tábita Hünemeier</t>
+          <t>Lina Maria Ameida Silva</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>hunemeier@usp.br</t>
+          <t>linamas@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Gabriela Procópio Camacho</t>
+          <t>Ibrahim Kamel Rodrigues Nehemy</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>gpcamacho@usp.br</t>
+          <t>ibrahimnehemy@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Thiago Silva Loboda</t>
+          <t>Nicolle Souza Leto</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>loboda_bio@yahoo.com.br</t>
+          <t>letonicolle@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Nathália Caldeira Dias</t>
+          <t>Helena Mattiazzo Milanez</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>caldeira.nathalia@gmail.com</t>
+          <t>helena.mattiazzo@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Denis Calandriello Calio</t>
+          <t>Amanda Lichtscheidl Graciadio</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>denis.calan@gmail.com</t>
+          <t>a265805@dac.unicamp.br</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Carlos Cristiano Simões Ferreira e Penha</t>
+          <t>Rômulo Celestino Souza</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>cristianosf@usp.br</t>
+          <t>romulo.amazonia@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Tiago Bosisio Quental</t>
+          <t>Pedro Paulo Goulart Taucci</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>tbquental@usp.br</t>
+          <t>pedrotaucce@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>AMMIR YACOUB HELOU</t>
+          <t>Lucas Albuquerque dos Santos</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>ammir@usp.br</t>
+          <t>lucasabqsto@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Ivan Sergio Nunes Silva Filho</t>
+          <t>Beatriz Christine De Marco Pereira</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>ivan.nunes@unesp.br</t>
+          <t>b257010@dac.unicamp.br</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Fernanda de Pinho Werneck</t>
+          <t>Pedro Danel de Souza Ugarte</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>fewerneck@gmail.com</t>
+          <t>pedaugaso@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Erik Henrique de Lacerda Choueri</t>
+          <t>João Claudio de Sousa Nascimento</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>chouerik@gmail.com</t>
+          <t>j.claudionasci@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Alexander Tamanini Mônico</t>
+          <t>Fernando Sotero de Lara</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>alexandermonico@hotmail.com</t>
+          <t>f236823@dac.unicamp.br</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Esteban Diego Koch</t>
+          <t>Luiza de Moraes Magaldi</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>edkoch17@gmail.com</t>
+          <t>luiza.magaldi@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Frederico Felizardo Barbosa</t>
+          <t>Clarisse Palma da Silva</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>fredericofb012@gmail.com</t>
+          <t>cpalma@unicamp.br</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Amanda Freitas Haase</t>
+          <t>Pábulo Matheus Domiciano</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>amandafreitashaase@gmail.com</t>
+          <t>pabulodomiciano@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Felipe Arian de Andrade Araújo</t>
+          <t>Tami da Costa Cacossi</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>araujo.felipearian@gmail.com</t>
+          <t>tamiccacossi@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Gilmax Gonçalves Ferreira</t>
+          <t>Pedro Henrique Pacheco Mosquini</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>gillmax88@gmail.com</t>
+          <t>mosquiniphp@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Thais Helena Condez</t>
+          <t>Vera Nisaka Solferini</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>thacondez@gmail.com</t>
+          <t>veras@unicamp.br</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Pamela Maciel Cremonez</t>
+          <t>Julia Nader Acquaviva</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>pamelacremonez@gmail.com</t>
+          <t>julianader95@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Isabella Fagundes Rosa Limão</t>
+          <t>Henrique Vilela da Mata Bianchini</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>isaarlimao@gmail.com</t>
+          <t>h236891@dac.unicamp.br</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Jonas Conduru Barros Neto</t>
+          <t>Leonardo Duarte Santos</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>jonas.barrosneto@discente.univasf.edu.br</t>
+          <t>santosldbio@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Gabriela Procopio Leite</t>
+          <t>Isa Eloá de Freitas Poloni</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>gabrielaprocopio3@gmail.com</t>
+          <t>isaeloa011203@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
+          <t>Beatriz Helena Macari Daros</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>beatrizdarosbio@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Lucas Oliveira Mello</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>lucasmellounicamp@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Paulo Aecyo Francisco da Silva</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>pauloaecyo_1997@hotmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Luciana Bolsoni Lourenço</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>bolsoni@unicamp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Gabriel Gonçalves da Silva</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>g249321@dac.unicamp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Tiago Benedito dos Santos</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>tiagobio02@yahoo.com.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Jardel De Oliveira</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>jardel.oliveira90@hotmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Diliane Harumi Yaguinuma</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>diliane-harumi@hotmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Aline Vieira e Silva</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>vieiraaline97@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Ana Claudia Lessinger</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>lessinger@ufscar.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Miguel Piovesana Pereira Romeiro</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>miguelpromeiro@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Irene De Fátima Vieira De Moraes</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>irenef.vieiram@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Eduardo Koerich Nery</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>eduardo.k.nery@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Letícia Wanderley Cavalcanti</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>letcavalcanti02@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>AMMIR YACOUB HELOU</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>ammir@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Katharina Patrocinia da Silva</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>patrociniakps@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Tiago Bosisio Quental</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>tbquental@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Luiza Gomes de Oliveira</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>luizaoliveira2000@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Gabriela Procópio Camacho</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>gpcamacho@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Nathália Caldeira Dias</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>caldeira.nathalia@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Thiago Silva Loboda</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>loboda_bio@yahoo.com.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Julia Mayumi De Gois Sugimoto</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>juuliamgs@hotmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>João Marcos Pereira</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>joao2.pereira@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Carlos Cristiano Simões Ferreira e Penha</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>cristianosf@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Denis Calandriello Calio</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>denis.calan@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Max Hideki Oliveira Homma</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>maxhomma@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Raíssa do Nascimento Rainha</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>rainharaissa0@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Samuel Augusto Aguiar dos Anjos</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>sam_aanjos@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Ana Paula Assis</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>paulaassis@ib.usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Joyce Rodrigues do Prado</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>joyce.prado@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Tábita Hünemeier</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>hunemeier@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Gabriele da Silva Gouveia Oliveira</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>gabriele.oliveira611@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Weverton dos Santos Azevedo</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>weverton.azevedo@hotmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Diogo Melo</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>diogro@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Marcelo Duarte</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>mduartes@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Rafaela Velloso Missagia</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>rafaelamissagia@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Ana Paula Becker</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>ana.becker023@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Bárbara Santos Teixeira Costa</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>barbarabio@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Gabriel Neves Cardoso Coelho</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>gab235coelho@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>katarine nogueira norbertino</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>katarinenn@outlook.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Ana Carolina Humberto</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>anac.humberto@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Ivan Sergio Nunes Silva Filho</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>ivan.nunes@unesp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Josué Anderson Rêgo Azevedo</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>josueanderson21@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Erik Henrique de Lacerda Choueri</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>chouerik@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Fernanda de Pinho Werneck</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>fewerneck@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Alexander Tamanini Mônico</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>alexandermonico@hotmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Esteban Diego Koch</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>edkoch17@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Frederico Felizardo Barbosa</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>fredericofb012@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Amanda Freitas Haase</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>amandafreitashaase@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Felipe Arian de Andrade Araújo</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>araujo.felipearian@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Gilmax Gonçalves Ferreira</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>gillmax88@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Thais Helena Condez</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>thacondez@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Aléxia Gonçalves Pereira</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>alexiagp@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Pamela Maciel Cremonez</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>pamelacremonez@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Isabella Fagundes Rosa Limão</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>isaarlimao@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Jonas Conduru Barros Neto</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>jonas.barrosneto@discente.univasf.edu.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Gabriela Procopio Leite</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>gabrielaprocopio3@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
           <t>Jonathan Murilo Andreu Conrado</t>
         </is>
       </c>
-      <c r="B333" t="inlineStr">
+      <c r="B390" t="inlineStr">
         <is>
           <t>jonathan.conrajo@gmail.com</t>
         </is>

--- a/Lists/SBBE24Attendees.xlsx
+++ b/Lists/SBBE24Attendees.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B390"/>
+  <dimension ref="A1:B620"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -372,744 +372,744 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Mario César C. de Pinna</t>
+          <t>Gustavo Frensch</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pinna@ib.usp.br</t>
+          <t>gustavo.frensch@univasf.edu.br</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Jose Alexandre Felizola Diniz Filho</t>
+          <t>Liliane Gallindo Dantas</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>diniz@ufg.br</t>
+          <t>dantas.lg@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Nelio Marco Vincenzo Bizzo</t>
+          <t>Constância F. J. Ayres</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>bizzo@unifesp.br</t>
+          <t>constancia.ayres@fiocruz.br</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Nicolas Rocamundi</t>
+          <t>Daniela Santos Pontes</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>nicolasrocamundi@gmail.com</t>
+          <t>danisp_bio@servidor.uepb.edu.br</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Constanza Clara Maubecin</t>
+          <t>Ana Karoline da Nóbrega Nunes Alves</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>cmaubecin@imbiv.unc.edu.ar</t>
+          <t>anakarolinealves1@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Maria Emilia Yamamoto</t>
+          <t>Cicera Silvilene Leite Matias</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>emiliayamamoto@gmail.com</t>
+          <t>silvilenematias@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Luiz Eduardo Vieira Del Bem</t>
+          <t>Sávio Torres de Farias</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>levdelbem@gmail.com</t>
+          <t>stfarias@yahoo.com.br</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fabricio Santos</t>
+          <t>Enelise Macedo Amado</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>fabricio-santos@ufmg.br</t>
+          <t>eneliseamado@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Eduardo Tarazona</t>
+          <t>Iara Patrícia Ferreira de Sousa</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>edutars@icb.ufmg.br</t>
+          <t>profiarapatricia@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Santiago Benitez Vieyra</t>
+          <t>Martin Lindsey Christoffersen</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>santiagombv@gmail.com</t>
+          <t>martinlc.ufpb@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Waldemir rosa</t>
+          <t>BRENO BEZERRA JUST</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>waldemir.rosa@unila.edu.br</t>
+          <t>brenojust99@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>George Pacheco</t>
+          <t>Felipe Torquato</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>george.pacheco@ibv.uio.no</t>
+          <t>felipe_o_torquato@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Andrea Pedrosa Harand</t>
+          <t>Igor Peres Puertas dos Santos</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>andrea.harand@ufpe.br</t>
+          <t>igorperesp@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Kelly Zamudio</t>
+          <t>Fabiany Herica Figueiredo da Silva</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>kelly.zamudio@austin.utexas.edu</t>
+          <t>herica.hyuuga@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CAMILO HECTOR RAYMAT RATTO</t>
+          <t>Paolla Gabryelle Cavalcante de Souza</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>camiloraymatratto@gmail.com</t>
+          <t>paollasouzac@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Mylena Daiana Santander</t>
+          <t>Aline Ghilardi</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>mylena.santander@gmail.com</t>
+          <t>aline.ghilardi@ufrn.br</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Kateryna D Makov</t>
+          <t>Adrian Antonio Garda</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>makovakateryna@gmail.com</t>
+          <t>pseudis@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Prof. Dr. Frederico Henning</t>
+          <t>Egirliane Santos Oliveira</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>fhenning@acd.ufrj.br</t>
+          <t>egirlianeoliveira.two@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Ana Lúcia Tourinho</t>
+          <t>Jonas Conduru Barros Neto</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>amtourinho@gmail.com</t>
+          <t>jonas.barrosneto@discente.univasf.edu.br</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Thomaz Pinotti</t>
+          <t>Nathália Marques da Silva do Nascimento</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>thomaz.pinoti@sund.ku.dk</t>
+          <t>nmarques2107@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Gustavo Frensch</t>
+          <t>Henrique Batalha-Filho</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>gustavo.frensch@univasf.edu.br</t>
+          <t>henrique.batalha@outlook.com</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Liliane Gallindo Dantas</t>
+          <t>Bruno Cajado Almeida Gouveia</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>dantas.lg@gmail.com</t>
+          <t>cajadobruno96@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Pedro Paulo Ferreira da Silva</t>
+          <t>Júlia de Lima Carvalho</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pedropaulofers@gmail.com</t>
+          <t>julialima.carvalho18@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Constância F. J. Ayres</t>
+          <t>Beatriz Santos De Brito</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>constancia.ayres@fiocruz.br</t>
+          <t>beatrizbiologia2017@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>JOAO PAULO SANTOS DA SILVA</t>
+          <t>Fernanda Cavalcanti</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>jpbiosilva@gmail.com</t>
+          <t>fernanda.porifera@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sávio Torres de Farias</t>
+          <t>Alessandra Selbach Schnadelbach</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>stfarias@yahoo.com.br</t>
+          <t>alessandra.schnadelbach@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BRENO BEZERRA JUST</t>
+          <t>Emilio de Lanna Neto</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>brenojust99@gmail.com</t>
+          <t>emiliolanna@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Ana Karoline da Nóbrega Nunes Alves</t>
+          <t>Anieli Guirro Pereira</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>anakarolinealves1@hotmail.com</t>
+          <t>anieligpereira@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Iara Patrícia Ferreira de Sousa</t>
+          <t>Aline Santana Santos</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>profiarapatricia@gmail.com</t>
+          <t>santanalune@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>José Eduardo Gomes De Oliveira</t>
+          <t>Ricardo Marques da Silva</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>zezinho20052005@gmail.com</t>
+          <t>rcdmarquess@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Felipe Torquato</t>
+          <t>katarine nogueira norbertino</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>felipe_o_torquato@hotmail.com</t>
+          <t>katarinenn@outlook.com</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Adrian Antonio Garda</t>
+          <t>Laysla Bomfim Adam</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pseudis@gmail.com</t>
+          <t>laysla.adam@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Gleyce Medeiros da Silva</t>
+          <t>Lucas Henrique Jerônimo Feitoza</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>gleycemedeiros96@gmail.com</t>
+          <t>luc.jer21@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Aline Ghilardi</t>
+          <t>JOAQUIM MANOEL DA SILVA</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>aline.ghilardi@ufrn.br</t>
+          <t>joaquimmanoel@unemat.br</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Paolla Gabryelle Cavalcante de Souza</t>
+          <t>Daiana Cardoso Silva</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>paollasouzac@gmail.com</t>
+          <t>daiana.cardoso@unemat.br</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Igor Peres Puertas dos Santos</t>
+          <t>Karina de Cassia Faria</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>igorperesp@hotmail.com</t>
+          <t>karinafaria@unemat.br</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>EDILSON DIVINO DE ARAUJO</t>
+          <t>Bruna Elizabeth Silva de Pontes</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>edaraujoufs@gmail.com</t>
+          <t>brunaespontes@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Graziela Santos Andrade</t>
+          <t>Beatriz Batista Innocente</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>grazielaandrade.bio@gmail.com</t>
+          <t>batista.innocente@unemat.br</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Ana Carolina Vilas Boas</t>
+          <t>Caio Lucas Barroso Nascimento Teixeira de Souza</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ananinanina@gmail.com</t>
+          <t>caiobarroso212@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Bruno Cajado Almeida Gouveia</t>
+          <t>Jeferson Vidart Ramos</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>cajadobruno96@gmail.com</t>
+          <t>jeff.bioinfo@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Henrique Batalha-Filho</t>
+          <t>Evandro Douglas Moore de Lucena</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>henrique.batalha@outlook.com</t>
+          <t>douglas.moore@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Isabelle Oliveira Lima Luz</t>
+          <t>Leandro Batista da Cunha Menezes</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>isabelleluz@outlook.com.br</t>
+          <t>leandrobc.menezes@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Júlia de Lima Carvalho</t>
+          <t>Sarah Waldschmidt da Cunha</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>julialima.carvalho18@gmail.com</t>
+          <t>sarah.w.c2@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Beatriz Santos De Brito</t>
+          <t>Kariny Penha Suarez</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>beatrizbiologia2017@gmail.com</t>
+          <t>karinypsuarez@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Fernanda Cavalcanti</t>
+          <t>Diego José Santana Silva</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>fernanda.porifera@gmail.com</t>
+          <t>jose.santana@ufms.br</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Alessandra Selbach Schnadelbach</t>
+          <t>Matheus Sthanley Ferreira Firme</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>alessandra.schnadelbach@gmail.com</t>
+          <t>fmatheuspba@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Emilio de Lanna Neto</t>
+          <t>Guilherme Duarte</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>emiliolanna@gmail.com</t>
+          <t>guilhermeduartepr@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Aline Santana Santos</t>
+          <t>Leandro de Avelar Oliveira</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>santanalune@gmail.com</t>
+          <t>leandro.avelar.bio@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Luciana Aguilar Aleixo</t>
+          <t>Gecele Matos Paggi</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>lucianaaleixo@uesb.edu.br</t>
+          <t>gecele.paggi@ufms.br</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Laysla Bomfim Adam</t>
+          <t>Fernando Munir Lima Calarge</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>laysla.adam@gmail.com</t>
+          <t>fernando.calarge@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Tami Mott</t>
+          <t>João Gabriel Rocci Freitas Leal</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>tami.mott@icbs.ufal.br</t>
+          <t>jgabriel.rfl@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>João Vitor Rodrigues Costa</t>
+          <t>Vitória Infran De Morais</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>vitorrodc@usp.br</t>
+          <t>vitoria.infran@ufms.br</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Esthefany Ovando De Mello</t>
+          <t>Lethícia Stéfany Barbosa Dias</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>esthefany0ovando@gmail.com</t>
+          <t>lethicia_dias@ufms.br</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sarah Mângia Barros</t>
+          <t>Aline Pedroso Lorenz</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>sarahmangia@yahoo.com.br</t>
+          <t>aline.lorenz@ufms.br</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Amanda Varago</t>
+          <t>Akyel Kiffiner de França Mendonça</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>amandavarago021@gmail.com</t>
+          <t>a.kiffiner@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Akyel Kiffiner de França Mendonça</t>
+          <t>Amanda Varago</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>a.kiffiner@gmail.com</t>
+          <t>amandavarago021@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Aline Pedroso Lorenz</t>
+          <t>Sarah Mângia Barros</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>aline.lorenz@ufms.br</t>
+          <t>sarahmangia@yahoo.com.br</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sarah Waldschmidt da Cunha</t>
+          <t>Esthefany Ovando De Mello</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>sarah.w.c2@gmail.com</t>
+          <t>esthefany0ovando@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Jeferson Vidart Ramos</t>
+          <t>Bruna Da Rocha Maia</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>jeff.bioinfo@gmail.com</t>
+          <t>Brunadarochamaia@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Evandro Douglas Moore de Lucena</t>
+          <t>Jamille Vitoria Portilho Santos</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>douglas.moore@unesp.br</t>
+          <t>jamille.portilho@ufms.br</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Roullien Henrique Martins Silva</t>
+          <t>Andressa Emanuele Johann</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>roullien.silva@ufms.br</t>
+          <t>johann_andressa@ufms.br</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Caio Lucas Barroso Nascimento Teixeira de Souza</t>
+          <t>Roullien Henrique Martins</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>caiobarroso212@gmail.com</t>
+          <t>roullien.silva@ufms.br</t>
         </is>
       </c>
     </row>
@@ -1128,3912 +1128,6672 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Diego José Santana Silva</t>
+          <t>Ariely Loyane Garcia Soares</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>jose.santana@ufms.br</t>
+          <t>soares.loyane@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Andressa Emanuele Johann</t>
+          <t>Isabela Caroline Moura dos Santos</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>johann_andressa@ufms.br</t>
+          <t>bela_carolinem@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Bruna Da Rocha Maia</t>
+          <t>Nilda Maria Diniz Rojas</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Brunadarochamaia@gmail.com</t>
+          <t>niddiniz@unb.br</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Lethícia Stéfany Barbosa Dias</t>
+          <t>Rosana Tidon</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>lethicia_dias@ufms.br</t>
+          <t>rotidon@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Vitória Infran De Morais</t>
+          <t>Thiago Jose de Carvalho Andre</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>vitoria.infran@ufms.br</t>
+          <t>thiago.andre@unb.br</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Fernando Munir Lima Calarge</t>
+          <t>Patricia Sanae Sujii</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>fernando.calarge@gmail.com</t>
+          <t>sujiips@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Gecele Matos Paggi</t>
+          <t>Renato Caparroz</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>gecele.paggi@ufms.br</t>
+          <t>renatocz@yahoo.com.br</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Matheus Sthanley Ferreira Firme</t>
+          <t>Frederico Hillesheim Horst</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>fmatheuspba@gmail.com</t>
+          <t>fredhorst7@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Guilherme Duarte</t>
+          <t>Pedro Augusto Cardoso Amaral</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>guilhermeduartepr@gmail.com</t>
+          <t>pedro20amaral@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Leandro de Avelar Oliveira</t>
+          <t>Fernando Pacheco Rodrigues</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>leandro.avelar.bio@gmail.com</t>
+          <t>fprodrigues@unb.br</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Mariana Nunes Menegat</t>
+          <t>Angele dos Reis Martins</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>marianamenegat@outlook.com</t>
+          <t>angelemartins@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Ariely Loyane Garcia Soares</t>
+          <t>Isabella Fagundes Rosa Limão</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>soares.loyane@gmail.com</t>
+          <t>isaarlimao@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Isabela Caroline Moura dos Santos</t>
+          <t>Matheus Lima de Araujo</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>bela_carolinem@hotmail.com</t>
+          <t>matheusaraujolima@live.com</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Thiago Jose de Carvalho Andre</t>
+          <t>João Carlos Nabout</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>thiago.andre@unb.br</t>
+          <t>jcnabout@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Lilian Gimenes Giugliano</t>
+          <t>Thannya Nascimento Soares</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>liliangiu@unb.br</t>
+          <t>tnsoares@ufg.br</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Angele dos Reis Martins</t>
+          <t>Marco Aurélio Mendes Elias</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>angelemartins@gmail.com</t>
+          <t>marcoelias.ecoevo@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Fernando Pacheco Rodrigues</t>
+          <t>Felipe Walter Pereira</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>fprodrigues@unb.br</t>
+          <t>felip3walter@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Patricia Sanae Sujii</t>
+          <t>Inês Soares de Menezes</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>sujiips@gmail.com</t>
+          <t>iassismenezes@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Renato Caparroz</t>
+          <t>Martim Braulio Peres Silva</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>renatocz@yahoo.com.br</t>
+          <t>m_braulio16@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Frederico Hillesheim Horst</t>
+          <t>ISABEL GOMES VIEIRA</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>fredhorst7@gmail.com</t>
+          <t>belgovieira@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Thannya Nascimento Soares</t>
+          <t>Monica Laner Blauth</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>tnsoares@ufg.br</t>
+          <t>blauth.monica@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>João Carlos Nabout</t>
+          <t>Marco Silva Gottschalk</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>jcnabout@gmail.com</t>
+          <t>marco.gottschalk@yahoo.com</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Marco Aurélio Mendes Elias</t>
+          <t>Juliana Cordeiro</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>marcoelias.ecoevo@gmail.com</t>
+          <t>jlncdr@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Inês Soares de Menezes</t>
+          <t>Thaynara da Silva Lopes Lima</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>iassismenezes@gmail.com</t>
+          <t>thaynaralima_tsll@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Iderval da Silva Júnior Sobrinho</t>
+          <t>Juliene Lopes Costa</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>iderval_jr@yahoo.com</t>
+          <t>julopescosta.23@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Maria Paula Sacol</t>
+          <t>Aldo Mellender de Araújo</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>mariapaulasacol@gmail.com</t>
+          <t>aldo1806@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Diogo Reis de Oliveira</t>
+          <t>Bruna Oliveira Missaggia</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>diogo.reisoliv@gmail.com</t>
+          <t>bmissaggia@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Juliani Maciel dos Santos</t>
+          <t>Luiza Flores Gasparetto</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>juli.maciels@gmail.com</t>
+          <t>luiza.gasparetto@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Alejandra Bonilla Sánchez</t>
+          <t>Marcelo Henrique Schwade</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>alejabonilla.sanchez@gmail.com</t>
+          <t>marceloh.schwade@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Carlos Robson Costa Cruz</t>
+          <t>Mateus sousa de almeida</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>cruz.carlosr21@gmail.com</t>
+          <t>mateus_btec@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>LAERCIO MOREIRA CARDOSO JUNIOR</t>
+          <t>Maria Eduarda Gonçalves Lacerda</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>laerciop53@gmail.com</t>
+          <t>maed.lacerda@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Lucca Azevedo Fanti</t>
+          <t>Pâmela Giordani Vielmo</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>luccafanti2002@gmail.com</t>
+          <t>pamelavielmo@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Marcia Holsbach Beltrame</t>
+          <t>Letícia Monteiro</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>marcia.beltrame@ufrgs.br</t>
+          <t>leticiamonteiro.bio@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Juliana Cristine Fontana</t>
+          <t>Diogo Reis de Oliveira</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>julianacfontana@gmail.com</t>
+          <t>diogo.reisoliv@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Bruna Boizonave Andriola</t>
+          <t>Luana Sousa Soares</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>bruna.andriola@edu.pucrs.br</t>
+          <t>lusousa.soares11@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Carolina Prauchner Silva</t>
+          <t>Maikel Varal</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>carol_prauchner@hotmail.com</t>
+          <t>maikelvaral@yahoo.com.br</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Karoline Silva Zenato</t>
+          <t>André Luís da Silva Zani</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>karoline.szen@gmail.com</t>
+          <t>zani.andre@yahoo.com.br</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Lorena Sanches Vieira</t>
+          <t>ANDREIA CARINA TURCHETTO ZOLET</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>lolly.vieirasa@gmail.com</t>
+          <t>aturchetto@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>João Pedro Carmo Filgueiras</t>
+          <t>Matías Maximiliano Malleret</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>jcarmofilgueiras@gmail.com</t>
+          <t>malleret2@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Manuel Adrian Riveros Escalona</t>
+          <t>Nelson J.R. Fagundes</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>manuelriveros72@hotmail.com</t>
+          <t>nelson.fagundes@ufrgs.br</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Paulyana dos Santos Moura</t>
+          <t>Jayme Massim Marques</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>paulyanamoura@gmail.com</t>
+          <t>massim.jayme@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Gabriele Zenato Lazzari</t>
+          <t>José Fernando Ruggiero Bachega</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>gabriele.lazzari@edu.pucrs.br</t>
+          <t>ferbachega@ufcspa.edu.br</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Letícia Monteiro</t>
+          <t>Rômulo da Rosa Silveira</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>leticiamonteiro.bio@gmail.com</t>
+          <t>romulor.silveira@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Thaynara da Silva Lopes Lima</t>
+          <t>Cássio Hervé</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>thaynaralima_tsll@hotmail.com</t>
+          <t>cassioherve@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Luana Sousa Soares</t>
+          <t>Alejandra Niño Reyes</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>lusousa.soares11@gmail.com</t>
+          <t>alejandra.reyes@edu.pucrs.br</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ANDREIA CARINA TURCHETTO ZOLET</t>
+          <t>João Pedro Carmo Filgueiras</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>aturchetto@gmail.com</t>
+          <t>jcarmofilgueiras@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Matías Maximiliano Malleret</t>
+          <t>Lorena Sanches Vieira</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>malleret2@gmail.com</t>
+          <t>lolly.vieirasa@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>André Luís da Silva Zani</t>
+          <t>Manuel Adrian Riveros Escalona</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>zani.andre@yahoo.com.br</t>
+          <t>manuelriveros72@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Maikel Varal</t>
+          <t>Paulyana dos Santos Moura</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>maikelvaral@yahoo.com.br</t>
+          <t>paulyanamoura@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Mateus sousa de almeida</t>
+          <t>Gabriele Zenato Lazzari</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>mateus_btec@hotmail.com</t>
+          <t>gabriele.lazzari@edu.pucrs.br</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Juliene Lopes Costa</t>
+          <t>Natália Skueresky</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>julopescosta.23@gmail.com</t>
+          <t>natiisoares@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Pâmela Giordani Vielmo</t>
+          <t>Yuri Belisario Mora Yépez</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>pamelavielmo@hotmail.com</t>
+          <t>Yuribym@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Maria Eduarda Gonçalves Lacerda</t>
+          <t>Bruna Boizonave Andriola</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>maed.lacerda@gmail.com</t>
+          <t>bruna.andriola@edu.pucrs.br</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Marcelo Henrique Schwade</t>
+          <t>Vera Lucia da Silva Valente Gaiesky</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>marceloh.schwade@gmail.com</t>
+          <t>vera.gaiesky@ufrgs.br</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Aldo Mellender de Araújo</t>
+          <t>Carolina Prauchner Silva</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>aldo1806@gmail.com</t>
+          <t>carol_prauchner@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Bruna Oliveira Missaggia</t>
+          <t>KAREN ESTEFANIA VALENCIA AGUILAR</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>bmissaggia@gmail.com</t>
+          <t>karenesva26@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Alejandra Niño Reyes</t>
+          <t>Karoline Silva Zenato</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>alejandra.reyes@edu.pucrs.br</t>
+          <t>karoline.szen@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Cássio Hervé</t>
+          <t>Juliana Cristine Fontana</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>cassioherve@gmail.com</t>
+          <t>julianacfontana@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Marco Silva Gottschalk</t>
+          <t>LAERCIO MOREIRA CARDOSO JUNIOR</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>marco.gottschalk@yahoo.com</t>
+          <t>laerciop53@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Monica Laner Blauth</t>
+          <t>Marcia Holsbach Beltrame</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>blauth.monica@gmail.com</t>
+          <t>marcia.beltrame@ufrgs.br</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ISABEL GOMES VIEIRA</t>
+          <t>Lucca Azevedo Fanti</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>belgovieira@gmail.com</t>
+          <t>luccafanti2002@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Aléxia Vittória Dariva Tormen</t>
+          <t>Alejandra Bonilla Sánchez</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>alexia.tormen@hotmail.com</t>
+          <t>alejabonilla.sanchez@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Juliana Cordeiro</t>
+          <t>Estêvão  De Lima Benhard</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>jlncdr@gmail.com</t>
+          <t>estevao.benhard@acad.ufsm.br</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Joana Gehlen Tessaro</t>
+          <t>Lorenzo Costa Weigert Ferreira</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>tessarojg@gmail.com</t>
+          <t>lorenzocosta195@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Roger Henrique Dalcin</t>
+          <t>Maria Paula Sacol</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>roger.dalcin@gmail.com</t>
+          <t>mariapaulasacol@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Manuella Cardoso Teixeira</t>
+          <t>Laura Wobeto Burtet</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>manuella.mhc2@gmail.com</t>
+          <t>laura.burtet@acad.ufsm.br</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Norma Machado da Silva</t>
+          <t>Rafaella Camargo Dutra</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>norma.machado@ufsc.br</t>
+          <t>rafaella.dutra@acad.ufsm.br</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Jéssica Sueli dos Santos Batista</t>
+          <t>Lorenzo Driessen Cigognini</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>jessica.ssb@grad.ufsc.br</t>
+          <t>lorenzocigognini@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Ana Luisa Endler de Oliveira</t>
+          <t>isadora cord</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>oliveira.ana245@gmail.com</t>
+          <t>cord.isadora@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Gabriéli Luiza Steffens Knapp</t>
+          <t>Suzana Alcantara</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>gabrieli_steffens-pzo@hotmail.com</t>
+          <t>suzana.alcantara@ufsc.br</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Andrea Rita Marrero</t>
+          <t>Anglia Lavinia Lopes Moreira</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>andrea.marrero@ufsc.br</t>
+          <t>anglia.lopes@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Any Heloisa da Silva Tomé</t>
+          <t>Luiza Kittel Chiká</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>any.tome1@hotmail.com</t>
+          <t>luizakittel@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Anglia Lavinia Lopes Moreira</t>
+          <t>Antonio Felipe Pereira dos Santos</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>anglia.lopes@gmail.com</t>
+          <t>antonio.fps@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Luiza Kittel Chiká</t>
+          <t>Leonardo de Bortoli</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>luizakittel@gmail.com</t>
+          <t>leonardodebo@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Antonio Felipe Pereira dos Santos</t>
+          <t>Giovanna Hernandez Garcia</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>antonio.fps@hotmail.com</t>
+          <t>giio.ufsc@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Lorenzo Driessen Cigognini</t>
+          <t>Paula Beatriz Zapatoski Giachini</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>lorenzocigognini@gmail.com</t>
+          <t>paulabia1218@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Ana Paula Lula Costa</t>
+          <t>Edgar De Paula Guerreiro</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>anapaulalula@gmail.com</t>
+          <t>edgar.guerreiro@tutanota.com</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Giovanna Hernandez Garcia</t>
+          <t>Norma Machado da Silva</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>giio.ufsc@gmail.com</t>
+          <t>norma.machado@ufsc.br</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Edgar De Paula Guerreiro</t>
+          <t>Gabriéli Luiza Steffens Knapp</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>edgar.guerreiro@tutanota.com</t>
+          <t>gabrieli_steffens-pzo@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Júlia Corrêa Martins</t>
+          <t>Ana Luisa Endler de Oliveira</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>j.ulia123@hotmail.com</t>
+          <t>oliveira.ana245@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Vinicius Oliveira Miranda</t>
+          <t>Jéssica Sueli dos Santos Batista</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>viny.olmiranda@gmail.com</t>
+          <t>jessica.ssb@grad.ufsc.br</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Aparecido Soares da Silva Júnior</t>
+          <t>Andrea Rita Marrero</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ra124357@uem.br</t>
+          <t>andrea.marrero@ufsc.br</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Wanderley Dantas dos Santos</t>
+          <t>Any Heloisa da Silva Tomé</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>wdsantos@uem.br</t>
+          <t>any.tome1@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Luiz Gustavo Gutierrez Ferreira</t>
+          <t>Manuella Cardoso Teixeira</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>luiz318guti@gmail.com</t>
+          <t>manuella.mhc2@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Pamella Oliveira Fardin</t>
+          <t>Letícia Nascimento Mathias</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ra134937@uem.br</t>
+          <t>leticiamathiasalt@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Henrique Batista Gomes da Silva</t>
+          <t>Augusto Mebs Schlieck</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ra130150@uem.br</t>
+          <t>gutoschlieck@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Rodrigo de Mello</t>
+          <t>Ana Laura Wiese</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>rdemellobr@gmail.com</t>
+          <t>aninhawfernandez@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Wes</t>
+          <t>Natalie Motelewski Trippia</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>wesley94moraes@gmail.com</t>
+          <t>nataliemotelewski@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Luana Garcia Siqueira Da Silva</t>
+          <t>Wesley Gomes Bojarski</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ra133953@uem.br</t>
+          <t>wesleybojarski@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Maria Eduarda Araujo Ribeiro</t>
+          <t>Júnior Nadaline</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ra130004@uem.br</t>
+          <t>jr.nadaline@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Nicoli Taísi Ornaghi</t>
+          <t>Fernanda S. Caron</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ra134020@uem.br</t>
+          <t>fernandadesouzacaron@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Alexandre do Sacramento Alves Anselmo</t>
+          <t>Julio Cesar de Moura-Leite</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>alexandre.sa.anselmo@gmail.com</t>
+          <t>jmouraleite@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Leonardo Rodrigues Tolardo</t>
+          <t>João Vitor Mello Hortega</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>leonardorodriguestolardo@gmail.com</t>
+          <t>joaovitormelloh@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Rodrigo A. Torres</t>
+          <t>Bruno Torquato</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>rodrigotorres@utfpr.edu.br</t>
+          <t>brunotorquato100@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Rafael de Assis</t>
+          <t>LUCAS KATSUMI ROCHA HINOSHITA</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>rafaeldeassiis@gmail.com</t>
+          <t>katsumilucas@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Luz Elena De La Ossa Guerra</t>
+          <t>Ricardo Lehtonen Rodrigues Souza</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>03ledg@gmail.com</t>
+          <t>lehtonen@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Roberto Ferreira Artoni</t>
+          <t>Mayara Pereira Neves</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>rfartoni@gmail.com</t>
+          <t>mayara-nevesbio@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Juliane Gabriele Martins</t>
+          <t>Eric de Camargo Smidt</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>juliane.gabrielemartins@hotmail.com</t>
+          <t>ecsmidt@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Jesús María Hernández Gómez</t>
+          <t>Juliana Rosa Matias Ciccheto</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>jesus7hdez@gmail.com</t>
+          <t>cicchetoju@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Allan Leal</t>
+          <t>Henrique Luiz Rieger</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>lealallan05@gmail.com</t>
+          <t>henriquerieger2001@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Fabiano Stefanello</t>
+          <t>Maria Vitoria Lima da Silva</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>stefanellof@gmail.com</t>
+          <t>mariavitoriadelima020@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Luana Vieira Carlin dos Santos</t>
+          <t>João Lucas Burginski Rosa</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>luanavieira.snow@gmail.com</t>
+          <t>jlucasburginski@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Carolina Martins da Silva</t>
+          <t>Carla Elizabeth De Oliveira Ferreira</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>carolina.mrtinssilva@gmail.com</t>
+          <t>carla_cae@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Wesley Gomes Bojarski</t>
+          <t>PAULA CAROLINA FERREIRA</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>wesleybojarski@gmail.com</t>
+          <t>paulacarolina2712@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Lucas Szekut de Paula</t>
+          <t>Urias Gabriel Leal Oliveira</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>lucasszekutdepaula@gmail.com</t>
+          <t>uriasleal07@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Júnior Nadaline</t>
+          <t>Ana Julia Possamai de Oliveira</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>jr.nadaline@gmail.com</t>
+          <t>anaju.possamai@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Adler Dvorak Barboza</t>
+          <t>André Luiz Fabiani Mansur Novais</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>adlerdvorak@gmail.com</t>
+          <t>andrefabiani@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Maria Julia Michelini de Almeida</t>
+          <t>Rafael de Oliveira Fratoni</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>majumichelini@gmail.com</t>
+          <t>rafa.fratoni@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>João Mateus Zepson Capucho</t>
+          <t>Luiz Fernando Ribeiro</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>joao.capucho@ufpr.br</t>
+          <t>luxfernando@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Luddy Searom Carias de Moraes</t>
+          <t>Pedro Vinicius Macedo</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>luddysearom@gmail.com</t>
+          <t>pedromacedro@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Marcela Naomi Okabayashi da Silva</t>
+          <t>Vitória Ibane</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>marcela.naomi@ufpr.br</t>
+          <t>viibane@outlook.com</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Valéria Ribeiro Da Silva</t>
+          <t>Jhonathan de Oliveira Pacheco</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>valeriaribeirosilva1@outlook.com</t>
+          <t>jhondeoli@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Mayara Pereira Neves</t>
+          <t>Deborah Cristina Schoemberger</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>mayara-nevesbio@hotmail.com</t>
+          <t>dehschoem@outlook.com</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Thais Neves</t>
+          <t>Nicole Isabelle Stocco</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>thaisneves2366@gmail.com</t>
+          <t>nicole.ufpr@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Izadora Moraes da Silva</t>
+          <t>Patricia Savio de Araujo-Souza</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>moraesiza12@gmail.com</t>
+          <t>psas@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Juliana Rosa Matias Ciccheto</t>
+          <t>Letícia Caroline Chaves</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>cicchetoju@gmail.com</t>
+          <t>leticia.leticiacchaves@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Eric de Camargo Smidt</t>
+          <t>Giovanna Teixeira Tuchinski</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>ecsmidt@gmail.com</t>
+          <t>teixeiratuchinski@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Henrique Luiz Rieger</t>
+          <t>Vitória Sávio Buchi</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>henriquerieger2001@gmail.com</t>
+          <t>viccabuchi@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Maria Vitoria Lima da Silva</t>
+          <t>Elisa de Castro Wille Nonino</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>mariavitoriadelima020@gmail.com</t>
+          <t>elisanonino00@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Carla Elizabeth De Oliveira Ferreira</t>
+          <t>Laura Laino</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>carla_cae@hotmail.com</t>
+          <t>laura.costa231@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>PAULA CAROLINA FERREIRA</t>
+          <t>LUCIANE VIATER TURECK</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>paulacarolina2712@gmail.com</t>
+          <t>luviater@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Ana Julia Possamai de Oliveira</t>
+          <t>Juliane Xavier</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>anaju.possamai@gmail.com</t>
+          <t>julianexavier57361@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>LUCAS KATSUMI ROCHA HINOSHITA</t>
+          <t>Raiana Santiago da Costa</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>katsumilucas@gmail.com</t>
+          <t>val_raiana@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Bruno Torquato</t>
+          <t>Rodrigo Barbosa Gonçalves</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>brunotorquato100@gmail.com</t>
+          <t>goncalvesrb@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>João Vitor Mello Hortega</t>
+          <t>Vic Sant'Ana dos Santos</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>joaovitormelloh@gmail.com</t>
+          <t>rachel.santana2302@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Ricardo Lehtonen Rodrigues Souza</t>
+          <t>VILMAR FERNANDO BUENO JUNIOR</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>lehtonen@ufpr.br</t>
+          <t>vilmarbueno_@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Viviane da Silva-Pereira</t>
+          <t>Iris Hass</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>visilvapereira@gmail.com</t>
+          <t>irishassm@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Antonio Millas Silva Pinto</t>
+          <t>Viviane da Silva-Pereira</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>millaspinto@gmail.com</t>
+          <t>visilvapereira@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Ana Beatriz Viergbiski Schwitzner</t>
+          <t>Alexandre V. Palaoro</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>anabeatrizviergbiskischwitzner@gmail.com</t>
+          <t>alexandre.palaoro@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Vic Sant'Ana dos Santos</t>
+          <t>Ana Beatriz Viergbiski Schwitzner</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>rachel.santana2302@gmail.com</t>
+          <t>anabeatrizviergbiskischwitzner@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>VILMAR FERNANDO BUENO JUNIOR</t>
+          <t>Antonio Millas Silva Pinto</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>vilmarbueno_@hotmail.com</t>
+          <t>millaspinto@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Rodrigo Barbosa Gonçalves</t>
+          <t>Izadora Moraes da Silva</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>goncalvesrb@gmail.com</t>
+          <t>moraesiza12@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Laura Laino da Costa</t>
+          <t>Thais Neves</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>laura.costa231@gmail.com</t>
+          <t>thaisneves2366@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Raiana Santiago da Costa</t>
+          <t>Lupe Alle</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>val_raiana@hotmail.com</t>
+          <t>lupealle@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Juliane Xavier</t>
+          <t>Pablo Fernandes</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>julianexavier57361@gmail.com</t>
+          <t>pablofernandeux@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Elisa de Castro Wille Nonino</t>
+          <t>Sofia Tozzo Bueno De Lima</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>elisanonino00@gmail.com</t>
+          <t>sofiatozzobueno@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Vitória Sávio Buchi</t>
+          <t>Marcela Naomi Okabayashi da Silva</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>viccabuchi@gmail.com</t>
+          <t>marcela.naomi@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Nicole Isabelle Stocco</t>
+          <t>Gabriel Ribeiro Martins</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>nicole.ufpr@gmail.com</t>
+          <t>bil.martins1015@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Amanda Beatriz Loureiro</t>
+          <t>Luddy Searom Carias de Moraes</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>amandabeatrizloureiro@gmail.com</t>
+          <t>luddysearom@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Bruna Buss</t>
+          <t>sophia saletti</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>brunacarolinebuss@gmail.com</t>
+          <t>sophia.saletti@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Leonardo Tyskowski Felix</t>
+          <t>Valéria Ribeiro Da Silva</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>leotyszko@gmail.com</t>
+          <t>valeriaribeirosilva1@outlook.com</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Arquimedes Paixão de Santana Filho</t>
+          <t>João Mateus Zepson Capucho</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>santana@ufpr.br</t>
+          <t>joao.capucho@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Vitória Ibane</t>
+          <t>Anna Victoria Silvério Righetto Mauad</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>viibane@outlook.com</t>
+          <t>annavmauad@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Fernanda S. Caron</t>
+          <t>Maria Julia Michelini de Almeida</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>fernandadesouzacaron@gmail.com</t>
+          <t>majumichelini@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Matheus Maciel Alcantara Salles</t>
+          <t>Claudio Jose Barros De Carvalho</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>matheusmaciel.salles@gmail.com</t>
+          <t>cjbcarva@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Fernanda Freitas de Oliveira</t>
+          <t>Desirrê Alexia Lourenço Petters Vandresen</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>fernandaoliveira@ufpr.br</t>
+          <t>desirre.petters@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Pedro Natale Cavezzale Dias</t>
+          <t>Marcos Cesar Pochynski Galvão Junior</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>pnatalecd@gmail.com</t>
+          <t>mrc.marcoscesar@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Alexandre Henrique Pedroso</t>
+          <t>Marcos Barbeitos</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>ahenriquepedroso@gmail.com</t>
+          <t>msbarbeitos@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Thamyris Weber Pereira</t>
+          <t>Michele Bertoncello</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>thamyweber@gmail.com</t>
+          <t>michelebertoncello146@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Matheus Igor Fontana</t>
+          <t>Nicole Sofia Cruz</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>matheu-igor@hotmail.com</t>
+          <t>nicolesouza@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Talita Helen Bombardelli Gomig</t>
+          <t>Maria Clara Itoh Nascimento</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>talitahbg@ufpr.br</t>
+          <t>mcitohbio@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Leonardo Ricardo Nunes</t>
+          <t>Fabricius Maia Chaves Bicalho Domingos</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>leonardoricardo518@gmail.com</t>
+          <t>fabricius.domingos@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Fernanda Witt Cidade</t>
+          <t>Guilherme Aparecido Rosa</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>fernandacidade@gmail.com</t>
+          <t>guilhermerosa49@yahoo.com.br</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Mariana Guolo Moschen</t>
+          <t>Thamyris Weber Pereira</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>marianagmoschen17@gmail.com</t>
+          <t>thamyweber@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Michele Bertoncello</t>
+          <t>Alexandre Henrique Pedroso</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>michelebertoncello146@gmail.com</t>
+          <t>ahenriquepedroso@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Marcos Barbeitos</t>
+          <t>Fernanda Witt Cidade</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>msbarbeitos@gmail.com</t>
+          <t>fernandacidade@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Marcos Cesar Pochynski Galvão Junior</t>
+          <t>Mariana Guolo Moschen</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>mrc.marcoscesar@gmail.com</t>
+          <t>marianagmoschen17@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Desirrê Alexia Lourenço Petters Vandresen</t>
+          <t>Leonardo Ricardo Nunes</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>desirre.petters@gmail.com</t>
+          <t>leonardoricardo518@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Fabricius Maia Chaves Bicalho Domingos</t>
+          <t>Henrique José Schipanski</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>fabricius.domingos@ufpr.br</t>
+          <t>henrique.schipanski@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Paulo Henrique Mueller</t>
+          <t>Maria Luiza Petzl-Erler</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>profmueller@gmail.com</t>
+          <t>mlperler@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Letícia Caroline Chaves</t>
+          <t>Matheus Igor Fontana</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>leticia.leticiacchaves@gmail.com</t>
+          <t>matheu-igor@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Heloise Tainá Sant’Anna</t>
+          <t>Bruna Buss</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>helo.taina.sa@gmail.com</t>
+          <t>brunacarolinebuss@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Ronielson Gaia Da Silva</t>
+          <t>Talita Helen Bombardelli Gomig</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>ronielsongaia@hotmail.com</t>
+          <t>talitahbg@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Luís Gustavo da Conceição Galego</t>
+          <t>Kaleb Pretto Gatto</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>luis.galego@uftm.edu.br</t>
+          <t>kaleb.gatto@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Laura Mara Silva Pereira</t>
+          <t>Amanda Beatriz Loureiro</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>laura.marasp@gmail.com</t>
+          <t>amandabeatrizloureiro@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Henry Paul Granger Neto</t>
+          <t>Arquimedes Paixão de Santana Filho</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>hp.granger98@gmail.com</t>
+          <t>santana@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Davi Barbalho Cavalcanti</t>
+          <t>Leonardo Tyskowski Felix</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>barbalhodavi123@gmail.com</t>
+          <t>leotyszko@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Lucas Bleicher</t>
+          <t>Pedro Natale Cavezzale Dias</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>lbleicher@gmail.com</t>
+          <t>pnatalecd@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Pammella Teixeira</t>
+          <t>Fernanda Freitas de Oliveira</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>pammellateixeira@gmail.com</t>
+          <t>fernandaoliveira@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Thieres Tayroni Martins da Silva</t>
+          <t>Matheus Maciel Alcantara Salles</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>thierestayroni@gmail.com</t>
+          <t>matheusmaciel.salles@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Fernando Araujo Perini</t>
+          <t>Aline Almeida Fonseca</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>faperini@ufmg.br</t>
+          <t>alineafbio@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Jean Carlo Pedroso de Oliveira</t>
+          <t>Nathan Herberto Ribas Vellasques</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>pedrosojco@gmail.com</t>
+          <t>nathan.vellasques@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>MATEUS CHAMONE BURGARELLI</t>
+          <t>Léo Ramalho</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>mateuschamone95@gmail.com</t>
+          <t>leoramalhomargato@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Isaac Rafael Freitas Borges</t>
+          <t>Felipe Liss Zchonski</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>isaacborges966@gmail.com</t>
+          <t>felipe.liss04@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Gabriel Costa Santos</t>
+          <t>Raquel De Jesus Selestrino</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>gabrielscosta90@gmail.com</t>
+          <t>raqueljselestrino@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>ANA CECILIA HOLLER DEL PRETTE</t>
+          <t>Gabriella Moreira</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>anacecilia.holler@gmail.com</t>
+          <t>gabriellamoreira042000@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Origilene Bezerra Dantas</t>
+          <t>Douglas Rocha</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>origilenedantas@gmail.com</t>
+          <t>douglasrocha2406@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Rafael Félix de Magalhães</t>
+          <t>Luiz Gabriel do Prado Ludwig</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>rafaelmagalhaes@ufsj.edu.br</t>
+          <t>lgpludwig@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Ramon Moreira Fernandes</t>
+          <t>Isaque Ferreira Mazzucatto Esteves</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>ramonmf360@gmail.com</t>
+          <t>isaque.mazzucatto@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Welignton Clarindo</t>
+          <t>Pamela Estyse Campos Bini</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>well.clarindo@ufv.br</t>
+          <t>pamelacamposbini@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Alessandro Marques De Oliveira</t>
+          <t>Sabrina Marchioro</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>biolessandro@gmail.com</t>
+          <t>sahmarchioro@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Mariana Fonseca Rossi</t>
+          <t>Suellen Rodrigues Calixto</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>mfonsecarossi@gmail.com</t>
+          <t>sucalixto95@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Henrique Caldeira Costa</t>
+          <t>Luana Vieira Carlin dos Santos</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>ccostah@gmail.com</t>
+          <t>luanavieira.snow@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>André Yves</t>
+          <t>Vinicius Delgado da Rocha</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>andreyves7@gmail.com</t>
+          <t>viniciusdelrocha@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Henrique José de Oliveira</t>
+          <t>Daniel Meneguello Limeira</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>henrique.bio22@gmail.com</t>
+          <t>daniel.limeira@ifpr.edu.br</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>João Pedro Almeida Caetano</t>
+          <t>Rodrigo A. Torres</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>20201200051@pq.uenf.br</t>
+          <t>rodrigotorres@utfpr.edu.br</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Bruno Clarkson</t>
+          <t>Wes</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>brclarkson@gmail.com</t>
+          <t>wesley94moraes@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Yasmim Alvarenga</t>
+          <t>Aparecido Soares da Silva Júnior</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>y.alvarenga.abreu@gmail.com</t>
+          <t>ra124357@uem.br</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Juliana Lopes De Lima</t>
+          <t>Luiz Gustavo Gutierrez Ferreira</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>julianapv100@gmail.com</t>
+          <t>luiz318guti@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Comissão Avaliadora</t>
+          <t>Renan Borges dos Reis</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>angela_portella@hotmail.com</t>
+          <t>reis.renanb@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>RAFAEL FILGUEIRA JORGE</t>
+          <t>Pamella Oliveira Fardin</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>rafajorgebio@gmail.com</t>
+          <t>ra134937@uem.br</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Ana Carolina Martins Junqueira</t>
+          <t>Rodrigo de Mello</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>anacmj@gmail.com</t>
+          <t>rdemellobr@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Jose Ricardo Miras Mermudes</t>
+          <t>Henrique Batista Gomes da Silva</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>jrmermudes@gmail.com</t>
+          <t>ra130150@uem.br</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Davi Marques De Oliveira De Sá</t>
+          <t>Vinicius Oliveira Miranda</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>ivadmarques48@gmail.com</t>
+          <t>viny.olmiranda@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>CLARISSA COIMBRA CANEDO</t>
+          <t>Wanderley Dantas dos Santos</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>clarissa.canedo@gmail.com</t>
+          <t>wdsantos@uem.br</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Gabriel Henrique Nunes Rodrigues</t>
+          <t>Isadora Carolina Martins</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>gabhengel@gmail.com</t>
+          <t>icarolmartins5@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Claudia Augusta de Moraes Russo</t>
+          <t>Leonardo Rodrigues Tolardo</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>claurusso@hotmail.com</t>
+          <t>leonardorodriguestolardo@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Dener Soares Da Costa Junior</t>
+          <t>Fernando Ursen Dias de Souza</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>denerdacosta12@gmail.com</t>
+          <t>fernandoursendias@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Bruno Loreto de Aragão Pedroso</t>
+          <t>Alexandre do Sacramento Alves Anselmo</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>bruno.loreto.aragao@hotmail.com</t>
+          <t>alexandre.sa.anselmo@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Miguel Godinho Alvares</t>
+          <t>Matheus Zirondi Roloff</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>miguelgodinhoalvares@gmail.com</t>
+          <t>mzroloff@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Carlos Eduardo Guerra Schrago</t>
+          <t>Nicoli Taísi Ornaghi</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>carlos.schrago@gmail.com</t>
+          <t>ra134020@uem.br</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Beatriz Mello Carvalho</t>
+          <t>Bruno Henrique Mioto Stabile</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>biaumello@gmail.com</t>
+          <t>brunomioto97@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Gabriela Ferreira Mota</t>
+          <t>Maria Eduarda Araujo Ribeiro</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>motafgabriela@gmail.com</t>
+          <t>ra130004@uem.br</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>José Mateus dos Santos</t>
+          <t>Gabriela Cassia Zanon Reinas</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>mateussantosprof14@gmail.com</t>
+          <t>gz.reinas@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Lucas Pereira da Rocha</t>
+          <t>Luana Garcia Siqueira Da Silva</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>lucasrocha700@gmail.com</t>
+          <t>ra133953@uem.br</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Alexandra Paris Toledo</t>
+          <t>Franciele Fernanda Kerniske</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>alepariis@gmail.com</t>
+          <t>francielekerniske17@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Alessandra Pavan Lamarca</t>
+          <t>Jesús María Hernández Gómez</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>pavanlamarca@gmail.com</t>
+          <t>jesus7hdez@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Ismar de Souza Carvalho</t>
+          <t>Clarielly Volfe</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>ismar@geologia.ufrj.br</t>
+          <t>clarywolf75@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Luiza Silva Anselmini</t>
+          <t>Participante 77837</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>miniansel.lu@gmail.com</t>
+          <t>gabrielmarras@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Clarice Assumpção da Costa</t>
+          <t>Iasmin Ieteka</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>assumpcao.clarice@gmail.com</t>
+          <t>iasmin.ieteka12@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Ingrid Martins Machado Garcia Veiga</t>
+          <t>Juliane Gabriele Martins</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>ingridgveiga@gmail.com</t>
+          <t>juliane.gabrielemartins@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Gabriela Mussalem Haddad</t>
+          <t>Tiago MarafigaDegrandi</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>gabimh3181@gmail.com</t>
+          <t>tdegrandi@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Inês Corrêa Gonçalves</t>
+          <t>INIWARA K. PEREIRA</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>inescg.bio@gmail.com</t>
+          <t>iniwara47@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Lais Henriques de Mattos</t>
+          <t>Maria Eduarda Monteiro Bensberg de Araújo</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>laishenriques91@gmail.com</t>
+          <t>mariaeduardabenaberg8926@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Luísa Andrade Mendes</t>
+          <t>Alice Fernanda Lima De Araujo</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>mendesluisa1997@gmail.com</t>
+          <t>araujoalice629@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>ALENA MAYO INIGUEZ</t>
+          <t>Allan Leal</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>alenainiguez@gmail.com</t>
+          <t>lealallan05@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Melissa Bars Closel</t>
+          <t>Mara Cristina de Almeida Matiello</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>melissabars@gmail.com</t>
+          <t>almeidamara@uol.com.br</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Adriana Coletto Morales</t>
+          <t>Tatiana Caroline Machado</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>adriana.morales@unesp.br</t>
+          <t>tatianamachado4444@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Pedro Henrique Nunes Zani</t>
+          <t>giovana sequinel correa</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>pedrohnz@usp.br</t>
+          <t>giovanasequinel@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Martín Rodrigo Escobar</t>
+          <t>Rafael de Assis</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>martin.escobar@usp.br</t>
+          <t>rafaeldeassiis@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Juliana Luzete Monteiro</t>
+          <t>Gabriel Staichak</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>julianaluzete@usp.br</t>
+          <t>gstaichak@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Breno Michelon Seixas</t>
+          <t>Roger Henrique Dalcin</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>breno.mseixas@usp.br</t>
+          <t>roger.dalcin@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Lucas Barcelos</t>
+          <t>Fernanda Souza de Oliveira</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>lucasabarcelos@gmail.com</t>
+          <t>fersouzaoliveira@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Danilo Camargo Fernandes</t>
+          <t>Hallana Cristina Menezes Da Silva</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>danilo.fernandes@usp.br</t>
+          <t>hallana19@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Thiago Takeshi Goto</t>
+          <t>Brenda Katiene Carvalho Faustino</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>thi.takeshi@gmail.com</t>
+          <t>brendakacarvalho@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Lígia Mouriño de Almeida Prado</t>
+          <t>Roberto Ferreira Artoni</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>ligia.prado@unesp.br</t>
+          <t>rfartoni@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Rodrigo Zeni</t>
+          <t>Lucas Bleicher</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>rodrigo-zeni@outlook.com.br</t>
+          <t>lbleicher@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Natália dos Santos</t>
+          <t>ANA CECILIA HOLLER DEL PRETTE</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>n.santos97@unesp.br</t>
+          <t>anacecilia.holler@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Amanda Bueno da Silva</t>
+          <t>Fabricio Santos</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>amanda.bueno-silva@unesp.br</t>
+          <t>fabricio-santos@ufmg.br</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Gabriel Tofanelo Vanin</t>
+          <t>MATEUS CHAMONE BURGARELLI</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>gabriel.vanin@unesp.br</t>
+          <t>mateuschamone95@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Jordana Oliveira</t>
+          <t>Isaac Rafael Freitas Borges</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>jordanainoliveira@gmail.com</t>
+          <t>isaacborges966@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Gustavo da Silva Ambrosio</t>
+          <t>Luciana Resende</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>gustavo.ambrosio@unesp.br</t>
+          <t>luresende@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Fernanda Biscaino Saluceste</t>
+          <t>Thieres Tayroni Martins da Silva</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>fernanda.saluceste@unesp.br</t>
+          <t>thierestayroni@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Gustavo Ballen</t>
+          <t>Fernando Araujo Perini</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>gustavo.a.ballen@gmail.com</t>
+          <t>faperini@ufmg.br</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Ana Malaghini de Abreu</t>
+          <t>Ana Carolina Martins Pereira</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>anamalaghini9gold@gmail.com</t>
+          <t>anamartinsper.bio@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Lucas Pereira Camargo</t>
+          <t>Jean Carlo Pedroso de Oliveira</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>lucaspc@estudante.ufscar.br</t>
+          <t>pedrosojco@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>João Pedro Fujita</t>
+          <t>Henry Paul Granger Neto</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>joaopedrofujita@estudante.ufscar.br</t>
+          <t>hp.granger98@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Rafael Fernandes Barduzzi</t>
+          <t>Laura Mara Silva Pereira</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>rfbarduzzi@gmail.com</t>
+          <t>laura.marasp@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Guilherme Mota Souza</t>
+          <t>Davi Barbalho Cavalcanti</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>guilherme.mota@estudante.ufscar.br</t>
+          <t>barbalhodavi123@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Leonardo Maurici Borges</t>
+          <t>Pammella Teixeira</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>aquitemcaqui@gmail.com</t>
+          <t>pammellateixeira@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Miguel Henrique Valentim Sanches</t>
+          <t>Alessandro Marques De Oliveira</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>miguelvalentim@estudante.ufscar.br</t>
+          <t>biolessandro@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Analice Gabrielle Marquezin Gomes</t>
+          <t>Fabíola Da Silva Costa</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>analice.gabrielle@unesp.br</t>
+          <t>fabiolasilvacosta1@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Victor Hugo Barbosa Pereira</t>
+          <t>Mylena Barros de Lima</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>vhb.pereira@unesp.br</t>
+          <t>barros.lima@estudante.ufjf.br</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Francisco Borges</t>
+          <t>André Yves</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>fa.borges@unesp.br</t>
+          <t>andreyves7@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>João Francisco Ponticelli Tottene</t>
+          <t>Henrique José de Oliveira</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>tott.joao@gmail.com</t>
+          <t>henrique.bio22@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Felipe Messias Leandro</t>
+          <t>Mariana Fonseca Rossi</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>felipe.messias@unesp.br</t>
+          <t>mfonsecarossi@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Lina Maria Ameida Silva</t>
+          <t>Henrique Caldeira Costa</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>linamas@gmail.com</t>
+          <t>ccostah@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Ibrahim Kamel Rodrigues Nehemy</t>
+          <t>Origilene Bezerra Dantas</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>ibrahimnehemy@hotmail.com</t>
+          <t>origilenedantas@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Nicolle Souza Leto</t>
+          <t>Rafael Félix de Magalhães</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>letonicolle@gmail.com</t>
+          <t>rafaelmagalhaes@ufsj.edu.br</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Helena Mattiazzo Milanez</t>
+          <t>Gabriel Amaral Bonani Rocha</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>helena.mattiazzo@gmail.com</t>
+          <t>rochagabriel21@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Amanda Lichtscheidl Graciadio</t>
+          <t>Ramon Moreira Fernandes</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>a265805@dac.unicamp.br</t>
+          <t>ramonmf360@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Rômulo Celestino Souza</t>
+          <t>Ronielson Gaia Da Silva</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>romulo.amazonia@gmail.com</t>
+          <t>ronielsongaia@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Pedro Paulo Goulart Taucci</t>
+          <t>José Vitor Nascimento Prudente</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>pedrotaucce@gmail.com</t>
+          <t>jose.prudente@ufu.br</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Lucas Albuquerque dos Santos</t>
+          <t>Virgilio Teixeira Carrijo</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>lucasabqsto@gmail.com</t>
+          <t>virgiliocarrijo@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Beatriz Christine De Marco Pereira</t>
+          <t>Caroline Scarabelin</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>b257010@dac.unicamp.br</t>
+          <t>carolinescarabelin@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Pedro Danel de Souza Ugarte</t>
+          <t>Victor Alberto Tagliacollo</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>pedaugaso@gmail.com</t>
+          <t>vatagliacollo@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>João Claudio de Sousa Nascimento</t>
+          <t>Welignton Clarindo</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>j.claudionasci@gmail.com</t>
+          <t>well.clarindo@ufv.br</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Fernando Sotero de Lara</t>
+          <t>Letícia Carlesso de Paula Sena</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>f236823@dac.unicamp.br</t>
+          <t>leticiacpsena@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Luiza de Moraes Magaldi</t>
+          <t>Fernanda Mayrink</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>luiza.magaldi@gmail.com</t>
+          <t>fernanda.m.campos@ufv.br</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Clarisse Palma da Silva</t>
+          <t>João Pedro Almeida Caetano</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>cpalma@unicamp.br</t>
+          <t>20201200051@pq.uenf.br</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Pábulo Matheus Domiciano</t>
+          <t>Carlos Frederico Deluqui Gurgel</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>pabulodomiciano@gmail.com</t>
+          <t>f_gurgel@yahoo.com</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Tami da Costa Cacossi</t>
+          <t>Victoria Bartolome Moulder</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>tamiccacossi@gmail.com</t>
+          <t>vbmoulder@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Pedro Henrique Pacheco Mosquini</t>
+          <t>Yasmim Alvarenga</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>mosquiniphp@gmail.com</t>
+          <t>y.alvarenga.abreu@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Vera Nisaka Solferini</t>
+          <t>Juliana Lopes De Lima</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>veras@unicamp.br</t>
+          <t>julianapv100@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Julia Nader Acquaviva</t>
+          <t>Davi Marques De Oliveira De Sá</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>julianader95@gmail.com</t>
+          <t>ivadmarques48@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Henrique Vilela da Mata Bianchini</t>
+          <t>CLARISSA COIMBRA CANEDO</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>h236891@dac.unicamp.br</t>
+          <t>clarissa.canedo@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Leonardo Duarte Santos</t>
+          <t>Claudia Augusta de Moraes Russo</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>santosldbio@gmail.com</t>
+          <t>claurusso@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Isa Eloá de Freitas Poloni</t>
+          <t>Miguel Godinho Alvares</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>isaeloa011203@gmail.com</t>
+          <t>miguelgodinhoalvares@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Beatriz Helena Macari Daros</t>
+          <t>Bruno Loreto de Aragão Pedroso</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>beatrizdarosbio@gmail.com</t>
+          <t>bruno.loreto.aragao@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Lucas Oliveira Mello</t>
+          <t>Dener Soares Da Costa Junior</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>lucasmellounicamp@gmail.com</t>
+          <t>denerdacosta12@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Paulo Aecyo Francisco da Silva</t>
+          <t>Shanmuganatham Vinoth</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>pauloaecyo_1997@hotmail.com</t>
+          <t>vinothshanmuganatham@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Luciana Bolsoni Lourenço</t>
+          <t>José Mateus dos Santos</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>bolsoni@unicamp.br</t>
+          <t>mateussantosprof14@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Gabriel Gonçalves da Silva</t>
+          <t>Ana Carolina Martins Junqueira</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>g249321@dac.unicamp.br</t>
+          <t>anacmj@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Tiago Benedito dos Santos</t>
+          <t>Jose Ricardo Miras Mermudes</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>tiagobio02@yahoo.com.br</t>
+          <t>jrmermudes@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Jardel De Oliveira</t>
+          <t>Angela Ferreira Portella</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>jardel.oliveira90@hotmail.com</t>
+          <t>angela_portella@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Diliane Harumi Yaguinuma</t>
+          <t>RAFAEL FILGUEIRA JORGE</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>diliane-harumi@hotmail.com</t>
+          <t>rafajorgebio@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Aline Vieira e Silva</t>
+          <t>Gabrielle Silva Neves</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>vieiraaline97@gmail.com</t>
+          <t>gabineves612@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Ana Claudia Lessinger</t>
+          <t>Marcos Vinícius de Lima Coelho</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>lessinger@ufscar.br</t>
+          <t>delimacoelhomv@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Miguel Piovesana Pereira Romeiro</t>
+          <t>Gabriel Henrique Nunes Rodrigues</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>miguelpromeiro@gmail.com</t>
+          <t>gabhengel@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Irene De Fátima Vieira De Moraes</t>
+          <t>Nicolás da Cruz Cano</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>irenef.vieiram@gmail.com</t>
+          <t>nicolasdacruzcano@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Eduardo Koerich Nery</t>
+          <t>ALENA MAYO INIGUEZ</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>eduardo.k.nery@gmail.com</t>
+          <t>alenainiguez@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Letícia Wanderley Cavalcanti</t>
+          <t>Pedro Henrique Moreira de Sousa Pinna</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>letcavalcanti02@gmail.com</t>
+          <t>pedropinna@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>AMMIR YACOUB HELOU</t>
+          <t>Inês Corrêa Gonçalves</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>ammir@usp.br</t>
+          <t>inescg.bio@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Katharina Patrocinia da Silva</t>
+          <t>Lais Henriques de Mattos</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>patrociniakps@gmail.com</t>
+          <t>laishenriques91@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Tiago Bosisio Quental</t>
+          <t>Luísa Andrade Mendes</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>tbquental@usp.br</t>
+          <t>mendesluisa1997@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Luiza Gomes de Oliveira</t>
+          <t>Diego Homem de Carvalho Ribeiro Gomes</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>luizaoliveira2000@gmail.com</t>
+          <t>diegohcrgomes@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Gabriela Procópio Camacho</t>
+          <t>Alexandra Paris Toledo</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>gpcamacho@usp.br</t>
+          <t>alepariis@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Nathália Caldeira Dias</t>
+          <t>Lucas Pereira da Rocha</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>caldeira.nathalia@gmail.com</t>
+          <t>lucasrocha700@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Thiago Silva Loboda</t>
+          <t>Ananda D'Elia</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>loboda_bio@yahoo.com.br</t>
+          <t>anandadelia@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Julia Mayumi De Gois Sugimoto</t>
+          <t>Alessandra Pavan Lamarca</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>juuliamgs@hotmail.com</t>
+          <t>pavanlamarca@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>João Marcos Pereira</t>
+          <t>Ismar de Souza Carvalho</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>joao2.pereira@usp.br</t>
+          <t>ismar@geologia.ufrj.br</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Carlos Cristiano Simões Ferreira e Penha</t>
+          <t>Bruna Guarabyra Moreira Godinho da Silva</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>cristianosf@usp.br</t>
+          <t>bruna_guarabyra@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Denis Calandriello Calio</t>
+          <t>Clarice Assumpção da Costa</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>denis.calan@gmail.com</t>
+          <t>assumpcao.clarice@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Max Hideki Oliveira Homma</t>
+          <t>Ingrid Martins Machado Garcia Veiga</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>maxhomma@usp.br</t>
+          <t>ingridgveiga@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Raíssa do Nascimento Rainha</t>
+          <t>Prof. Dr. Frederico Henning</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>rainharaissa0@gmail.com</t>
+          <t>fhenning@acd.ufrj.br</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Samuel Augusto Aguiar dos Anjos</t>
+          <t>Luiza Silva Anselmini</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>sam_aanjos@usp.br</t>
+          <t>miniansel.lu@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Ana Paula Assis</t>
+          <t>Larissa Andrade</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>paulaassis@ib.usp.br</t>
+          <t>larissaandrade.bio@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Joyce Rodrigues do Prado</t>
+          <t>Gabriela Mussalem Haddad</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>joyce.prado@usp.br</t>
+          <t>gabimh3181@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Tábita Hünemeier</t>
+          <t>Carlos Eduardo Guerra Schrago</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>hunemeier@usp.br</t>
+          <t>carlos.schrago@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Gabriele da Silva Gouveia Oliveira</t>
+          <t>Maria Alves Napolitani</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>gabriele.oliveira611@gmail.com</t>
+          <t>napolitanima@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Weverton dos Santos Azevedo</t>
+          <t>Gabriela Ferreira Mota</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>weverton.azevedo@hotmail.com</t>
+          <t>motafgabriela@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Diogo Melo</t>
+          <t>Natália dos Santos</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>diogro@gmail.com</t>
+          <t>n.santos97@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Marcelo Duarte</t>
+          <t>Amanda Bueno da Silva</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>mduartes@usp.br</t>
+          <t>amanda.bueno-silva@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Rafaela Velloso Missagia</t>
+          <t>Kevin Kyoshi Toldo Makiya</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>rafaelamissagia@gmail.com</t>
+          <t>kevin.kyoshi@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Ana Paula Becker</t>
+          <t>Rodrigo Zeni</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>ana.becker023@gmail.com</t>
+          <t>rodrigo-zeni@outlook.com.br</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Bárbara Santos Teixeira Costa</t>
+          <t>Luana Maria Deoclécio da Silva</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>barbarabio@usp.br</t>
+          <t>luana.deoclecio@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Gabriel Neves Cardoso Coelho</t>
+          <t>Leticia Masiero Desajacomo</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>gab235coelho@usp.br</t>
+          <t>leticia.masiero@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>katarine nogueira norbertino</t>
+          <t>Jeferson Duran Fuentes</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>katarinenn@outlook.com</t>
+          <t>jeferson.duran-fuentes@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Ana Carolina Humberto</t>
+          <t>Lígia Mouriño de Almeida Prado</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>anac.humberto@gmail.com</t>
+          <t>ligia.prado@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Ivan Sergio Nunes Silva Filho</t>
+          <t>Ana Malaghini de Abreu</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>ivan.nunes@unesp.br</t>
+          <t>anamalaghini9gold@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Josué Anderson Rêgo Azevedo</t>
+          <t>Ana Paula Moraes</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>josueanderson21@gmail.com</t>
+          <t>ap.moraes@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Erik Henrique de Lacerda Choueri</t>
+          <t>Jordana Oliveira</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>chouerik@gmail.com</t>
+          <t>jordanainoliveira@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Fernanda de Pinho Werneck</t>
+          <t>Gustavo Ballen</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>fewerneck@gmail.com</t>
+          <t>gustavo.a.ballen@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Alexander Tamanini Mônico</t>
+          <t>Fernanda Biscaino Saluceste</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>alexandermonico@hotmail.com</t>
+          <t>fernanda.saluceste@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Esteban Diego Koch</t>
+          <t>Gustavo da Silva Ambrosio</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>edkoch17@gmail.com</t>
+          <t>gustavo.ambrosio@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Frederico Felizardo Barbosa</t>
+          <t>Danillo Pinhal</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>fredericofb012@gmail.com</t>
+          <t>danillo.pinhal@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Amanda Freitas Haase</t>
+          <t>Lucas Oliveira Mello</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>amandafreitashaase@gmail.com</t>
+          <t>lucasmellounicamp@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Felipe Arian de Andrade Araújo</t>
+          <t>Julia Nader Acquaviva</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>araujo.felipearian@gmail.com</t>
+          <t>julianader95@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Gilmax Gonçalves Ferreira</t>
+          <t>Welington Luis Sachetti Junior</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>gillmax88@gmail.com</t>
+          <t>ton.jr.bio@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Thais Helena Condez</t>
+          <t>Henrique Vilela da Mata Bianchini</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>thacondez@gmail.com</t>
+          <t>h236891@dac.unicamp.br</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Aléxia Gonçalves Pereira</t>
+          <t>Georgette Paola Ancajima Alcalde</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>alexiagp@gmail.com</t>
+          <t>paolancajima@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Pamela Maciel Cremonez</t>
+          <t>Leonardo Duarte Santos</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>pamelacremonez@gmail.com</t>
+          <t>santosldbio@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Isabella Fagundes Rosa Limão</t>
+          <t>Phietra de Paula Oliveira</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>isaarlimao@gmail.com</t>
+          <t>p243294@dac.unicamp.br</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Jonas Conduru Barros Neto</t>
+          <t>Joana de Moura Gama</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>jonas.barrosneto@discente.univasf.edu.br</t>
+          <t>joanamgama@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Gabriela Procopio Leite</t>
+          <t>Vera Nisaka Solferini</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>gabrielaprocopio3@gmail.com</t>
+          <t>veras@unicamp.br</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
+          <t>Raphael da Silva</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>r217220@dac.unicamp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Jennifer Nunes Pompeo</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>jennifernunespompeo@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>João Claudio de Sousa Nascimento</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>j.claudionasci@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Fernando Sotero de Lara</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>f236823@dac.unicamp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Luiza de Moraes Magaldi</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>luiza.magaldi@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Pábulo Matheus Domiciano</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>pabulodomiciano@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Clarisse Palma da Silva</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>cpalma@unicamp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Ubiratã Ferreira Souza</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>ubirataferreirasouza@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Maria Ursini Alves de Lima</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>mariaursinialves@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Pedro Henrique Pacheco Mosquini</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>mosquiniphp@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Tami da Costa Cacossi</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>tamiccacossi@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Isa Eloá de Freitas Poloni</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>isaeloa011203@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Lucas Rosado Mendonça</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>lucasrosadm@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Beatriz Helena Macari Daros</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>beatrizdarosbio@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Franciane Cedrola Vale</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>francedrola@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Leonardo Murari</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>leonardomuraribio@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Nathan Graia Ferreira</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>n249472@dac.unicamp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Pedro Paulo Goulart Taucci</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>pedrotaucce@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Lucas Albuquerque dos Santos</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>lucasabqsto@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Jessie P. Santos</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>jessiepereira@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Patrícia Avelino Machado</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>patyavelino95@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Stephanny dos Santos Nobre</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>s244410@dac.unicamp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Pedro Danel de Souza Ugarte</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>pedaugaso@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Beatriz Christine De Marco Pereira</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>b257010@dac.unicamp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Gabriel Banov Evora</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>gbanovevora@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>DRIELLI CANAL</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>drielliufes@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Amanda Lichtscheidl Graciadio</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>a265805@dac.unicamp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Maria Julia Pedroso Grigolin</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>m173165@dac.unicamp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Ibrahim Kamel Rodrigues Nehemy</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>ibrahimnehemy@hotmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Nicolle Souza Leto</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>letonicolle@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Murilo Meneghetti</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>murobishop@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Helena Mattiazzo Milanez</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>helena.mattiazzo@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Luciana Bolsoni Lourenço</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>bolsoni@unicamp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Gabriel Gonçalves da Silva</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>g249321@dac.unicamp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Katia Cristina Machado Pellegrino</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>katia.pellegrino@unifesp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Adriana Coletto Morales</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>adriana.morales@unesp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Melissa Bars Closel</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>melissabars@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Jardel De Oliveira</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>jardel.oliveira90@hotmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Tiago Benedito dos Santos</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>tiagobio02@yahoo.com.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Breno Michelon Seixas</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>breno.mseixas@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Ana Sophia Reami Dallanese</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>anasophiard@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Isabelle Haga</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>hagaisabelle@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Martín Rodrigo Escobar</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>martin.escobar@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Juliana Luzete Monteiro</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>julianaluzete@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Vinicius Anelli</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>vnanell@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Dra. Tiana Kohlsdorf</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>tiana@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Matheus Ganiko Dutra</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>ganiko.dutra@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Jeniffer Natalia Teles</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>jenifferteles94@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Pedro Henrique Nunes Zani</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>pedrohnz@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Lígia Ziotti Candiles Holgado</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>ligiaziotti@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Felipe Andrade</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>felipe_andrade@ymail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Danilo Camargo Fernandes</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>danilo.fernandes@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Danillo Cristian Feitosa Dos Santos</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>danilocrisfs@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Lucas Barcelos</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>lucasabarcelos@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Victor Hugo Barbosa Pereira</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>vhb.pereira@unesp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Millke Jasmine Arminini Morales</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>millke.jasmine@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Juliane Petry de Carli Monteiro</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>julianepmonteiro@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Thais Helena Condez</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>thacondez@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Analice Gabrielle Marquezin Gomes</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>analice.gabrielle@unesp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Maria Tereza Colpani Sartori</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>colpanisartori@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Felipe Messias Leandro</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>felipe.messias@unesp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>João Francisco Ponticelli Tottene</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>tott.joao@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Francisco Borges</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>fa.borges@unesp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Eduardo Koerich Nery</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>eduardo.k.nery@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Irene De Fátima Vieira De Moraes</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>irenef.vieiram@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Príncia Grejo Setti</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>princiasetti@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Miguel Henrique Valentim Sanches</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>miguelvalentim@estudante.ufscar.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Mariannah Pravatti Barcellos de Oliveira</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>mariannah.bo@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Jhon Alex Dziechciarz Vidal</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>jhonalex279@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Francisco de Menezes Cavalcante Sassi</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>francisco.sassi@hotmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Geize Aparecida Deon</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>geizedeon@hotmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Guilherme Mota Souza</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>guilherme.mota@estudante.ufscar.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Alan Moura de Oliveira</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>alanoliveira@estudante.ufscar.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Leonardo Maurici Borges</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>aquitemcaqui@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>MARCELO DE BELLO CIOFFI</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>mbcioffi@ufscar.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>FERNANDO HENRIQUE SANTOS DE SOUZA</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>Fernando.souza@estudante.ufscar.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>João Pedro Fujita</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>joaopedrofujita@estudante.ufscar.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Lucas Pereira Camargo</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>lucaspc@estudante.ufscar.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Rafael Fernandes Barduzzi</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>rfbarduzzi@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Gabriel Neves Cardoso Coelho</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>gab235coelho@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Mario César C. de Pinna</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>pinna@ib.usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Carlos Cristiano Simões Ferreira e Penha</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>cristianosf@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Thiago Silva Loboda</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>loboda_bio@yahoo.com.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Julia Mayumi De Gois Sugimoto</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>juuliamgs@hotmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Larissa Ferreira da Silva</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>larissa.fs97@outlook.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Gabriela Procópio Camacho</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>gpcamacho@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Eduarda Kjekshus Mansur Haddad</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>eduardakmh@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Luiza Gomes de Oliveira</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>luizaoliveira2000@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Cristina Yumi Miyaki</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>cymiyaki@ib.usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Letícia Wanderley Cavalcanti</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>letcavalcanti02@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>AMMIR YACOUB HELOU</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>ammir@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Katharina Patrocinia da Silva</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>patrociniakps@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Eliana Maria Beluzzo Dessen</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>embdesse@ib.usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Tiago Bosisio Quental</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>tbquental@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Vinícius José Carvalho Reis</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>carvalhvinicius@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>João Marcos Pereira</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>joao2.pereira@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Bruno Celso Feltrin Genevcius</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>bgenevcius@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Denis Calandriello Calio</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>denis.calan@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Sergio Russo Matioli</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>srmatiol@ib.usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Dalton de Souza Amorim</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>dsamorim@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Gabriel Nakamura de Souza</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>gabriel.nakamura.souza@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Davi Monteiro Nunes</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>davimontnunes@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Ana Paula Assis</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>paulaassis@ib.usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Marco A. C. Varella</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>macvarella@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Joyce Rodrigues do Prado</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>joyce.prado@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Samuel Augusto Aguiar dos Anjos</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>sam_aanjos@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>João Roberto Fentanes Machado</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>joao.fentanes@unifesp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Amanda Kimie Tsuruta</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>amandatsuruta@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Gabriel Santos Garcia</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>gasagarcia@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>Frederico de Alcantara Menezes</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>fred25alcantara@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>Maria Clara Irumé</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>irumemcf@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>Sandra Reinales</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>spreinalesl@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>Thiago Takeshi Goto</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>thi.takeshi@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>Miguel Piovesana Pereira Romeiro</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>miguelpromeiro@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>Raíssa do Nascimento Rainha</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>rainharaissa0@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>Miguel Angelo</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>miguel.angelo24@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>LUCAS QUEVEDO PINTO</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>lukasquevedo.72@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>Ana Paula Becker</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>ana.becker023@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>Marcelo Duarte</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>mduartes@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>Diogo Melo</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>diogro@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>Weverton dos Santos Azevedo</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>weverton.azevedo@hotmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>Gabriele da Silva Gouveia Oliveira</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>gabriele.oliveira611@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>Tábita Hünemeier</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>hunemeier@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>Felipe Simionato Salles</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>felipe.salles@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>Bárbara Santos Teixeira Costa</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>barbarabio@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>André Guilherme Madeira</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>andre.madeira@unesp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>Ivan Sergio Nunes Silva Filho</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>ivan.nunes@unesp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>Gustavo Maruyama Mori</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>gustavo.mori@unesp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>Gabriel Tofanelo Vanin</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>gabriel.vanin@unesp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>Ana Claudia Lessinger</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>lessinger@ufscar.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>Julia Oliveira Gomes</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>julia.oliveiragomes2@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>Iris Dechiare Passos Ribeiro</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>iris@estudante.ufscar.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>Lucas Marafina Vieira Porto</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>lucasmvporto@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>Max Hideki Oliveira Homma</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>maxhomma@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>Nathália Caldeira Dias</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>caldeira.nathalia@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>Marianna Silva Borburema</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>mariannaborburema1@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>Pedro Nicésio do Amaral</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>pedronamaral@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>Rafaela Velloso Missagia</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>rafaelamissagia@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>Luciana Aparecida Botacim</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>lucianabotacim@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>Amanda Freitas Haase</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>amandafreitashaase@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>Fernanda de Pinho Werneck</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>fewerneck@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>Esteban Diego Koch</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>edkoch17@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>Josué Anderson Rêgo Azevedo</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>josueanderson21@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>Rômulo Celestino Souza</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>romulo.amazonia@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>Erik Henrique de Lacerda Choueri</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>chouerik@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>Alexander Tamanini Mônico</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>alexandermonico@hotmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>Gilmax Gonçalves Ferreira</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>gillmax88@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>Felipe Arian de Andrade Araújo</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>araujo.felipearian@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>Anna Theresa De Souza Liberal</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>theresaliberal@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>Pedro Paulo Ferreira da Silva</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>pedropaulofers@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>Felipe Camurugi Almeida Guimarães</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>camurugif@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>JOAO PAULO SANTOS DA SILVA</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>jpbiosilva@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>Gleyce Medeiros da Silva</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>gleycemedeiros96@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>José Eduardo Gomes De Oliveira</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>zezinho20052005@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>EDILSON DIVINO DE ARAUJO</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>edaraujoufs@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>Graziela Santos Andrade</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>grazielaandrade.bio@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>Ana Carolina Vilas Boas</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>ananinanina@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>Josieli Queiroz De Oliveira</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>josieli.queiroz@discente.univasf.edu.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>João Pedro Silva Climaco</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>joaopsclimaco@hotmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>Isabelle Oliveira Lima Luz</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>isabelleluz@outlook.com.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>Thais Kethellen Silva De Paula</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>thaiskethellen72@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>Luciana Aguilar Aleixo</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>lucianaaleixo@uesb.edu.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>Tami Mott</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>tami.mott@icbs.ufal.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>João Vitor Rodrigues Costa</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>vitorrodc@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>Mariana Nunes Menegat</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>marianamenegat@outlook.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>Lilian Gimenes Giugliano</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>liliangiu@unb.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>Frederico Felizardo Barbosa</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>fredericofb012@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>Giovana Lima da Rocha</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>giovanalima2001@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>Iderval da Silva Júnior Sobrinho</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>iderval_jr@yahoo.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>Juliani Maciel dos Santos</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>juli.maciels@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>Aléxia Vittória Dariva Tormen</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>alexia.tormen@hotmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>Carlos Robson Costa Cruz</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>cruz.carlosr21@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
           <t>Jonathan Murilo Andreu Conrado</t>
         </is>
       </c>
-      <c r="B390" t="inlineStr">
+      <c r="B562" t="inlineStr">
         <is>
           <t>jonathan.conrajo@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>Marcelo Jorge Werner</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>marcelo.werner.sc@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>Ana Paula Lula Costa</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>anapaulalula@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>Joana Gehlen Tessaro</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>tessarojg@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>Júlia Corrêa Martins</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>j.ulia123@hotmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>Vitória de Carvalho da Silva</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>vicarvalho.2701@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>Renata Mussoi Giacomin</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>giacomin.rm@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>Carolina Martins da Silva</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>carolina.mrtinssilva@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>Lucas Szekut de Paula</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>lucasszekutdepaula@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>Adler Dvorak Barboza</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>adlerdvorak@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>Fabiano Stefanello</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>stefanellof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>VITOR DE CASTRO RECH</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>vitor.castro.rech@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>Luis Roberto Bueno</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>luisbrbio@hotmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>Paulo Henrique Mueller</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>profmueller@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>Luz Elena De La Ossa Guerra</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>03ledg@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>Ellen Renata Canesso</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>ellenr.canesso@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>Heloise Tainá Sant’Anna</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>helo.taina.sa@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>Caroline do Nascimento Ferreira</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>carolinenascferreira@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>Lucas Vilela de Carvalho Rodrigues</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>lucasvilela676@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>Gabriel Costa Santos</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>gabrielscosta90@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>Luís Gustavo da Conceição Galego</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>luis.galego@uftm.edu.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>Gabriela Procopio Leite</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>gabrielaprocopio3@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>Bruno Clarkson</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>brclarkson@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>Pamela Maciel Cremonez</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>pamelacremonez@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>Beatriz Mello Carvalho</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>biaumello@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>Lina Maria Ameida Silva</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>linamas@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>SERGIO NASCIMENTO STAMPAR</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>sergio.stampar@unesp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>Paulo Aecyo Francisco da Silva</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>pauloaecyo_1997@hotmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>Lucas dos Santos Fazzio Rachid</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>lucas.rachid@unifesp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>Aline Vieira e Silva</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>vieiraaline97@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>Thales Paulilo Scarpato</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>t204871@dac.unicamp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>Mariana Franciscão Costa</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>franciscao.mariana@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>Ana Carolina Humberto</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>anac.humberto@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>Beatriz Ceschim</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>beatriz.ceschim@unesp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>Luís Gustavo Gomes Lobo</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>gustavo2620@outlook.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>Diliane Harumi Yaguinuma</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>diliane-harumi@hotmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>Ênio Gustavo de Oliveira</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>eniogustavo@estudante.ufscar.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>Aléxia Gonçalves Pereira</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>alexiagp@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>Maria Paula Cruz Schneider</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>mariapaulacruzschneider@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>Jose Alexandre Felizola Diniz Filho</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>diniz@ufg.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>Nicolas Rocamundi</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>nicolasrocamundi@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>Ignacio Soto</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>zorroyerizo@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>Nelio Marco Vincenzo Bizzo</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>bizzo@unifesp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>Andrea Pedrosa Harand</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>andrea.harand@ufpe.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>George Pacheco</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>george.pacheco@ibv.uio.no</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>Waldemir rosa</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>waldemir.rosa@unila.edu.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>Santiago Benitez Vieyra</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>santiagombv@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>Flávio Silva Junqueira de Souza</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>fsouza.ingebi@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>Eduardo Tarazona</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>edutars@icb.ufmg.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>Luiz Eduardo Vieira Del Bem</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>levdelbem@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>Maria Emilia Yamamoto</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>emiliayamamoto@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>Constanza Clara Maubecin</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>cmaubecin@imbiv.unc.edu.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>Marina Strelin</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>marina.strelin85@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>Thomaz Pinotti</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>thomaz.pinoti@sund.ku.dk</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>Ana Lúcia Tourinho</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>amtourinho@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>Kateryna D Makov</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>makovakateryna@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>Mylena Daiana Santander</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>mylena.santander@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>CAMILO HECTOR RAYMAT RATTO</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>camiloraymatratto@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>Kelly Zamudio</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>kelly.zamudio@austin.utexas.edu</t>
         </is>
       </c>
     </row>

--- a/Lists/SBBE24Attendees.xlsx
+++ b/Lists/SBBE24Attendees.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B620"/>
+  <dimension ref="A1:B637"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -372,1068 +372,1068 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Gustavo Frensch</t>
+          <t>Adler Dvorak Barboza</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>gustavo.frensch@univasf.edu.br</t>
+          <t>adlerdvorak@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Liliane Gallindo Dantas</t>
+          <t>Adrian Antonio Garda</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dantas.lg@gmail.com</t>
+          <t>pseudis@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Constância F. J. Ayres</t>
+          <t>Adriana Coletto Morales</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>constancia.ayres@fiocruz.br</t>
+          <t>adriana.morales@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Daniela Santos Pontes</t>
+          <t>Alan Moura de Oliveira</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>danisp_bio@servidor.uepb.edu.br</t>
+          <t>alanoliveira@estudante.ufscar.br</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ana Karoline da Nóbrega Nunes Alves</t>
+          <t>Aldo Mellender de Araújo</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>anakarolinealves1@hotmail.com</t>
+          <t>aldo1806@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Cicera Silvilene Leite Matias</t>
+          <t>Alejandra Bonilla Sánchez</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>silvilenematias@gmail.com</t>
+          <t>alejabonilla.sanchez@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sávio Torres de Farias</t>
+          <t>Alejandra Niño Reyes</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>stfarias@yahoo.com.br</t>
+          <t>alejandra.reyes@edu.pucrs.br</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Enelise Macedo Amado</t>
+          <t>ALENA MAYO INIGUEZ</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>eneliseamado@gmail.com</t>
+          <t>alenainiguez@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Iara Patrícia Ferreira de Sousa</t>
+          <t>Alessandra Pavan Lamarca</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>profiarapatricia@gmail.com</t>
+          <t>pavanlamarca@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Martin Lindsey Christoffersen</t>
+          <t>Alessandra Selbach Schnadelbach</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>martinlc.ufpb@gmail.com</t>
+          <t>alessandra.schnadelbach@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BRENO BEZERRA JUST</t>
+          <t>Alessandro Marques De Oliveira</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>brenojust99@gmail.com</t>
+          <t>biolessandro@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Felipe Torquato</t>
+          <t>Alexander Tamanini Mônico</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>felipe_o_torquato@hotmail.com</t>
+          <t>alexandermonico@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Igor Peres Puertas dos Santos</t>
+          <t>Alexandra Paris Toledo</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>igorperesp@hotmail.com</t>
+          <t>alepariis@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Fabiany Herica Figueiredo da Silva</t>
+          <t>Alexandre do Sacramento Alves Anselmo</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>herica.hyuuga@gmail.com</t>
+          <t>alexandre.sa.anselmo@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Paolla Gabryelle Cavalcante de Souza</t>
+          <t>Alexandre Henrique Pedroso</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>paollasouzac@gmail.com</t>
+          <t>ahenriquepedroso@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Aline Ghilardi</t>
+          <t>Alexandre V. Palaoro</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>aline.ghilardi@ufrn.br</t>
+          <t>alexandre.palaoro@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Adrian Antonio Garda</t>
+          <t>Aléxia Gonçalves Pereira</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pseudis@gmail.com</t>
+          <t>alexiagp@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Egirliane Santos Oliveira</t>
+          <t>Aléxia Vittória Dariva Tormen</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>egirlianeoliveira.two@gmail.com</t>
+          <t>alexia.tormen@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Jonas Conduru Barros Neto</t>
+          <t>Alice Fernanda Lima De Araujo</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>jonas.barrosneto@discente.univasf.edu.br</t>
+          <t>araujoalice629@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Nathália Marques da Silva do Nascimento</t>
+          <t>Aline Almeida Fonseca</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>nmarques2107@gmail.com</t>
+          <t>alineafbio@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Henrique Batalha-Filho</t>
+          <t>Aline Ghilardi</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>henrique.batalha@outlook.com</t>
+          <t>aline.ghilardi@ufrn.br</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Bruno Cajado Almeida Gouveia</t>
+          <t>Aline Pedroso Lorenz</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>cajadobruno96@gmail.com</t>
+          <t>aline.lorenz@ufms.br</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Júlia de Lima Carvalho</t>
+          <t>Aline Santana Santos</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>julialima.carvalho18@gmail.com</t>
+          <t>santanalune@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Beatriz Santos De Brito</t>
+          <t>Aline Vieira e Silva</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>beatrizbiologia2017@gmail.com</t>
+          <t>vieiraaline97@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Fernanda Cavalcanti</t>
+          <t>Allan Leal</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>fernanda.porifera@gmail.com</t>
+          <t>lealallan05@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Alessandra Selbach Schnadelbach</t>
+          <t>Amanda Beatriz Loureiro</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>alessandra.schnadelbach@gmail.com</t>
+          <t>amandabeatrizloureiro@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Emilio de Lanna Neto</t>
+          <t>Amanda Bueno da Silva</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>emiliolanna@gmail.com</t>
+          <t>amanda.bueno-silva@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Anieli Guirro Pereira</t>
+          <t>Amanda Freitas Haase</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>anieligpereira@gmail.com</t>
+          <t>amandafreitashaase@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Aline Santana Santos</t>
+          <t>Amanda Kimie Tsuruta</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>santanalune@gmail.com</t>
+          <t>amandatsuruta@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Ricardo Marques da Silva</t>
+          <t>Amanda Lichtscheidl Graciadio</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>rcdmarquess@gmail.com</t>
+          <t>a265805@dac.unicamp.br</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>katarine nogueira norbertino</t>
+          <t>Amanda Varago</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>katarinenn@outlook.com</t>
+          <t>amandavarago021@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Laysla Bomfim Adam</t>
+          <t>AMMIR YACOUB HELOU</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>laysla.adam@gmail.com</t>
+          <t>ammir@usp.br</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Lucas Henrique Jerônimo Feitoza</t>
+          <t>Ana Beatriz Viergbiski Schwitzner</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>luc.jer21@gmail.com</t>
+          <t>anabeatrizviergbiskischwitzner@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>JOAQUIM MANOEL DA SILVA</t>
+          <t>Ana Carolina Martins Pereira</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>joaquimmanoel@unemat.br</t>
+          <t>anamartinsper.bio@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Daiana Cardoso Silva</t>
+          <t>Ana Carolina Humberto</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>daiana.cardoso@unemat.br</t>
+          <t>anac.humberto@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Karina de Cassia Faria</t>
+          <t>Ana Carolina Vilas Boas</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>karinafaria@unemat.br</t>
+          <t>ananinanina@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Bruna Elizabeth Silva de Pontes</t>
+          <t>ANA CECILIA HOLLER DEL PRETTE</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>brunaespontes@gmail.com</t>
+          <t>anacecilia.holler@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Beatriz Batista Innocente</t>
+          <t>Ana Carolina Martins Junqueira</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>batista.innocente@unemat.br</t>
+          <t>anacmj@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Caio Lucas Barroso Nascimento Teixeira de Souza</t>
+          <t>Ana Karoline da Nóbrega Nunes Alves</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>caiobarroso212@gmail.com</t>
+          <t>anakarolinealves1@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Jeferson Vidart Ramos</t>
+          <t>Ana Laura Wiese</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>jeff.bioinfo@gmail.com</t>
+          <t>aninhawfernandez@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Evandro Douglas Moore de Lucena</t>
+          <t>Ana Claudia Lessinger</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>douglas.moore@unesp.br</t>
+          <t>lessinger@ufscar.br</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Leandro Batista da Cunha Menezes</t>
+          <t>Ana Malaghini de Abreu</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>leandrobc.menezes@gmail.com</t>
+          <t>anamalaghini9gold@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sarah Waldschmidt da Cunha</t>
+          <t>Ana Luisa Endler de Oliveira</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>sarah.w.c2@gmail.com</t>
+          <t>oliveira.ana245@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Kariny Penha Suarez</t>
+          <t>Ana Paula Becker</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>karinypsuarez@gmail.com</t>
+          <t>ana.becker023@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Diego José Santana Silva</t>
+          <t>Ana Paula Lula Costa</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>jose.santana@ufms.br</t>
+          <t>anapaulalula@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Matheus Sthanley Ferreira Firme</t>
+          <t>Ana Paula Moraes</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>fmatheuspba@gmail.com</t>
+          <t>ap.moraes@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Guilherme Duarte</t>
+          <t>Ana Julia Possamai de Oliveira</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>guilhermeduartepr@gmail.com</t>
+          <t>anaju.possamai@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Leandro de Avelar Oliveira</t>
+          <t>Ana Sophia Reami Dallanese</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>leandro.avelar.bio@gmail.com</t>
+          <t>anasophiard@usp.br</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Gecele Matos Paggi</t>
+          <t>Ana Lúcia Tourinho</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>gecele.paggi@ufms.br</t>
+          <t>amtourinho@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Fernando Munir Lima Calarge</t>
+          <t>Analice Gabrielle Marquezin Gomes</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>fernando.calarge@gmail.com</t>
+          <t>analice.gabrielle@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>João Gabriel Rocci Freitas Leal</t>
+          <t>Ananda D'Elia</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>jgabriel.rfl@gmail.com</t>
+          <t>anandadelia@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Vitória Infran De Morais</t>
+          <t>Andre Carreira Bruinjé</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>vitoria.infran@ufms.br</t>
+          <t>abruinje@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Lethícia Stéfany Barbosa Dias</t>
+          <t>André Luiz Fabiani Mansur Novais</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>lethicia_dias@ufms.br</t>
+          <t>andrefabiani@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Aline Pedroso Lorenz</t>
+          <t>André Luís da Silva Zani</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>aline.lorenz@ufms.br</t>
+          <t>zani.andre@yahoo.com.br</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Akyel Kiffiner de França Mendonça</t>
+          <t>André Guilherme Madeira</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>a.kiffiner@gmail.com</t>
+          <t>andre.madeira@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Amanda Varago</t>
+          <t>André Yves</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>amandavarago021@gmail.com</t>
+          <t>andreyves7@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sarah Mângia Barros</t>
+          <t>Andrea Rita Marrero</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>sarahmangia@yahoo.com.br</t>
+          <t>andrea.marrero@ufsc.br</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Esthefany Ovando De Mello</t>
+          <t>Andrea Pedrosa Harand</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>esthefany0ovando@gmail.com</t>
+          <t>andrea.harand@ufpe.br</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Bruna Da Rocha Maia</t>
+          <t>ANDREIA CARINA TURCHETTO ZOLET</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Brunadarochamaia@gmail.com</t>
+          <t>aturchetto@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Jamille Vitoria Portilho Santos</t>
+          <t>Andressa Emanuele Johann</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>jamille.portilho@ufms.br</t>
+          <t>johann_andressa@ufms.br</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Andressa Emanuele Johann</t>
+          <t>Angela Ferreira Portella</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>johann_andressa@ufms.br</t>
+          <t>angela_portella@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Roullien Henrique Martins</t>
+          <t>Angele dos Reis Martins</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>roullien.silva@ufms.br</t>
+          <t>angelemartins@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Larissa Bortoli de Souza</t>
+          <t>Anglia Lavinia Lopes Moreira</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>bortoli.larissa16@gmail.com</t>
+          <t>anglia.lopes@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Ariely Loyane Garcia Soares</t>
+          <t>Anieli Guirro Pereira</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>soares.loyane@gmail.com</t>
+          <t>anieligpereira@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Isabela Caroline Moura dos Santos</t>
+          <t>Anna Victoria Silvério Righetto Mauad</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>bela_carolinem@hotmail.com</t>
+          <t>annavmauad@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Nilda Maria Diniz Rojas</t>
+          <t>Antonio Millas Silva Pinto</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>niddiniz@unb.br</t>
+          <t>millaspinto@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Rosana Tidon</t>
+          <t>Antonio Felipe Pereira dos Santos</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>rotidon@gmail.com</t>
+          <t>antonio.fps@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Thiago Jose de Carvalho Andre</t>
+          <t>Any Heloisa da Silva Tomé</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>thiago.andre@unb.br</t>
+          <t>any.tome1@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Patricia Sanae Sujii</t>
+          <t>Aparecido Soares da Silva Júnior</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>sujiips@gmail.com</t>
+          <t>ra124357@uem.br</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Renato Caparroz</t>
+          <t>Ariely Loyane Garcia Soares</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>renatocz@yahoo.com.br</t>
+          <t>soares.loyane@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Frederico Hillesheim Horst</t>
+          <t>Arquimedes Paixão de Santana Filho</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>fredhorst7@gmail.com</t>
+          <t>santana@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Pedro Augusto Cardoso Amaral</t>
+          <t>Augusto Mebs Schlieck</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>pedro20amaral@gmail.com</t>
+          <t>gutoschlieck@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Fernando Pacheco Rodrigues</t>
+          <t>José Fernando Ruggiero Bachega</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>fprodrigues@unb.br</t>
+          <t>ferbachega@ufcspa.edu.br</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Angele dos Reis Martins</t>
+          <t>Bárbara Santos Teixeira Costa</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>angelemartins@gmail.com</t>
+          <t>barbarabio@usp.br</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Isabella Fagundes Rosa Limão</t>
+          <t>Beatriz Ceschim</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>isaarlimao@gmail.com</t>
+          <t>beatriz.ceschim@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Matheus Lima de Araujo</t>
+          <t>Beatriz Batista Innocente</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>matheusaraujolima@live.com</t>
+          <t>batista.innocente@unemat.br</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>João Carlos Nabout</t>
+          <t>Beatriz Santos De Brito</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>jcnabout@gmail.com</t>
+          <t>beatrizbiologia2017@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Thannya Nascimento Soares</t>
+          <t>Beatriz Helena Macari Daros</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>tnsoares@ufg.br</t>
+          <t>beatrizdarosbio@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Marco Aurélio Mendes Elias</t>
+          <t>Beatriz Christine De Marco Pereira</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>marcoelias.ecoevo@gmail.com</t>
+          <t>b257010@dac.unicamp.br</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Felipe Walter Pereira</t>
+          <t>Paula Beatriz Zapatoski Giachini</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>felip3walter@gmail.com</t>
+          <t>paulabia1218@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Inês Soares de Menezes</t>
+          <t>Beatriz Mello Carvalho</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>iassismenezes@gmail.com</t>
+          <t>biaumello@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Martim Braulio Peres Silva</t>
+          <t>ISABEL GOMES VIEIRA</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>m_braulio16@hotmail.com</t>
+          <t>belgovieira@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ISABEL GOMES VIEIRA</t>
+          <t>Brenda Katiene Carvalho Faustino</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>belgovieira@gmail.com</t>
+          <t>brendakacarvalho@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Monica Laner Blauth</t>
+          <t>BRENO BEZERRA JUST</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>blauth.monica@gmail.com</t>
+          <t>brenojust99@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Marco Silva Gottschalk</t>
+          <t>Breno Michelon Seixas</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>marco.gottschalk@yahoo.com</t>
+          <t>breno.mseixas@usp.br</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Juliana Cordeiro</t>
+          <t>Bruna Boizonave Andriola</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>jlncdr@gmail.com</t>
+          <t>bruna.andriola@edu.pucrs.br</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Thaynara da Silva Lopes Lima</t>
+          <t>Bruna Buss</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>thaynaralima_tsll@hotmail.com</t>
+          <t>brunacarolinebuss@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Juliene Lopes Costa</t>
+          <t>Bruna Da Rocha Maia</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>julopescosta.23@gmail.com</t>
+          <t>Brunadarochamaia@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Aldo Mellender de Araújo</t>
+          <t>Bruna Guarabyra Moreira Godinho da Silva</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>aldo1806@gmail.com</t>
+          <t>bruna_guarabyra@hotmail.com</t>
         </is>
       </c>
     </row>
@@ -1452,5208 +1452,5208 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Luiza Flores Gasparetto</t>
+          <t>Bruna Elizabeth Silva de Pontes</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>luiza.gasparetto@gmail.com</t>
+          <t>brunaespontes@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Marcelo Henrique Schwade</t>
+          <t>Bruno Cajado Almeida Gouveia</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>marceloh.schwade@gmail.com</t>
+          <t>cajadobruno96@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Mateus sousa de almeida</t>
+          <t>Bruno Clarkson</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>mateus_btec@hotmail.com</t>
+          <t>brclarkson@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Maria Eduarda Gonçalves Lacerda</t>
+          <t>Bruno Celso Feltrin Genevcius</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>maed.lacerda@gmail.com</t>
+          <t>bgenevcius@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Pâmela Giordani Vielmo</t>
+          <t>Bruno Loreto de Aragão Pedroso</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>pamelavielmo@hotmail.com</t>
+          <t>bruno.loreto.aragao@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Letícia Monteiro</t>
+          <t>Bruno Henrique Mioto Stabile</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>leticiamonteiro.bio@gmail.com</t>
+          <t>brunomioto97@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Diogo Reis de Oliveira</t>
+          <t>Bruno Torquato</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>diogo.reisoliv@gmail.com</t>
+          <t>brunotorquato100@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Luana Sousa Soares</t>
+          <t>Caio Lucas Barroso Nascimento Teixeira de Souza</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>lusousa.soares11@gmail.com</t>
+          <t>caiobarroso212@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Maikel Varal</t>
+          <t>CAMILO HECTOR RAYMAT RATTO</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>maikelvaral@yahoo.com.br</t>
+          <t>camiloraymatratto@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>André Luís da Silva Zani</t>
+          <t>Carla Adriane Royer</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>zani.andre@yahoo.com.br</t>
+          <t>carladriane@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ANDREIA CARINA TURCHETTO ZOLET</t>
+          <t>Carla Elizabeth De Oliveira Ferreira</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>aturchetto@gmail.com</t>
+          <t>carla_cae@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Matías Maximiliano Malleret</t>
+          <t>Carlos Cristiano Simões Ferreira e Penha</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>malleret2@gmail.com</t>
+          <t>cristianosf@usp.br</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Nelson J.R. Fagundes</t>
+          <t>Carlos Eduardo Guerra Schrago</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>nelson.fagundes@ufrgs.br</t>
+          <t>carlos.schrago@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Jayme Massim Marques</t>
+          <t>Carlos Eduardo Guerra Schrago</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>massim.jayme@gmail.com</t>
+          <t>guerra@biologia.ufrj.br</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>José Fernando Ruggiero Bachega</t>
+          <t>Carolina Martins da Silva</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ferbachega@ufcspa.edu.br</t>
+          <t>carolina.mrtinssilva@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Rômulo da Rosa Silveira</t>
+          <t>Carolina Prauchner Silva</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>romulor.silveira@gmail.com</t>
+          <t>carol_prauchner@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Cássio Hervé</t>
+          <t>Caroline do Nascimento Ferreira</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>cassioherve@gmail.com</t>
+          <t>carolinenascferreira@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Alejandra Niño Reyes</t>
+          <t>Caroline Scarabelin</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>alejandra.reyes@edu.pucrs.br</t>
+          <t>carolinescarabelin@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>João Pedro Carmo Filgueiras</t>
+          <t>Cássio Hervé</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>jcarmofilgueiras@gmail.com</t>
+          <t>cassioherve@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Lorena Sanches Vieira</t>
+          <t>Clarice Assumpção da Costa</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>lolly.vieirasa@gmail.com</t>
+          <t>assumpcao.clarice@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Manuel Adrian Riveros Escalona</t>
+          <t>Clarielly Volfe</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>manuelriveros72@hotmail.com</t>
+          <t>clarywolf75@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Paulyana dos Santos Moura</t>
+          <t>CLARISSA COIMBRA CANEDO</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>paulyanamoura@gmail.com</t>
+          <t>clarissa.canedo@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Gabriele Zenato Lazzari</t>
+          <t>Clarisse Palma da Silva</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>gabriele.lazzari@edu.pucrs.br</t>
+          <t>cpalma@unicamp.br</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Natália Skueresky</t>
+          <t>Claudia Augusta de Moraes Russo</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>natiisoares@hotmail.com</t>
+          <t>claurusso@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Yuri Belisario Mora Yépez</t>
+          <t>Claudio Jose Barros De Carvalho</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Yuribym@gmail.com</t>
+          <t>cjbcarva@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Bruna Boizonave Andriola</t>
+          <t>Constância F. J. Ayres</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>bruna.andriola@edu.pucrs.br</t>
+          <t>constancia.ayres@fiocruz.br</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Vera Lucia da Silva Valente Gaiesky</t>
+          <t>Constanza Clara Maubecin</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>vera.gaiesky@ufrgs.br</t>
+          <t>cmaubecin@imbiv.unc.edu.ar</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Carolina Prauchner Silva</t>
+          <t>Cristina Yumi Miyaki</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>carol_prauchner@hotmail.com</t>
+          <t>cymiyaki@ib.usp.br</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>KAREN ESTEFANIA VALENCIA AGUILAR</t>
+          <t>Daiana Cardoso Silva</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>karenesva26@gmail.com</t>
+          <t>daiana.cardoso@unemat.br</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Karoline Silva Zenato</t>
+          <t>Dalton de Souza Amorim</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>karoline.szen@gmail.com</t>
+          <t>dsamorim@usp.br</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Juliana Cristine Fontana</t>
+          <t>Daniel Meneguello Limeira</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>julianacfontana@gmail.com</t>
+          <t>daniel.limeira@ifpr.edu.br</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>LAERCIO MOREIRA CARDOSO JUNIOR</t>
+          <t>Carlos Daniel Rivadeneira Montenegro</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>laerciop53@gmail.com</t>
+          <t>rivadeneiracd@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Marcia Holsbach Beltrame</t>
+          <t>Daniela Cristina da Silva</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>marcia.beltrame@ufrgs.br</t>
+          <t>daniela333456@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Lucca Azevedo Fanti</t>
+          <t>Daniela Santos Pontes</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>luccafanti2002@gmail.com</t>
+          <t>danisp_bio@servidor.uepb.edu.br</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Alejandra Bonilla Sánchez</t>
+          <t>Danillo Cristian Feitosa Dos Santos</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>alejabonilla.sanchez@gmail.com</t>
+          <t>danilocrisfs@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Estêvão  De Lima Benhard</t>
+          <t>Danillo Pinhal</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>estevao.benhard@acad.ufsm.br</t>
+          <t>danillo.pinhal@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Lorenzo Costa Weigert Ferreira</t>
+          <t>Danilo Camargo Fernandes</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>lorenzocosta195@gmail.com</t>
+          <t>danilo.fernandes@usp.br</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Maria Paula Sacol</t>
+          <t>Davi Barbalho Cavalcanti</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>mariapaulasacol@gmail.com</t>
+          <t>barbalhodavi123@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Laura Wobeto Burtet</t>
+          <t>Davi Marques De Oliveira De Sá</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>laura.burtet@acad.ufsm.br</t>
+          <t>ivadmarques48@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Rafaella Camargo Dutra</t>
+          <t>Davi Monteiro Nunes</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>rafaella.dutra@acad.ufsm.br</t>
+          <t>davimontnunes@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Lorenzo Driessen Cigognini</t>
+          <t>David Duarte Franca</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>lorenzocigognini@gmail.com</t>
+          <t>david.bio.prof@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>isadora cord</t>
+          <t>Deborah Cristina Schoemberger</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>cord.isadora@gmail.com</t>
+          <t>dehschoem@outlook.com</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Suzana Alcantara</t>
+          <t>Dener Soares Da Costa Junior</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>suzana.alcantara@ufsc.br</t>
+          <t>denerdacosta12@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Anglia Lavinia Lopes Moreira</t>
+          <t>Denis Calandriello Calio</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>anglia.lopes@gmail.com</t>
+          <t>denis.calan@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Luiza Kittel Chiká</t>
+          <t>Desirrê Alexia Lourenço Petters Vandresen</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>luizakittel@gmail.com</t>
+          <t>desirre.petters@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Antonio Felipe Pereira dos Santos</t>
+          <t>Diego Homem de Carvalho Ribeiro Gomes</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>antonio.fps@hotmail.com</t>
+          <t>diegohcrgomes@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Leonardo de Bortoli</t>
+          <t>Diego José Santana Silva</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>leonardodebo@gmail.com</t>
+          <t>jose.santana@ufms.br</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Giovanna Hernandez Garcia</t>
+          <t>Diogo Melo</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>giio.ufsc@gmail.com</t>
+          <t>diogro@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Paula Beatriz Zapatoski Giachini</t>
+          <t>Diogo Reis de Oliveira</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>paulabia1218@gmail.com</t>
+          <t>diogo.reisoliv@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Edgar De Paula Guerreiro</t>
+          <t>Evandro Douglas Moore de Lucena</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>edgar.guerreiro@tutanota.com</t>
+          <t>douglas.moore@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Norma Machado da Silva</t>
+          <t>Douglas Rocha</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>norma.machado@ufsc.br</t>
+          <t>douglasrocha2406@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Gabriéli Luiza Steffens Knapp</t>
+          <t>Marco Aurélio Mendes Elias</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>gabrieli_steffens-pzo@hotmail.com</t>
+          <t>marcoelias.ecoevo@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Ana Luisa Endler de Oliveira</t>
+          <t>Marco A. C. Varella</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>oliveira.ana245@gmail.com</t>
+          <t>macvarella@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Jéssica Sueli dos Santos Batista</t>
+          <t>Lina Maria Ameida Silva</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>jessica.ssb@grad.ufsc.br</t>
+          <t>linamas@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Andrea Rita Marrero</t>
+          <t>Mara Cristina de Almeida Matiello</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>andrea.marrero@ufsc.br</t>
+          <t>almeidamara@uol.com.br</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Any Heloisa da Silva Tomé</t>
+          <t>DRIELLI CANAL</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>any.tome1@hotmail.com</t>
+          <t>drielliufes@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Manuella Cardoso Teixeira</t>
+          <t>Edgar De Paula Guerreiro</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>manuella.mhc2@gmail.com</t>
+          <t>edgar.guerreiro@tutanota.com</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Letícia Nascimento Mathias</t>
+          <t>EDILSON DIVINO DE ARAUJO</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>leticiamathiasalt@gmail.com</t>
+          <t>edaraujoufs@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Augusto Mebs Schlieck</t>
+          <t>Eduarda Kjekshus Mansur Haddad</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>gutoschlieck@gmail.com</t>
+          <t>eduardakmh@usp.br</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Ana Laura Wiese</t>
+          <t>Eduardo Koerich Nery</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>aninhawfernandez@hotmail.com</t>
+          <t>eduardo.k.nery@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Natalie Motelewski Trippia</t>
+          <t>Eduardo Tarazona</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>nataliemotelewski@gmail.com</t>
+          <t>edutars@icb.ufmg.br</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Wesley Gomes Bojarski</t>
+          <t>Egirliane Santos Oliveira</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>wesleybojarski@gmail.com</t>
+          <t>egirlianeoliveira.two@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Júnior Nadaline</t>
+          <t>Eliana Maria Beluzzo Dessen</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>jr.nadaline@gmail.com</t>
+          <t>embdesse@ib.usp.br</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Fernanda S. Caron</t>
+          <t>Elisa de Castro Wille Nonino</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>fernandadesouzacaron@gmail.com</t>
+          <t>elisanonino00@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Julio Cesar de Moura-Leite</t>
+          <t>Ellen Renata Canesso</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>jmouraleite@gmail.com</t>
+          <t>ellenr.canesso@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>João Vitor Mello Hortega</t>
+          <t>Emilio de Lanna Neto</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>joaovitormelloh@gmail.com</t>
+          <t>emiliolanna@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Bruno Torquato</t>
+          <t>Enelise Macedo Amado</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>brunotorquato100@gmail.com</t>
+          <t>eneliseamado@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>LUCAS KATSUMI ROCHA HINOSHITA</t>
+          <t>Ênio Gustavo de Oliveira</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>katsumilucas@gmail.com</t>
+          <t>eniogustavo@estudante.ufscar.br</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Ricardo Lehtonen Rodrigues Souza</t>
+          <t>Eric de Camargo Smidt</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>lehtonen@ufpr.br</t>
+          <t>ecsmidt@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Mayara Pereira Neves</t>
+          <t>Erik Henrique de Lacerda Choueri</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>mayara-nevesbio@hotmail.com</t>
+          <t>chouerik@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Eric de Camargo Smidt</t>
+          <t>Esteban Diego Koch</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ecsmidt@gmail.com</t>
+          <t>edkoch17@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Juliana Rosa Matias Ciccheto</t>
+          <t>Estêvão  De Lima Benhard</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>cicchetoju@gmail.com</t>
+          <t>estevao.benhard@acad.ufsm.br</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Henrique Luiz Rieger</t>
+          <t>Esthefany Ovando De Mello</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>henriquerieger2001@gmail.com</t>
+          <t>esthefany0ovando@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Maria Vitoria Lima da Silva</t>
+          <t>Fabiano Stefanello</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>mariavitoriadelima020@gmail.com</t>
+          <t>stefanellof@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>João Lucas Burginski Rosa</t>
+          <t>Fabíola Da Silva Costa</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>jlucasburginski@gmail.com</t>
+          <t>fabiolasilvacosta1@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Carla Elizabeth De Oliveira Ferreira</t>
+          <t>Fabricio Santos</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>carla_cae@hotmail.com</t>
+          <t>fabricio-santos@ufmg.br</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>PAULA CAROLINA FERREIRA</t>
+          <t>Fabrício Rodrigues dos Santos</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>paulacarolina2712@gmail.com</t>
+          <t>fsantos.ufmg@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Urias Gabriel Leal Oliveira</t>
+          <t>Fabricius Maia Chaves Bicalho Domingos</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>uriasleal07@gmail.com</t>
+          <t>fabricius.domingos@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Ana Julia Possamai de Oliveira</t>
+          <t>Fabricius Domingos</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>anaju.possamai@gmail.com</t>
+          <t>fabriciusmaia@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>André Luiz Fabiani Mansur Novais</t>
+          <t>Felipe Medeiros Ceccagno</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>andrefabiani@ufpr.br</t>
+          <t>felipe.ceccagno@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Rafael de Oliveira Fratoni</t>
+          <t>Felipe Andrade</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>rafa.fratoni@gmail.com</t>
+          <t>felipe_andrade@ymail.com</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Luiz Fernando Ribeiro</t>
+          <t>Felipe Arian de Andrade Araújo</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>luxfernando@gmail.com</t>
+          <t>araujo.felipearian@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Pedro Vinicius Macedo</t>
+          <t>Felipe Camurugi Almeida Guimarães</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>pedromacedro@gmail.com</t>
+          <t>camurugif@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Vitória Ibane</t>
+          <t>Felipe Liss Zchonski</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>viibane@outlook.com</t>
+          <t>felipe.liss04@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Jhonathan de Oliveira Pacheco</t>
+          <t>Felipe Messias Leandro</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>jhondeoli@gmail.com</t>
+          <t>felipe.messias@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Deborah Cristina Schoemberger</t>
+          <t>Felipe Simionato Salles</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>dehschoem@outlook.com</t>
+          <t>felipe.salles@usp.br</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Nicole Isabelle Stocco</t>
+          <t>Felipe Torquato</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>nicole.ufpr@gmail.com</t>
+          <t>felipe_o_torquato@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Patricia Savio de Araujo-Souza</t>
+          <t>Felipe Walter Pereira</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>psas@ufpr.br</t>
+          <t>felip3walter@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Letícia Caroline Chaves</t>
+          <t>Fernanda Cavalcanti</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>leticia.leticiacchaves@gmail.com</t>
+          <t>fernanda.porifera@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Giovanna Teixeira Tuchinski</t>
+          <t>Fernanda Freitas de Oliveira</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>teixeiratuchinski@gmail.com</t>
+          <t>fernandaoliveira@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Vitória Sávio Buchi</t>
+          <t>Fernanda Mayrink</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>viccabuchi@gmail.com</t>
+          <t>fernanda.m.campos@ufv.br</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Elisa de Castro Wille Nonino</t>
+          <t>Fernanda Souza de Oliveira</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>elisanonino00@gmail.com</t>
+          <t>fersouzaoliveira@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Laura Laino</t>
+          <t>Fernanda S. Caron</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>laura.costa231@gmail.com</t>
+          <t>fernandadesouzacaron@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>LUCIANE VIATER TURECK</t>
+          <t>Fernanda Biscaino Saluceste</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>luviater@gmail.com</t>
+          <t>fernanda.saluceste@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Juliane Xavier</t>
+          <t>Fernanda de Pinho Werneck</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>julianexavier57361@gmail.com</t>
+          <t>fewerneck@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Raiana Santiago da Costa</t>
+          <t>Fernanda Witt Cidade</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>val_raiana@hotmail.com</t>
+          <t>fernandacidade@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Rodrigo Barbosa Gonçalves</t>
+          <t>Fernando Munir Lima Calarge</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>goncalvesrb@gmail.com</t>
+          <t>fernando.calarge@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Vic Sant'Ana dos Santos</t>
+          <t>Fernando Pacheco Rodrigues</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>rachel.santana2302@gmail.com</t>
+          <t>fprodrigues@unb.br</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>VILMAR FERNANDO BUENO JUNIOR</t>
+          <t>Fernando Araujo Perini</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>vilmarbueno_@hotmail.com</t>
+          <t>faperini@ufmg.br</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Iris Hass</t>
+          <t>Fernando Sotero de Lara</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>irishassm@gmail.com</t>
+          <t>f236823@dac.unicamp.br</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Viviane da Silva-Pereira</t>
+          <t>FERNANDO HENRIQUE SANTOS DE SOUZA</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>visilvapereira@gmail.com</t>
+          <t>Fernando.souza@estudante.ufscar.br</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Alexandre V. Palaoro</t>
+          <t>Fernando Ursen Dias de Souza</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>alexandre.palaoro@gmail.com</t>
+          <t>fernandoursendias@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Ana Beatriz Viergbiski Schwitzner</t>
+          <t>Flávio Silva Junqueira de Souza</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>anabeatrizviergbiskischwitzner@gmail.com</t>
+          <t>fsouza.ingebi@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Antonio Millas Silva Pinto</t>
+          <t>Francisco Borges</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>millaspinto@gmail.com</t>
+          <t>fa.borges@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Izadora Moraes da Silva</t>
+          <t>Franciane Cedrola Vale</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>moraesiza12@gmail.com</t>
+          <t>francedrola@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Thais Neves</t>
+          <t>Franciele Fernanda Kerniske</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>thaisneves2366@gmail.com</t>
+          <t>francielekerniske17@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Lupe Alle</t>
+          <t>Francisco de Menezes Cavalcante Sassi</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>lupealle@gmail.com</t>
+          <t>francisco.sassi@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Pablo Fernandes</t>
+          <t>Carlos Frederico Deluqui Gurgel</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>pablofernandeux@gmail.com</t>
+          <t>f_gurgel@yahoo.com</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Sofia Tozzo Bueno De Lima</t>
+          <t>Frederico de Alcantara Menezes</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>sofiatozzobueno@gmail.com</t>
+          <t>fred25alcantara@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Marcela Naomi Okabayashi da Silva</t>
+          <t>Frederico Felizardo Barbosa</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>marcela.naomi@ufpr.br</t>
+          <t>fredericofb012@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Gabriel Ribeiro Martins</t>
+          <t>Frederico Hillesheim Horst</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>bil.martins1015@gmail.com</t>
+          <t>fredhorst7@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Luddy Searom Carias de Moraes</t>
+          <t>Prof. Dr. Frederico Henning</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>luddysearom@gmail.com</t>
+          <t>fhenning@acd.ufrj.br</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>sophia saletti</t>
+          <t>Gabriela Procópio Camacho</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>sophia.saletti@hotmail.com</t>
+          <t>gpcamacho@usp.br</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Valéria Ribeiro Da Silva</t>
+          <t>Gabriel Amaral Bonani Rocha</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>valeriaribeirosilva1@outlook.com</t>
+          <t>rochagabriel21@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>João Mateus Zepson Capucho</t>
+          <t>Gabriel Banov Evora</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>joao.capucho@ufpr.br</t>
+          <t>gbanovevora@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Anna Victoria Silvério Righetto Mauad</t>
+          <t>Gabriel Neves Cardoso Coelho</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>annavmauad@gmail.com</t>
+          <t>gab235coelho@usp.br</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Maria Julia Michelini de Almeida</t>
+          <t>Gabriel Costa Santos</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>majumichelini@gmail.com</t>
+          <t>gabrielscosta90@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Claudio Jose Barros De Carvalho</t>
+          <t>Gabriel Santos Garcia</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>cjbcarva@ufpr.br</t>
+          <t>gasagarcia@usp.br</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Desirrê Alexia Lourenço Petters Vandresen</t>
+          <t>Participante 77837</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>desirre.petters@gmail.com</t>
+          <t>gabrielmarras@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Marcos Cesar Pochynski Galvão Junior</t>
+          <t>Gabriel Ribeiro Martins</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>mrc.marcoscesar@gmail.com</t>
+          <t>bil.martins1015@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Marcos Barbeitos</t>
+          <t>Gabriel Nakamura de Souza</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>msbarbeitos@gmail.com</t>
+          <t>gabriel.nakamura.souza@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Michele Bertoncello</t>
+          <t>Gabriel Gonçalves da Silva</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>michelebertoncello146@gmail.com</t>
+          <t>g249321@dac.unicamp.br</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Nicole Sofia Cruz</t>
+          <t>Gabriel Staichak</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>nicolesouza@ufpr.br</t>
+          <t>gstaichak@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Maria Clara Itoh Nascimento</t>
+          <t>Gabriel Tofanelo Vanin</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>mcitohbio@gmail.com</t>
+          <t>gabriel.vanin@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Fabricius Maia Chaves Bicalho Domingos</t>
+          <t>Gabriela Ferreira Mota</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>fabricius.domingos@ufpr.br</t>
+          <t>motafgabriela@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Guilherme Aparecido Rosa</t>
+          <t>Gabriela Mussalem Haddad</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>guilhermerosa49@yahoo.com.br</t>
+          <t>gabimh3181@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Thamyris Weber Pereira</t>
+          <t>Gabriela Procopio Leite</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>thamyweber@gmail.com</t>
+          <t>gabrielaprocopio3@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Alexandre Henrique Pedroso</t>
+          <t>Gabriela Cassia Zanon Reinas</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>ahenriquepedroso@gmail.com</t>
+          <t>gz.reinas@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Fernanda Witt Cidade</t>
+          <t>Gabriele da Silva Gouveia Oliveira</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>fernandacidade@gmail.com</t>
+          <t>gabriele.oliveira611@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Mariana Guolo Moschen</t>
+          <t>Gabriel Henrique Nunes Rodrigues</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>marianagmoschen17@gmail.com</t>
+          <t>gabhengel@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Leonardo Ricardo Nunes</t>
+          <t>Gabriele Zenato Lazzari</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>leonardoricardo518@gmail.com</t>
+          <t>gabriele.lazzari@edu.pucrs.br</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Henrique José Schipanski</t>
+          <t>Gabriéli Luiza Steffens Knapp</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>henrique.schipanski@gmail.com</t>
+          <t>gabrieli_steffens-pzo@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Maria Luiza Petzl-Erler</t>
+          <t>Gabriella Moreira</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>mlperler@gmail.com</t>
+          <t>gabriellamoreira042000@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Matheus Igor Fontana</t>
+          <t>Ana Gabrielle Batista de Melo</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>matheu-igor@hotmail.com</t>
+          <t>gabriellebmelo@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Bruna Buss</t>
+          <t>Gabrielle Silva Neves</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>brunacarolinebuss@gmail.com</t>
+          <t>gabineves612@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Talita Helen Bombardelli Gomig</t>
+          <t>Gecele Matos Paggi</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>talitahbg@ufpr.br</t>
+          <t>gecele.paggi@ufms.br</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Kaleb Pretto Gatto</t>
+          <t>Geize Aparecida Deon</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>kaleb.gatto@gmail.com</t>
+          <t>geizedeon@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Amanda Beatriz Loureiro</t>
+          <t>George Pacheco</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>amandabeatrizloureiro@gmail.com</t>
+          <t>george.pacheco@ibv.uio.no</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Arquimedes Paixão de Santana Filho</t>
+          <t>Georgette Paola Ancajima Alcalde</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>santana@ufpr.br</t>
+          <t>paolancajima@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Leonardo Tyskowski Felix</t>
+          <t>Gilmax Gonçalves Ferreira</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>leotyszko@gmail.com</t>
+          <t>gillmax88@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Pedro Natale Cavezzale Dias</t>
+          <t>Giovana Lima da Rocha</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>pnatalecd@gmail.com</t>
+          <t>giovanalima2001@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Fernanda Freitas de Oliveira</t>
+          <t>giovana sequinel correa</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>fernandaoliveira@ufpr.br</t>
+          <t>giovanasequinel@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Matheus Maciel Alcantara Salles</t>
+          <t>Giovanna Hernandez Garcia</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>matheusmaciel.salles@gmail.com</t>
+          <t>giio.ufsc@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Aline Almeida Fonseca</t>
+          <t>Giovanna Teixeira Tuchinski</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>alineafbio@gmail.com</t>
+          <t>teixeiratuchinski@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Nathan Herberto Ribas Vellasques</t>
+          <t>Gleyce Medeiros da Silva</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>nathan.vellasques@ufpr.br</t>
+          <t>gleycemedeiros96@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Léo Ramalho</t>
+          <t>Graziela Santos Andrade</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>leoramalhomargato@gmail.com</t>
+          <t>grazielaandrade.bio@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Felipe Liss Zchonski</t>
+          <t>Guilherme Duarte</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>felipe.liss04@gmail.com</t>
+          <t>guilhermeduartepr@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Raquel De Jesus Selestrino</t>
+          <t>Guilherme Mota Souza</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>raqueljselestrino@gmail.com</t>
+          <t>guilherme.mota@estudante.ufscar.br</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Gabriella Moreira</t>
+          <t>Guilherme Aparecido Rosa</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>gabriellamoreira042000@gmail.com</t>
+          <t>guilhermerosa49@yahoo.com.br</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Douglas Rocha</t>
+          <t>Luiz Gustavo Gutierrez Ferreira</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>douglasrocha2406@gmail.com</t>
+          <t>luiz318guti@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Luiz Gabriel do Prado Ludwig</t>
+          <t>Gustavo Ballen</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>lgpludwig@gmail.com</t>
+          <t>gustavo.a.ballen@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Isaque Ferreira Mazzucatto Esteves</t>
+          <t>Gustavo da Silva Ambrosio</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>isaque.mazzucatto@gmail.com</t>
+          <t>gustavo.ambrosio@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Pamela Estyse Campos Bini</t>
+          <t>Gustavo Frensch</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>pamelacamposbini@gmail.com</t>
+          <t>gustavo.frensch@univasf.edu.br</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Sabrina Marchioro</t>
+          <t>Luís Gustavo da Conceição Galego</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>sahmarchioro@gmail.com</t>
+          <t>luis.galego@uftm.edu.br</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Suellen Rodrigues Calixto</t>
+          <t>Luís Gustavo Gomes Lobo</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>sucalixto95@gmail.com</t>
+          <t>gustavo2620@outlook.com</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Luana Vieira Carlin dos Santos</t>
+          <t>Gustavo Maruyama Mori</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>luanavieira.snow@gmail.com</t>
+          <t>gustavo.mori@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Vinicius Delgado da Rocha</t>
+          <t>Hallana Cristina Menezes Da Silva</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>viniciusdelrocha@gmail.com</t>
+          <t>hallana19@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Daniel Meneguello Limeira</t>
+          <t>Diliane Harumi Yaguinuma</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>daniel.limeira@ifpr.edu.br</t>
+          <t>diliane-harumi@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Rodrigo A. Torres</t>
+          <t>Helena Mattiazzo Milanez</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>rodrigotorres@utfpr.edu.br</t>
+          <t>helena.mattiazzo@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Wes</t>
+          <t>Heloise Tainá Sant’Anna</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>wesley94moraes@gmail.com</t>
+          <t>helo.taina.sa@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Aparecido Soares da Silva Júnior</t>
+          <t>Henrique José Schipanski</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>ra124357@uem.br</t>
+          <t>henrique.schipanski@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Luiz Gustavo Gutierrez Ferreira</t>
+          <t>Henrique Batalha-Filho</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>luiz318guti@gmail.com</t>
+          <t>henrique.batalha@outlook.com</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Renan Borges dos Reis</t>
+          <t>Henrique Batista Gomes da Silva</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>reis.renanb@gmail.com</t>
+          <t>ra130150@uem.br</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Pamella Oliveira Fardin</t>
+          <t>Henrique Caldeira Costa</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>ra134937@uem.br</t>
+          <t>ccostah@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Rodrigo de Mello</t>
+          <t>Henrique José de Oliveira</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>rdemellobr@gmail.com</t>
+          <t>henrique.bio22@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Henrique Batista Gomes da Silva</t>
+          <t>Henrique Luiz Rieger</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>ra130150@uem.br</t>
+          <t>henriquerieger2001@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Vinicius Oliveira Miranda</t>
+          <t>Henrique Vilela da Mata Bianchini</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>viny.olmiranda@gmail.com</t>
+          <t>h236891@dac.unicamp.br</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Wanderley Dantas dos Santos</t>
+          <t>Henry Paul Granger Neto</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>wdsantos@uem.br</t>
+          <t>hp.granger98@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Isadora Carolina Martins</t>
+          <t>Fabiany Herica Figueiredo da Silva</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>icarolmartins5@gmail.com</t>
+          <t>herica.hyuuga@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Leonardo Rodrigues Tolardo</t>
+          <t>Iago Lucas Viana da Silva</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>leonardorodriguestolardo@gmail.com</t>
+          <t>iago.lucas@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Fernando Ursen Dias de Souza</t>
+          <t>Iara Patrícia Ferreira de Sousa</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>fernandoursendias@gmail.com</t>
+          <t>profiarapatricia@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Alexandre do Sacramento Alves Anselmo</t>
+          <t>Iasmin Ieteka</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>alexandre.sa.anselmo@gmail.com</t>
+          <t>iasmin.ieteka12@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Matheus Zirondi Roloff</t>
+          <t>Ibrahim Kamel Rodrigues Nehemy</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>mzroloff@gmail.com</t>
+          <t>ibrahimnehemy@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Nicoli Taísi Ornaghi</t>
+          <t>Iderval da Silva Júnior Sobrinho</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>ra134020@uem.br</t>
+          <t>iderval_jr@yahoo.com</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Bruno Henrique Mioto Stabile</t>
+          <t>Ignacio Soto</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>brunomioto97@gmail.com</t>
+          <t>zorroyerizo@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Maria Eduarda Araujo Ribeiro</t>
+          <t>Igor Peres Puertas dos Santos</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>ra130004@uem.br</t>
+          <t>igorperesp@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Gabriela Cassia Zanon Reinas</t>
+          <t>Inês Corrêa Gonçalves</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>gz.reinas@gmail.com</t>
+          <t>inescg.bio@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Luana Garcia Siqueira Da Silva</t>
+          <t>Inês Soares de Menezes</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>ra133953@uem.br</t>
+          <t>iassismenezes@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Franciele Fernanda Kerniske</t>
+          <t>Ingrid Martins Machado Garcia Veiga</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>francielekerniske17@gmail.com</t>
+          <t>ingridgveiga@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Jesús María Hernández Gómez</t>
+          <t>INIWARA K. PEREIRA</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>jesus7hdez@gmail.com</t>
+          <t>iniwara47@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Clarielly Volfe</t>
+          <t>Irene De Fátima Vieira De Moraes</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>clarywolf75@gmail.com</t>
+          <t>irenef.vieiram@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Participante 77837</t>
+          <t>Iris Dechiare Passos Ribeiro</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>gabrielmarras@gmail.com</t>
+          <t>iris@estudante.ufscar.br</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Iasmin Ieteka</t>
+          <t>Iris Hass</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>iasmin.ieteka12@gmail.com</t>
+          <t>irishassm@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Juliane Gabriele Martins</t>
+          <t>Iris Hass</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>juliane.gabrielemartins@hotmail.com</t>
+          <t>irish@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Tiago MarafigaDegrandi</t>
+          <t>Isa Eloá de Freitas Poloni</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>tdegrandi@hotmail.com</t>
+          <t>isaeloa011203@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>INIWARA K. PEREIRA</t>
+          <t>Isaac Rafael Freitas Borges</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>iniwara47@gmail.com</t>
+          <t>isaacborges966@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Maria Eduarda Monteiro Bensberg de Araújo</t>
+          <t>Isabela Caroline Moura dos Santos</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>mariaeduardabenaberg8926@gmail.com</t>
+          <t>bela_carolinem@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Alice Fernanda Lima De Araujo</t>
+          <t>Isabella Fagundes Rosa Limão</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>araujoalice629@gmail.com</t>
+          <t>isaarlimao@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Allan Leal</t>
+          <t>Isabelle Haga</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>lealallan05@gmail.com</t>
+          <t>hagaisabelle@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Mara Cristina de Almeida Matiello</t>
+          <t>Isabelle Oliveira Lima Luz</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>almeidamara@uol.com.br</t>
+          <t>isabelleluz@outlook.com.br</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Tatiana Caroline Machado</t>
+          <t>Isadora Carolina Martins</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>tatianamachado4444@gmail.com</t>
+          <t>icarolmartins5@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>giovana sequinel correa</t>
+          <t>isadora cord</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>giovanasequinel@gmail.com</t>
+          <t>cord.isadora@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Rafael de Assis</t>
+          <t>Isaque Ferreira Mazzucatto Esteves</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>rafaeldeassiis@gmail.com</t>
+          <t>isaque.mazzucatto@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Gabriel Staichak</t>
+          <t>Ismar de Souza Carvalho</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>gstaichak@gmail.com</t>
+          <t>ismar@geologia.ufrj.br</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Roger Henrique Dalcin</t>
+          <t>Ivan Sergio Nunes Silva Filho</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>roger.dalcin@gmail.com</t>
+          <t>ivan.nunes@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Fernanda Souza de Oliveira</t>
+          <t>Izadora Moraes da Silva</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>fersouzaoliveira@gmail.com</t>
+          <t>moraesiza12@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Hallana Cristina Menezes Da Silva</t>
+          <t>Jamille Vitoria Portilho Santos</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>hallana19@gmail.com</t>
+          <t>jamille.portilho@ufms.br</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Brenda Katiene Carvalho Faustino</t>
+          <t>Jardel De Oliveira</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>brendakacarvalho@gmail.com</t>
+          <t>jardel.oliveira90@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Roberto Ferreira Artoni</t>
+          <t>Jayme Massim Marques</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>rfartoni@gmail.com</t>
+          <t>massim.jayme@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Lucas Bleicher</t>
+          <t>Jean Carlo Pedroso de Oliveira</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>lbleicher@gmail.com</t>
+          <t>pedrosojco@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>ANA CECILIA HOLLER DEL PRETTE</t>
+          <t>Jeferson Duran Fuentes</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>anacecilia.holler@gmail.com</t>
+          <t>jeferson.duran-fuentes@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Fabricio Santos</t>
+          <t>Jeferson Vidart Ramos</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>fabricio-santos@ufmg.br</t>
+          <t>jeff.bioinfo@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>MATEUS CHAMONE BURGARELLI</t>
+          <t>Jeniffer Natalia Teles</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>mateuschamone95@gmail.com</t>
+          <t>jenifferteles94@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Isaac Rafael Freitas Borges</t>
+          <t>Jennifer Nunes Pompeo</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>isaacborges966@gmail.com</t>
+          <t>jennifernunespompeo@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Luciana Resende</t>
+          <t>Jéssica Sueli dos Santos Batista</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>luresende@gmail.com</t>
+          <t>jessica.ssb@grad.ufsc.br</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Thieres Tayroni Martins da Silva</t>
+          <t>Jessie P. Santos</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>thierestayroni@gmail.com</t>
+          <t>jessiepereira@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Fernando Araujo Perini</t>
+          <t>Jesús María Hernández Gómez</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>faperini@ufmg.br</t>
+          <t>jesus7hdez@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Ana Carolina Martins Pereira</t>
+          <t>Jhon Alex Dziechciarz Vidal</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>anamartinsper.bio@gmail.com</t>
+          <t>jhonalex279@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Jean Carlo Pedroso de Oliveira</t>
+          <t>Jhonathan de Oliveira Pacheco</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>pedrosojco@gmail.com</t>
+          <t>jhondeoli@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Henry Paul Granger Neto</t>
+          <t>Joana de Moura Gama</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>hp.granger98@gmail.com</t>
+          <t>joanamgama@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Laura Mara Silva Pereira</t>
+          <t>Joana Gehlen Tessaro</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>laura.marasp@gmail.com</t>
+          <t>tessarojg@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Davi Barbalho Cavalcanti</t>
+          <t>João Claudio de Sousa Nascimento</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>barbalhodavi123@gmail.com</t>
+          <t>j.claudionasci@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Pammella Teixeira</t>
+          <t>João Gabriel Rocci Freitas Leal</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>pammellateixeira@gmail.com</t>
+          <t>jgabriel.rfl@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Alessandro Marques De Oliveira</t>
+          <t>João Lucas Burginski Rosa</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>biolessandro@gmail.com</t>
+          <t>jlucasburginski@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Fabíola Da Silva Costa</t>
+          <t>João Marcos Pereira</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>fabiolasilvacosta1@gmail.com</t>
+          <t>joao2.pereira@usp.br</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Mylena Barros de Lima</t>
+          <t>João Roberto Fentanes Machado</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>barros.lima@estudante.ufjf.br</t>
+          <t>joao.fentanes@unifesp.br</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>André Yves</t>
+          <t>João Mateus Zepson Capucho</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>andreyves7@gmail.com</t>
+          <t>joao.capucho@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Henrique José de Oliveira</t>
+          <t>João Vitor Mello Hortega</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>henrique.bio22@gmail.com</t>
+          <t>joaovitormelloh@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Mariana Fonseca Rossi</t>
+          <t>João Carlos Nabout</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>mfonsecarossi@gmail.com</t>
+          <t>jcnabout@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Henrique Caldeira Costa</t>
+          <t>João Otávio Santos Silva</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>ccostah@gmail.com</t>
+          <t>silvajoaootaviosantos@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Origilene Bezerra Dantas</t>
+          <t>JOAO PAULO SANTOS DA SILVA</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>origilenedantas@gmail.com</t>
+          <t>jpbiosilva@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Rafael Félix de Magalhães</t>
+          <t>João Pedro Almeida Caetano</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>rafaelmagalhaes@ufsj.edu.br</t>
+          <t>20201200051@pq.uenf.br</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Gabriel Amaral Bonani Rocha</t>
+          <t>João Pedro Carmo Filgueiras</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>rochagabriel21@gmail.com</t>
+          <t>jcarmofilgueiras@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Ramon Moreira Fernandes</t>
+          <t>João Pedro Silva Climaco</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>ramonmf360@gmail.com</t>
+          <t>joaopsclimaco@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Ronielson Gaia Da Silva</t>
+          <t>João Pedro Fujita</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>ronielsongaia@hotmail.com</t>
+          <t>joaopedrofujita@estudante.ufscar.br</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>José Vitor Nascimento Prudente</t>
+          <t>João Francisco Ponticelli Tottene</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>jose.prudente@ufu.br</t>
+          <t>tott.joao@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Virgilio Teixeira Carrijo</t>
+          <t>JOAQUIM MANOEL DA SILVA</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>virgiliocarrijo@gmail.com</t>
+          <t>joaquimmanoel@unemat.br</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Caroline Scarabelin</t>
+          <t>Jonas Conduru Barros Neto</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>carolinescarabelin@gmail.com</t>
+          <t>jonas.barrosneto@discente.univasf.edu.br</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Victor Alberto Tagliacollo</t>
+          <t>Jonathan Murilo Andreu Conrado</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>vatagliacollo@gmail.com</t>
+          <t>jonathan.conrajo@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Welignton Clarindo</t>
+          <t>Jordana Oliveira</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>well.clarindo@ufv.br</t>
+          <t>jordanainoliveira@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Letícia Carlesso de Paula Sena</t>
+          <t>Jose Alexandre Felizola Diniz Filho</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>leticiacpsena@gmail.com</t>
+          <t>diniz@ufg.br</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Fernanda Mayrink</t>
+          <t>José Mateus dos Santos</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>fernanda.m.campos@ufv.br</t>
+          <t>mateussantosprof14@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>João Pedro Almeida Caetano</t>
+          <t>Jose Ricardo Miras Mermudes</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>20201200051@pq.uenf.br</t>
+          <t>jrmermudes@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Carlos Frederico Deluqui Gurgel</t>
+          <t>José Vitor Nascimento Prudente</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>f_gurgel@yahoo.com</t>
+          <t>jose.prudente@ufu.br</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Victoria Bartolome Moulder</t>
+          <t>Josieli Queiroz De Oliveira</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>vbmoulder@hotmail.com</t>
+          <t>josieli.queiroz@discente.univasf.edu.br</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Yasmim Alvarenga</t>
+          <t>Josué Anderson Rêgo Azevedo</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>y.alvarenga.abreu@gmail.com</t>
+          <t>josueanderson21@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Juliana Lopes De Lima</t>
+          <t>Joyce Rodrigues do Prado</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>julianapv100@gmail.com</t>
+          <t>joyce.prado@usp.br</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Davi Marques De Oliveira De Sá</t>
+          <t>Júlia de Lima Carvalho</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>ivadmarques48@gmail.com</t>
+          <t>julialima.carvalho18@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>CLARISSA COIMBRA CANEDO</t>
+          <t>Julia Oliveira Gomes</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>clarissa.canedo@gmail.com</t>
+          <t>julia.oliveiragomes2@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Claudia Augusta de Moraes Russo</t>
+          <t>Júlia Corrêa Martins</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>claurusso@hotmail.com</t>
+          <t>j.ulia123@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Miguel Godinho Alvares</t>
+          <t>Julia Mayumi De Gois Sugimoto</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>miguelgodinhoalvares@gmail.com</t>
+          <t>juuliamgs@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Bruno Loreto de Aragão Pedroso</t>
+          <t>Julia Nader Acquaviva</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>bruno.loreto.aragao@hotmail.com</t>
+          <t>julianader95@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Dener Soares Da Costa Junior</t>
+          <t>Juliana Cordeiro</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>denerdacosta12@gmail.com</t>
+          <t>jlncdr@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Shanmuganatham Vinoth</t>
+          <t>Juliana Cristine Fontana</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>vinothshanmuganatham@gmail.com</t>
+          <t>julianacfontana@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>José Mateus dos Santos</t>
+          <t>Juliana Lopes De Lima</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>mateussantosprof14@gmail.com</t>
+          <t>julianapv100@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Ana Carolina Martins Junqueira</t>
+          <t>Juliana Luzete Monteiro</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>anacmj@gmail.com</t>
+          <t>julianaluzete@usp.br</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Jose Ricardo Miras Mermudes</t>
+          <t>Juliana Rosa Matias Ciccheto</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>jrmermudes@gmail.com</t>
+          <t>cicchetoju@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Angela Ferreira Portella</t>
+          <t>Juliane Gabriele Martins</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>angela_portella@hotmail.com</t>
+          <t>juliane.gabrielemartins@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>RAFAEL FILGUEIRA JORGE</t>
+          <t>Juliane Petry de Carli Monteiro</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>rafajorgebio@gmail.com</t>
+          <t>julianepmonteiro@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Gabrielle Silva Neves</t>
+          <t>Juliane Xavier</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>gabineves612@gmail.com</t>
+          <t>julianexavier57361@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Marcos Vinícius de Lima Coelho</t>
+          <t>Juliani Maciel dos Santos</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>delimacoelhomv@gmail.com</t>
+          <t>juli.maciels@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Gabriel Henrique Nunes Rodrigues</t>
+          <t>Juliene Lopes Costa</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>gabhengel@gmail.com</t>
+          <t>julopescosta.23@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Nicolás da Cruz Cano</t>
+          <t>Julio Cesar de Moura-Leite</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>nicolasdacruzcano@gmail.com</t>
+          <t>jmouraleite@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>ALENA MAYO INIGUEZ</t>
+          <t>Kaleb Pretto Gatto</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>alenainiguez@gmail.com</t>
+          <t>kaleb.gatto@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Pedro Henrique Moreira de Sousa Pinna</t>
+          <t>KAREN ESTEFANIA VALENCIA AGUILAR</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>pedropinna@hotmail.com</t>
+          <t>karenesva26@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Inês Corrêa Gonçalves</t>
+          <t>Karina de Cassia Faria</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>inescg.bio@gmail.com</t>
+          <t>karinafaria@unemat.br</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Lais Henriques de Mattos</t>
+          <t>Kariny Penha Suarez</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>laishenriques91@gmail.com</t>
+          <t>karinypsuarez@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Luísa Andrade Mendes</t>
+          <t>Karoline Silva Zenato</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>mendesluisa1997@gmail.com</t>
+          <t>karoline.szen@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Diego Homem de Carvalho Ribeiro Gomes</t>
+          <t>Katarine Nogueira Norbertino</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>diegohcrgomes@hotmail.com</t>
+          <t>katarinenn@outlook.com</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Alexandra Paris Toledo</t>
+          <t>Kateryna D Makov</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>alepariis@gmail.com</t>
+          <t>makovakateryna@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Lucas Pereira da Rocha</t>
+          <t>Katharina Patrocinia da Silva</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>lucasrocha700@gmail.com</t>
+          <t>patrociniakps@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Ananda D'Elia</t>
+          <t>Katia Cristina Machado Pellegrino</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>anandadelia@gmail.com</t>
+          <t>katia.pellegrino@unifesp.br</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Alessandra Pavan Lamarca</t>
+          <t>Kelly Zamudio</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>pavanlamarca@gmail.com</t>
+          <t>kelly.zamudio@austin.utexas.edu</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Ismar de Souza Carvalho</t>
+          <t>Kevin Kyoshi Toldo Makiya</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>ismar@geologia.ufrj.br</t>
+          <t>kevin.kyoshi@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Bruna Guarabyra Moreira Godinho da Silva</t>
+          <t>Akyel Kiffiner de França Mendonça</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>bruna_guarabyra@hotmail.com</t>
+          <t>a.kiffiner@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Clarice Assumpção da Costa</t>
+          <t>LAERCIO MOREIRA CARDOSO JUNIOR</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>assumpcao.clarice@gmail.com</t>
+          <t>laerciop53@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Ingrid Martins Machado Garcia Veiga</t>
+          <t>Lais Henriques de Mattos</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>ingridgveiga@gmail.com</t>
+          <t>laishenriques91@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Prof. Dr. Frederico Henning</t>
+          <t>Larissa Andrade</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>fhenning@acd.ufrj.br</t>
+          <t>larissaandrade.bio@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Luiza Silva Anselmini</t>
+          <t>Larissa Bortoli de Souza</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>miniansel.lu@gmail.com</t>
+          <t>bortoli.larissa16@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Larissa Andrade</t>
+          <t>Larissa Ferreira da Silva</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>larissaandrade.bio@gmail.com</t>
+          <t>larissa.fs97@outlook.com</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Gabriela Mussalem Haddad</t>
+          <t>Laura Laino</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>gabimh3181@gmail.com</t>
+          <t>laura.costa231@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Carlos Eduardo Guerra Schrago</t>
+          <t>Laura Mara Silva Pereira</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>carlos.schrago@gmail.com</t>
+          <t>laura.marasp@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Maria Alves Napolitani</t>
+          <t>Laura Wobeto Burtet</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>napolitanima@gmail.com</t>
+          <t>laura.burtet@acad.ufsm.br</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Gabriela Ferreira Mota</t>
+          <t>Laysla Bomfim Adam</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>motafgabriela@gmail.com</t>
+          <t>laysla.adam@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Natália dos Santos</t>
+          <t>Leandro de Avelar Oliveira</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>n.santos97@unesp.br</t>
+          <t>leandro.avelar.bio@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Amanda Bueno da Silva</t>
+          <t>Leandro Batista da Cunha Menezes</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>amanda.bueno-silva@unesp.br</t>
+          <t>leandrobc.menezes@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Kevin Kyoshi Toldo Makiya</t>
+          <t>Leonardo Maurici Borges</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>kevin.kyoshi@unesp.br</t>
+          <t>aquitemcaqui@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Rodrigo Zeni</t>
+          <t>Léo Ramalho</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>rodrigo-zeni@outlook.com.br</t>
+          <t>leoramalhomargato@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Luana Maria Deoclécio da Silva</t>
+          <t>Leonardo Tyskowski Felix</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>luana.deoclecio@unesp.br</t>
+          <t>leotyszko@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Leticia Masiero Desajacomo</t>
+          <t>Leonardo de Bortoli</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>leticia.masiero@unesp.br</t>
+          <t>leonardodebo@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Jeferson Duran Fuentes</t>
+          <t>Leonardo Murari</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>jeferson.duran-fuentes@unesp.br</t>
+          <t>leonardomuraribio@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Lígia Mouriño de Almeida Prado</t>
+          <t>Leonardo Rodrigues Tolardo</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>ligia.prado@unesp.br</t>
+          <t>leonardorodriguestolardo@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Ana Malaghini de Abreu</t>
+          <t>Leonardo Ricardo Nunes</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>anamalaghini9gold@gmail.com</t>
+          <t>leonardoricardo518@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Ana Paula Moraes</t>
+          <t>Leonardo Duarte Santos</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>ap.moraes@unesp.br</t>
+          <t>santosldbio@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Jordana Oliveira</t>
+          <t>Lethícia Stéfany Barbosa Dias</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>jordanainoliveira@gmail.com</t>
+          <t>lethicia_dias@ufms.br</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Gustavo Ballen</t>
+          <t>Letícia Caroline Chaves</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>gustavo.a.ballen@gmail.com</t>
+          <t>leticia.leticiacchaves@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Fernanda Biscaino Saluceste</t>
+          <t>Letícia Wanderley Cavalcanti</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>fernanda.saluceste@unesp.br</t>
+          <t>letcavalcanti02@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Gustavo da Silva Ambrosio</t>
+          <t>Leticia Masiero Desajacomo</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>gustavo.ambrosio@unesp.br</t>
+          <t>leticia.masiero@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Danillo Pinhal</t>
+          <t>Letícia Nascimento Mathias</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>danillo.pinhal@unesp.br</t>
+          <t>leticiamathiasalt@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Lucas Oliveira Mello</t>
+          <t>Letícia Monteiro</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>lucasmellounicamp@gmail.com</t>
+          <t>leticiamonteiro.bio@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Julia Nader Acquaviva</t>
+          <t>Letícia Carlesso de Paula Sena</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>julianader95@gmail.com</t>
+          <t>leticiacpsena@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Welington Luis Sachetti Junior</t>
+          <t>Lígia Mouriño de Almeida Prado</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>ton.jr.bio@gmail.com</t>
+          <t>ligia.prado@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Henrique Vilela da Mata Bianchini</t>
+          <t>Lígia Ziotti Candiles Holgado</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>h236891@dac.unicamp.br</t>
+          <t>ligiaziotti@usp.br</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Georgette Paola Ancajima Alcalde</t>
+          <t>Lilian Gimenes Giugliano</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>paolancajima@gmail.com</t>
+          <t>liliangiu@unb.br</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Leonardo Duarte Santos</t>
+          <t>Liliane Gallindo Dantas</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>santosldbio@gmail.com</t>
+          <t>dantas.lg@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Phietra de Paula Oliveira</t>
+          <t>Lorena Sanches Vieira</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>p243294@dac.unicamp.br</t>
+          <t>lolly.vieirasa@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Joana de Moura Gama</t>
+          <t>Lorenzo Driessen Cigognini</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>joanamgama@gmail.com</t>
+          <t>lorenzocigognini@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Vera Nisaka Solferini</t>
+          <t>Lorenzo Costa Weigert Ferreira</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>veras@unicamp.br</t>
+          <t>lorenzocosta195@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Raphael da Silva</t>
+          <t>Luana Maria Deoclécio da Silva</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>r217220@dac.unicamp.br</t>
+          <t>luana.deoclecio@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Jennifer Nunes Pompeo</t>
+          <t>Luana Garcia Siqueira Da Silva</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>jennifernunespompeo@gmail.com</t>
+          <t>ra133953@uem.br</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>João Claudio de Sousa Nascimento</t>
+          <t>Luana Sousa Soares</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>j.claudionasci@gmail.com</t>
+          <t>lusousa.soares11@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Fernando Sotero de Lara</t>
+          <t>Luana Vieira Carlin dos Santos</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>f236823@dac.unicamp.br</t>
+          <t>luanavieira.snow@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Luiza de Moraes Magaldi</t>
+          <t>Lucas Albuquerque dos Santos</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>luiza.magaldi@gmail.com</t>
+          <t>lucasabqsto@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Pábulo Matheus Domiciano</t>
+          <t>Lucas Barcelos</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>pabulodomiciano@gmail.com</t>
+          <t>lucasabarcelos@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Clarisse Palma da Silva</t>
+          <t>Lucas Bleicher</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>cpalma@unicamp.br</t>
+          <t>lbleicher@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Ubiratã Ferreira Souza</t>
+          <t>Lucas Henrique Jerônimo Feitoza</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>ubirataferreirasouza@gmail.com</t>
+          <t>luc.jer21@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Maria Ursini Alves de Lima</t>
+          <t>LUCAS KATSUMI ROCHA HINOSHITA</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>mariaursinialves@gmail.com</t>
+          <t>katsumilucas@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Pedro Henrique Pacheco Mosquini</t>
+          <t>Lucas Oliveira Mello</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>mosquiniphp@gmail.com</t>
+          <t>lucasmellounicamp@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Tami da Costa Cacossi</t>
+          <t>Lucas Pereira Camargo</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>tamiccacossi@gmail.com</t>
+          <t>lucaspc@estudante.ufscar.br</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Isa Eloá de Freitas Poloni</t>
+          <t>Lucas Marafina Vieira Porto</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>isaeloa011203@gmail.com</t>
+          <t>lucasmvporto@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Lucas Rosado Mendonça</t>
+          <t>LUCAS QUEVEDO PINTO</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>lucasrosadm@gmail.com</t>
+          <t>lukasquevedo.72@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Beatriz Helena Macari Daros</t>
+          <t>Lucas dos Santos Fazzio Rachid</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>beatrizdarosbio@gmail.com</t>
+          <t>lucas.rachid@unifesp.br</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Franciane Cedrola Vale</t>
+          <t>Lucas Pereira da Rocha</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>francedrola@gmail.com</t>
+          <t>lucasrocha700@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Leonardo Murari</t>
+          <t>Lucas Rosado Mendonça</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>leonardomuraribio@gmail.com</t>
+          <t>lucasrosadm@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Nathan Graia Ferreira</t>
+          <t>Lucas Szekut de Paula</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>n249472@dac.unicamp.br</t>
+          <t>lucasszekutdepaula@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Pedro Paulo Goulart Taucci</t>
+          <t>Lucas Vilela de Carvalho Rodrigues</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>pedrotaucce@gmail.com</t>
+          <t>lucasvilela676@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Lucas Albuquerque dos Santos</t>
+          <t>Lucca Azevedo Fanti</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>lucasabqsto@gmail.com</t>
+          <t>luccafanti2002@outlook.com</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Jessie P. Santos</t>
+          <t>Luciana Aguilar Aleixo</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>jessiepereira@gmail.com</t>
+          <t>lucianaaleixo@uesb.edu.br</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Patrícia Avelino Machado</t>
+          <t>Luciana Bolsoni Lourenço</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>patyavelino95@gmail.com</t>
+          <t>bolsoni@unicamp.br</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Stephanny dos Santos Nobre</t>
+          <t>Luciana Aparecida Botacim</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>s244410@dac.unicamp.br</t>
+          <t>lucianabotacim@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Pedro Danel de Souza Ugarte</t>
+          <t>Luciana Resende</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>pedaugaso@gmail.com</t>
+          <t>luresende@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Beatriz Christine De Marco Pereira</t>
+          <t>LUCIANE VIATER TURECK</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>b257010@dac.unicamp.br</t>
+          <t>luviater@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Gabriel Banov Evora</t>
+          <t>Luddy Searom Carias de Moraes</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>gbanovevora@gmail.com</t>
+          <t>luddysearom@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>DRIELLI CANAL</t>
+          <t>Luis Roberto Bueno</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>drielliufes@gmail.com</t>
+          <t>luisbrbio@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Amanda Lichtscheidl Graciadio</t>
+          <t>Luísa Andrade Mendes</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>a265805@dac.unicamp.br</t>
+          <t>mendesluisa1997@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Maria Julia Pedroso Grigolin</t>
+          <t>Luiz Eduardo Vieira Del Bem</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>m173165@dac.unicamp.br</t>
+          <t>levdelbem@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Ibrahim Kamel Rodrigues Nehemy</t>
+          <t>Luiz Fernando Ribeiro</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>ibrahimnehemy@hotmail.com</t>
+          <t>luxfernando@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Nicolle Souza Leto</t>
+          <t>Luiz Gabriel do Prado Ludwig</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>letonicolle@gmail.com</t>
+          <t>lgpludwig@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Murilo Meneghetti</t>
+          <t>Luiza Silva Anselmini</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>murobishop@gmail.com</t>
+          <t>miniansel.lu@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Helena Mattiazzo Milanez</t>
+          <t>Luiza Flores Gasparetto</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>helena.mattiazzo@gmail.com</t>
+          <t>luiza.gasparetto@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Luciana Bolsoni Lourenço</t>
+          <t>Luiza Gomes de Oliveira</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>bolsoni@unicamp.br</t>
+          <t>luizaoliveira2000@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Gabriel Gonçalves da Silva</t>
+          <t>Luiza Kittel Chiká</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>g249321@dac.unicamp.br</t>
+          <t>luizakittel@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Katia Cristina Machado Pellegrino</t>
+          <t>Luiza de Moraes Magaldi</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>katia.pellegrino@unifesp.br</t>
+          <t>luiza.magaldi@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Adriana Coletto Morales</t>
+          <t>Lupe Alle</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>adriana.morales@unesp.br</t>
+          <t>lupealle@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Melissa Bars Closel</t>
+          <t>Luz Elena De La Ossa Guerra</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>melissabars@gmail.com</t>
+          <t>03ledg@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Jardel De Oliveira</t>
+          <t>Maikel Varal</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>jardel.oliveira90@hotmail.com</t>
+          <t>maikelvaral@yahoo.com.br</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Tiago Benedito dos Santos</t>
+          <t>Manuel Adrian Riveros Escalona</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>tiagobio02@yahoo.com.br</t>
+          <t>manuelriveros72@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Breno Michelon Seixas</t>
+          <t>Manuella Cardoso Teixeira</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>breno.mseixas@usp.br</t>
+          <t>manuella.mhc2@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Ana Sophia Reami Dallanese</t>
+          <t>Marcela Naomi Okabayashi da Silva</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>anasophiard@usp.br</t>
+          <t>marcela.naomi@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Isabelle Haga</t>
+          <t>MARCELO DE BELLO CIOFFI</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>hagaisabelle@gmail.com</t>
+          <t>mbcioffi@ufscar.br</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Martín Rodrigo Escobar</t>
+          <t>Marcelo Duarte</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>martin.escobar@usp.br</t>
+          <t>mduartes@usp.br</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Juliana Luzete Monteiro</t>
+          <t>Marcelo Henrique Schwade</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>julianaluzete@usp.br</t>
+          <t>marceloh.schwade@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Vinicius Anelli</t>
+          <t>Marcelo Jorge Werner</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>vnanell@gmail.com</t>
+          <t>marcelo.werner.sc@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Dra. Tiana Kohlsdorf</t>
+          <t>Marcia Holsbach Beltrame</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>tiana@usp.br</t>
+          <t>marcia.beltrame@ufrgs.br</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Matheus Ganiko Dutra</t>
+          <t>Marco Silva Gottschalk</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>ganiko.dutra@usp.br</t>
+          <t>marco.gottschalk@yahoo.com</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Jeniffer Natalia Teles</t>
+          <t>Marcos Cesar Pochynski Galvão Junior</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>jenifferteles94@gmail.com</t>
+          <t>mrc.marcoscesar@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Pedro Henrique Nunes Zani</t>
+          <t>Marcos Barbeitos</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>pedrohnz@usp.br</t>
+          <t>msbarbeitos@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Lígia Ziotti Candiles Holgado</t>
+          <t>Marcos Vinícius de Lima Coelho</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>ligiaziotti@usp.br</t>
+          <t>delimacoelhomv@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Felipe Andrade</t>
+          <t>Maria Eduarda Monteiro Bensberg de Araújo</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>felipe_andrade@ymail.com</t>
+          <t>mariaeduardabenaberg8926@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Danilo Camargo Fernandes</t>
+          <t>Maria Clara Itoh Nascimento</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>danilo.fernandes@usp.br</t>
+          <t>mcitohbio@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Danillo Cristian Feitosa Dos Santos</t>
+          <t>Maria Clara Irumé</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>danilocrisfs@gmail.com</t>
+          <t>irumemcf@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Lucas Barcelos</t>
+          <t>Maria Eduarda Gonçalves Lacerda</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>lucasabarcelos@gmail.com</t>
+          <t>maed.lacerda@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Victor Hugo Barbosa Pereira</t>
+          <t>Maria Julia Michelini de Almeida</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>vhb.pereira@unesp.br</t>
+          <t>majumichelini@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Millke Jasmine Arminini Morales</t>
+          <t>Maria Julia Pedroso Grigolin</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>millke.jasmine@gmail.com</t>
+          <t>m173165@dac.unicamp.br</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Juliane Petry de Carli Monteiro</t>
+          <t>Maria Luiza Petzl-Erler</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>julianepmonteiro@gmail.com</t>
+          <t>mlperler@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Thais Helena Condez</t>
+          <t>Maria Alves Napolitani</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>thacondez@gmail.com</t>
+          <t>napolitanima@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Analice Gabrielle Marquezin Gomes</t>
+          <t>Maria Paula Sacol</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>analice.gabrielle@unesp.br</t>
+          <t>mariapaulasacol@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Maria Tereza Colpani Sartori</t>
+          <t>Maria Paula Cruz Schneider</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>colpanisartori@gmail.com</t>
+          <t>mariapaulacruzschneider@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Felipe Messias Leandro</t>
+          <t>Maria Eduarda Araujo Ribeiro</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>felipe.messias@unesp.br</t>
+          <t>ra130004@uem.br</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>João Francisco Ponticelli Tottene</t>
+          <t>Maria Tereza Colpani Sartori</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>tott.joao@gmail.com</t>
+          <t>colpanisartori@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Francisco Borges</t>
+          <t>Maria Ursini Alves de Lima</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>fa.borges@unesp.br</t>
+          <t>mariaursinialves@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Eduardo Koerich Nery</t>
+          <t>Maria Vitoria Lima da Silva</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>eduardo.k.nery@gmail.com</t>
+          <t>mariavitoriadelima020@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Irene De Fátima Vieira De Moraes</t>
+          <t>Maria Emilia Yamamoto</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>irenef.vieiram@gmail.com</t>
+          <t>emiliayamamoto@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Príncia Grejo Setti</t>
+          <t>Mariana Franciscão Costa</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>princiasetti@gmail.com</t>
+          <t>franciscao.mariana@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Miguel Henrique Valentim Sanches</t>
+          <t>Mariana Guolo Moschen</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>miguelvalentim@estudante.ufscar.br</t>
+          <t>marianagmoschen17@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Mariannah Pravatti Barcellos de Oliveira</t>
+          <t>Mariana Nunes Menegat</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>mariannah.bo@gmail.com</t>
+          <t>marianamenegat@outlook.com</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Jhon Alex Dziechciarz Vidal</t>
+          <t>Mariana Fonseca Rossi</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>jhonalex279@gmail.com</t>
+          <t>mfonsecarossi@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Francisco de Menezes Cavalcante Sassi</t>
+          <t>Marianna Silva Borburema</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>francisco.sassi@hotmail.com</t>
+          <t>mariannaborburema1@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Geize Aparecida Deon</t>
+          <t>Mariannah Pravatti Barcellos de Oliveira</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>geizedeon@hotmail.com</t>
+          <t>mariannah.bo@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Guilherme Mota Souza</t>
+          <t>Marina Strelin</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>guilherme.mota@estudante.ufscar.br</t>
+          <t>marina.strelin85@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Alan Moura de Oliveira</t>
+          <t>Mario César C. de Pinna</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>alanoliveira@estudante.ufscar.br</t>
+          <t>pinna@ib.usp.br</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Leonardo Maurici Borges</t>
+          <t>Martim Braulio Peres Silva</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>aquitemcaqui@gmail.com</t>
+          <t>m_braulio16@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>MARCELO DE BELLO CIOFFI</t>
+          <t>Martin Lindsey Christoffersen</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>mbcioffi@ufscar.br</t>
+          <t>martinlc.ufpb@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>FERNANDO HENRIQUE SANTOS DE SOUZA</t>
+          <t>Martín Rodrigo Escobar</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Fernando.souza@estudante.ufscar.br</t>
+          <t>martin.escobar@usp.br</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>João Pedro Fujita</t>
+          <t>Mateus sousa de almeida</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>joaopedrofujita@estudante.ufscar.br</t>
+          <t>mateus_btec@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Lucas Pereira Camargo</t>
+          <t>MATEUS CHAMONE BURGARELLI</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>lucaspc@estudante.ufscar.br</t>
+          <t>mateuschamone95@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Rafael Fernandes Barduzzi</t>
+          <t>Matheus Lima de Araujo</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>rfbarduzzi@gmail.com</t>
+          <t>matheusaraujolima@live.com</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Gabriel Neves Cardoso Coelho</t>
+          <t>Matheus Sthanley Ferreira Firme</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>gab235coelho@usp.br</t>
+          <t>fmatheuspba@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Mario César C. de Pinna</t>
+          <t>Matheus Ganiko Dutra</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>pinna@ib.usp.br</t>
+          <t>ganiko.dutra@usp.br</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Carlos Cristiano Simões Ferreira e Penha</t>
+          <t>Matheus Igor Fontana</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>cristianosf@usp.br</t>
+          <t>matheu-igor@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Thiago Silva Loboda</t>
+          <t>Matheus Maciel Alcantara Salles</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>loboda_bio@yahoo.com.br</t>
+          <t>matheusmaciel.salles@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Julia Mayumi De Gois Sugimoto</t>
+          <t>Matheus Zirondi Roloff</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>juuliamgs@hotmail.com</t>
+          <t>mzroloff@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Larissa Ferreira da Silva</t>
+          <t>Matías Maximiliano Malleret</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>larissa.fs97@outlook.com</t>
+          <t>malleret2@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Gabriela Procópio Camacho</t>
+          <t>Max Hideki Oliveira Homma</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>gpcamacho@usp.br</t>
+          <t>maxhomma@usp.br</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Eduarda Kjekshus Mansur Haddad</t>
+          <t>Mayara Pereira Neves</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>eduardakmh@usp.br</t>
+          <t>mayara-nevesbio@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Luiza Gomes de Oliveira</t>
+          <t>Nathália Caldeira Dias</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>luizaoliveira2000@gmail.com</t>
+          <t>caldeira.nathalia@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Cristina Yumi Miyaki</t>
+          <t>Melissa Bars Closel</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>cymiyaki@ib.usp.br</t>
+          <t>melissabars@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Letícia Wanderley Cavalcanti</t>
+          <t>Michele Bertoncello</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>letcavalcanti02@gmail.com</t>
+          <t>michelebertoncello146@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>AMMIR YACOUB HELOU</t>
+          <t>Miguel Angelo</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>ammir@usp.br</t>
+          <t>miguel.angelo24@usp.br</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Katharina Patrocinia da Silva</t>
+          <t>Miguel Godinho Alvares</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>patrociniakps@gmail.com</t>
+          <t>miguelgodinhoalvares@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Eliana Maria Beluzzo Dessen</t>
+          <t>Miguel Piovesana Pereira Romeiro</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>embdesse@ib.usp.br</t>
+          <t>miguelpromeiro@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>Tiago Bosisio Quental</t>
+          <t>Miguel Henrique Valentim Sanches</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>tbquental@usp.br</t>
+          <t>miguelvalentim@estudante.ufscar.br</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Vinícius José Carvalho Reis</t>
+          <t>Millke Jasmine Arminini Morales</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>carvalhvinicius@gmail.com</t>
+          <t>millke.jasmine@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>João Marcos Pereira</t>
+          <t>Monica Laner Blauth</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>joao2.pereira@usp.br</t>
+          <t>blauth.monica@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Bruno Celso Feltrin Genevcius</t>
+          <t>Murilo Meneghetti</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>bgenevcius@gmail.com</t>
+          <t>murobishop@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Denis Calandriello Calio</t>
+          <t>Mylena Daiana Santander</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>denis.calan@gmail.com</t>
+          <t>mylena.santander@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Sergio Russo Matioli</t>
+          <t>Mylena Barros de Lima</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>srmatiol@ib.usp.br</t>
+          <t>barros.lima@estudante.ufjf.br</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Dalton de Souza Amorim</t>
+          <t>Júnior Nadaline</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>dsamorim@usp.br</t>
+          <t>jr.nadaline@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>Gabriel Nakamura de Souza</t>
+          <t>Pedro Natale Cavezzale Dias</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>gabriel.nakamura.souza@gmail.com</t>
+          <t>pnatalecd@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Davi Monteiro Nunes</t>
+          <t>Natália dos Santos</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>davimontnunes@gmail.com</t>
+          <t>n.santos97@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Ana Paula Assis</t>
+          <t>Natália Skueresky</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>paulaassis@ib.usp.br</t>
+          <t>natiisoares@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>Marco A. C. Varella</t>
+          <t>Natalie Motelewski Trippia</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>macvarella@gmail.com</t>
+          <t>nataliemotelewski@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Joyce Rodrigues do Prado</t>
+          <t>Nathália Marques da Silva do Nascimento</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>joyce.prado@usp.br</t>
+          <t>nmarques2107@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>Samuel Augusto Aguiar dos Anjos</t>
+          <t>Nathan Graia Ferreira</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>sam_aanjos@usp.br</t>
+          <t>n249472@dac.unicamp.br</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>João Roberto Fentanes Machado</t>
+          <t>Nathan Herberto Ribas Vellasques</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>joao.fentanes@unifesp.br</t>
+          <t>nathan.vellasques@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Amanda Kimie Tsuruta</t>
+          <t>Nelio Marco Vincenzo Bizzo</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>amandatsuruta@gmail.com</t>
+          <t>bizzo@unifesp.br</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Gabriel Santos Garcia</t>
+          <t>Nelson J.R. Fagundes</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>gasagarcia@usp.br</t>
+          <t>nelson.fagundes@ufrgs.br</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Frederico de Alcantara Menezes</t>
+          <t>Nicolás da Cruz Cano</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>fred25alcantara@gmail.com</t>
+          <t>nicolasdacruzcano@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Maria Clara Irumé</t>
+          <t>Nicolas Rocamundi</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>irumemcf@gmail.com</t>
+          <t>nicolasrocamundi@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Sandra Reinales</t>
+          <t>Nicole Isabelle Stocco</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>spreinalesl@gmail.com</t>
+          <t>nicole.ufpr@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Thiago Takeshi Goto</t>
+          <t>Nicole Sofia Cruz</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>thi.takeshi@gmail.com</t>
+          <t>nicolesouza@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Miguel Piovesana Pereira Romeiro</t>
+          <t>Nicoli Taísi Ornaghi</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>miguelpromeiro@gmail.com</t>
+          <t>ra134020@uem.br</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Raíssa do Nascimento Rainha</t>
+          <t>Nicolle Souza Leto</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>rainharaissa0@gmail.com</t>
+          <t>letonicolle@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Miguel Angelo</t>
+          <t>Nilda Maria Diniz Rojas</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>miguel.angelo24@usp.br</t>
+          <t>niddiniz@unb.br</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>LUCAS QUEVEDO PINTO</t>
+          <t>Norma Machado da Silva</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>lukasquevedo.72@gmail.com</t>
+          <t>norma.machado@ufsc.br</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Ana Paula Becker</t>
+          <t>Nuno Gabriel Calderam Esposito</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>ana.becker023@gmail.com</t>
+          <t>ngabrielce09@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Marcelo Duarte</t>
+          <t>Origilene Bezerra Dantas</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>mduartes@usp.br</t>
+          <t>origilenedantas@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Diogo Melo</t>
+          <t>Pablo Fernandes</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>diogro@gmail.com</t>
+          <t>pablofernandeux@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Weverton dos Santos Azevedo</t>
+          <t>Pábulo Matheus Domiciano</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>weverton.azevedo@hotmail.com</t>
+          <t>pabulodomiciano@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Gabriele da Silva Gouveia Oliveira</t>
+          <t>Pamela Maciel Cremonez</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>gabriele.oliveira611@gmail.com</t>
+          <t>pamelacremonez@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Tábita Hünemeier</t>
+          <t>Pamela Estyse Campos Bini</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>hunemeier@usp.br</t>
+          <t>pamelacamposbini@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Felipe Simionato Salles</t>
+          <t>Pâmela Giordani Vielmo</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>felipe.salles@usp.br</t>
+          <t>pamelavielmo@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Bárbara Santos Teixeira Costa</t>
+          <t>Pamella Oliveira Fardin</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>barbarabio@usp.br</t>
+          <t>ra134937@uem.br</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>André Guilherme Madeira</t>
+          <t>Pammella Teixeira</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>andre.madeira@unesp.br</t>
+          <t>pammellateixeira@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Ivan Sergio Nunes Silva Filho</t>
+          <t>Paolla Gabryelle Cavalcante de Souza</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>ivan.nunes@unesp.br</t>
+          <t>paollasouzac@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Gustavo Maruyama Mori</t>
+          <t>Patrícia Avelino Machado</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>gustavo.mori@unesp.br</t>
+          <t>patyavelino95@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Gabriel Tofanelo Vanin</t>
+          <t>Patricia Savio de Araujo-Souza</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>gabriel.vanin@unesp.br</t>
+          <t>psas@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Ana Claudia Lessinger</t>
+          <t>Patricia Sanae Sujii</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>lessinger@ufscar.br</t>
+          <t>sujiips@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Julia Oliveira Gomes</t>
+          <t>Ana Paula Assis</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>julia.oliveiragomes2@gmail.com</t>
+          <t>paulaassis@ib.usp.br</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Iris Dechiare Passos Ribeiro</t>
+          <t>PAULA CAROLINA FERREIRA</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>iris@estudante.ufscar.br</t>
+          <t>paulacarolina2712@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Lucas Marafina Vieira Porto</t>
+          <t>Paulo Aecyo Francisco da Silva</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>lucasmvporto@gmail.com</t>
+          <t>pauloaecyo_1997@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Max Hideki Oliveira Homma</t>
+          <t>Paulo Henrique Mueller</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>maxhomma@usp.br</t>
+          <t>profmueller@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Nathália Caldeira Dias</t>
+          <t>Paulyana Corecco Moura</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>caldeira.nathalia@gmail.com</t>
+          <t>paulyanamoura@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Marianna Silva Borburema</t>
+          <t>Pedro Augusto Cardoso Amaral</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>mariannaborburema1@gmail.com</t>
+          <t>pedro20amaral@gmail.com</t>
         </is>
       </c>
     </row>
@@ -6672,780 +6672,780 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Rafaela Velloso Missagia</t>
+          <t>Pedro Vinicius Macedo</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>rafaelamissagia@gmail.com</t>
+          <t>pedromacedro@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>Luciana Aparecida Botacim</t>
+          <t>Pedro Henrique Pacheco Mosquini</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>lucianabotacim@gmail.com</t>
+          <t>mosquiniphp@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Amanda Freitas Haase</t>
+          <t>Pedro Paulo Ferreira da Silva</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>amandafreitashaase@gmail.com</t>
+          <t>pedropaulofers@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Fernanda de Pinho Werneck</t>
+          <t>Pedro Henrique Moreira de Sousa Pinna</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>fewerneck@gmail.com</t>
+          <t>pedropinna@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Esteban Diego Koch</t>
+          <t>Pedro Paulo Goulart Taucci</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>edkoch17@gmail.com</t>
+          <t>pedrotaucce@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Josué Anderson Rêgo Azevedo</t>
+          <t>Pedro Danel de Souza Ugarte</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>josueanderson21@gmail.com</t>
+          <t>pedaugaso@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Rômulo Celestino Souza</t>
+          <t>Pedro Henrique Nunes Zani</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>romulo.amazonia@gmail.com</t>
+          <t>pedrohnz@usp.br</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Erik Henrique de Lacerda Choueri</t>
+          <t>Phietra de Paula Oliveira</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>chouerik@gmail.com</t>
+          <t>p243294@dac.unicamp.br</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Alexander Tamanini Mônico</t>
+          <t>Príncia Grejo Setti</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>alexandermonico@hotmail.com</t>
+          <t>princiasetti@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Gilmax Gonçalves Ferreira</t>
+          <t>Rafael Fernandes Barduzzi</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>gillmax88@gmail.com</t>
+          <t>rfbarduzzi@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>Felipe Arian de Andrade Araújo</t>
+          <t>Rafael de Assis</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>araujo.felipearian@gmail.com</t>
+          <t>rafaeldeassiis@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Anna Theresa De Souza Liberal</t>
+          <t>Rafael de Oliveira Fratoni</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>theresaliberal@gmail.com</t>
+          <t>rafa.fratoni@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Pedro Paulo Ferreira da Silva</t>
+          <t>RAFAEL FILGUEIRA JORGE</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>pedropaulofers@gmail.com</t>
+          <t>rafajorgebio@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Felipe Camurugi Almeida Guimarães</t>
+          <t>Rafael Félix de Magalhães</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>camurugif@gmail.com</t>
+          <t>rafaelmagalhaes@ufsj.edu.br</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>JOAO PAULO SANTOS DA SILVA</t>
+          <t>Rafaela Velloso Missagia</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>jpbiosilva@gmail.com</t>
+          <t>rafaelamissagia@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Gleyce Medeiros da Silva</t>
+          <t>Rafaella Camargo Dutra</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>gleycemedeiros96@gmail.com</t>
+          <t>rafaella.dutra@acad.ufsm.br</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>José Eduardo Gomes De Oliveira</t>
+          <t>Raiana Santiago da Costa</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>zezinho20052005@gmail.com</t>
+          <t>val_raiana@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>EDILSON DIVINO DE ARAUJO</t>
+          <t>Raíssa do Nascimento Rainha</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>edaraujoufs@gmail.com</t>
+          <t>rainharaissa0@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Graziela Santos Andrade</t>
+          <t>Ramon Moreira Fernandes</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>grazielaandrade.bio@gmail.com</t>
+          <t>ramonmf360@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Ana Carolina Vilas Boas</t>
+          <t>Raphael da Silva</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>ananinanina@gmail.com</t>
+          <t>r217220@dac.unicamp.br</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Josieli Queiroz De Oliveira</t>
+          <t>Raquel De Jesus Selestrino</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>josieli.queiroz@discente.univasf.edu.br</t>
+          <t>raqueljselestrino@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>João Pedro Silva Climaco</t>
+          <t>Renan Borges dos Reis</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>joaopsclimaco@hotmail.com</t>
+          <t>reis.renanb@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Isabelle Oliveira Lima Luz</t>
+          <t>Renata Mussoi Giacomin</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>isabelleluz@outlook.com.br</t>
+          <t>giacomin.rm@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Thais Kethellen Silva De Paula</t>
+          <t>Renato Caparroz</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>thaiskethellen72@gmail.com</t>
+          <t>renatocz@yahoo.com.br</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Luciana Aguilar Aleixo</t>
+          <t>Ricardo Lehtonen Rodrigues Souza</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>lucianaaleixo@uesb.edu.br</t>
+          <t>lehtonen@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>Tami Mott</t>
+          <t>Ricardo Marques da Silva</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>tami.mott@icbs.ufal.br</t>
+          <t>rcdmarquess@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>João Vitor Rodrigues Costa</t>
+          <t>Roberto Ferreira Artoni</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>vitorrodc@usp.br</t>
+          <t>rfartoni@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Mariana Nunes Menegat</t>
+          <t>Roberto Júnio Pedroso Dias</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>marianamenegat@outlook.com</t>
+          <t>rjuniodias@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>Lilian Gimenes Giugliano</t>
+          <t>Carlos Robson Costa Cruz</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>liliangiu@unb.br</t>
+          <t>cruz.carlosr21@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>Frederico Felizardo Barbosa</t>
+          <t>Rodrigo Augusto Torres</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>fredericofb012@gmail.com</t>
+          <t>rodrigotorres@utfpr.edu.br</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>Giovana Lima da Rocha</t>
+          <t>Rodrigo de Mello</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>giovanalima2001@gmail.com</t>
+          <t>rdemellobr@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>Iderval da Silva Júnior Sobrinho</t>
+          <t>Rodrigo Barbosa Gonçalves</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>iderval_jr@yahoo.com</t>
+          <t>goncalvesrb@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Juliani Maciel dos Santos</t>
+          <t>Rodrigo Zeni</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>juli.maciels@gmail.com</t>
+          <t>rodrigo-zeni@outlook.com.br</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Aléxia Vittória Dariva Tormen</t>
+          <t>Roger Henrique Dalcin</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>alexia.tormen@hotmail.com</t>
+          <t>roger.dalcin@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Carlos Robson Costa Cruz</t>
+          <t>Rômulo Celestino Souza</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>cruz.carlosr21@gmail.com</t>
+          <t>romulo.amazonia@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Jonathan Murilo Andreu Conrado</t>
+          <t>Rômulo da Rosa Silveira</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>jonathan.conrajo@gmail.com</t>
+          <t>romulor.silveira@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Marcelo Jorge Werner</t>
+          <t>Ronielson Gaia Da Silva</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>marcelo.werner.sc@gmail.com</t>
+          <t>ronielsongaia@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Ana Paula Lula Costa</t>
+          <t>Rosana Tidon</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>anapaulalula@gmail.com</t>
+          <t>rotidon@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Joana Gehlen Tessaro</t>
+          <t>Roullien Henrique Martins</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>tessarojg@gmail.com</t>
+          <t>roullien.silva@ufms.br</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Júlia Corrêa Martins</t>
+          <t>Sabrina Marchioro</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>j.ulia123@hotmail.com</t>
+          <t>sahmarchioro@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>Vitória de Carvalho da Silva</t>
+          <t>Samuel Augusto Aguiar dos Anjos</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>vicarvalho.2701@gmail.com</t>
+          <t>sam_aanjos@usp.br</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>Renata Mussoi Giacomin</t>
+          <t>Sandra Reinales</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>giacomin.rm@gmail.com</t>
+          <t>spreinalesl@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Carolina Martins da Silva</t>
+          <t>Santiago Benitez Vieyra</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>carolina.mrtinssilva@gmail.com</t>
+          <t>santiagombv@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>Lucas Szekut de Paula</t>
+          <t>Sarah Mângia Barros</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>lucasszekutdepaula@gmail.com</t>
+          <t>sarahmangia@yahoo.com.br</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>Adler Dvorak Barboza</t>
+          <t>Sarah Waldschmidt da Cunha</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>adlerdvorak@gmail.com</t>
+          <t>sarah.w.c2@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>Fabiano Stefanello</t>
+          <t>Sávio Torres de Farias</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>stefanellof@gmail.com</t>
+          <t>stfarias@yahoo.com.br</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>VITOR DE CASTRO RECH</t>
+          <t>Sergio Russo Matioli</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>vitor.castro.rech@gmail.com</t>
+          <t>srmatiol@ib.usp.br</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Luis Roberto Bueno</t>
+          <t>SERGIO NASCIMENTO STAMPAR</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>luisbrbio@hotmail.com</t>
+          <t>sergio.stampar@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>Paulo Henrique Mueller</t>
+          <t>Cicera Silvilene Leite Matias</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>profmueller@gmail.com</t>
+          <t>silvilenematias@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>Luz Elena De La Ossa Guerra</t>
+          <t>Sofia Castelo Branco Santos</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>03ledg@gmail.com</t>
+          <t>sofiacbs2019@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>Ellen Renata Canesso</t>
+          <t>Sofia Tozzo Bueno De Lima</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>ellenr.canesso@gmail.com</t>
+          <t>sofiatozzobueno@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>Heloise Tainá Sant’Anna</t>
+          <t>sophia saletti</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>helo.taina.sa@gmail.com</t>
+          <t>sophia.saletti@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Caroline do Nascimento Ferreira</t>
+          <t>Stephanny dos Santos Nobre</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>carolinenascferreira@gmail.com</t>
+          <t>s244410@dac.unicamp.br</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>Lucas Vilela de Carvalho Rodrigues</t>
+          <t>Suellen Rodrigues Calixto</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>lucasvilela676@gmail.com</t>
+          <t>sucalixto95@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>Gabriel Costa Santos</t>
+          <t>Suzana Alcantara</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>gabrielscosta90@gmail.com</t>
+          <t>suzana.alcantara@ufsc.br</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>Luís Gustavo da Conceição Galego</t>
+          <t>Tábita Hünemeier</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>luis.galego@uftm.edu.br</t>
+          <t>hunemeier@usp.br</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>Gabriela Procopio Leite</t>
+          <t>Thiago Takeshi Goto</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>gabrielaprocopio3@gmail.com</t>
+          <t>thi.takeshi@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Bruno Clarkson</t>
+          <t>Talita Helen Bombardelli Gomig</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>brclarkson@gmail.com</t>
+          <t>talitahbg@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>Pamela Maciel Cremonez</t>
+          <t>Tami da Costa Cacossi</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>pamelacremonez@gmail.com</t>
+          <t>tamiccacossi@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>Beatriz Mello Carvalho</t>
+          <t>Tami Mott</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>biaumello@gmail.com</t>
+          <t>tami.mott@icbs.ufal.br</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>Lina Maria Ameida Silva</t>
+          <t>Tatiana Caroline Machado</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>linamas@gmail.com</t>
+          <t>tatianamachado4444@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>SERGIO NASCIMENTO STAMPAR</t>
+          <t>Thais Neves</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>sergio.stampar@unesp.br</t>
+          <t>thaisneves2366@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>Paulo Aecyo Francisco da Silva</t>
+          <t>Thais Helena Condez</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>pauloaecyo_1997@hotmail.com</t>
+          <t>thacondez@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>Lucas dos Santos Fazzio Rachid</t>
+          <t>Thaís Barreto Guedes</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>lucas.rachid@unifesp.br</t>
+          <t>thaisbguedes@yahoo.com.br</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>Aline Vieira e Silva</t>
+          <t>Thais Kethellen Silva De Paula</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>vieiraaline97@gmail.com</t>
+          <t>thaiskethellen72@gmail.com</t>
         </is>
       </c>
     </row>
@@ -7464,336 +7464,540 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>Mariana Franciscão Costa</t>
+          <t>Thamyris Weber Pereira</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>franciscao.mariana@gmail.com</t>
+          <t>thamyweber@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>Ana Carolina Humberto</t>
+          <t>Thannya Nascimento Soares</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>anac.humberto@gmail.com</t>
+          <t>tnsoares@ufg.br</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>Beatriz Ceschim</t>
+          <t>Thaynara da Silva Lopes Lima</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>beatriz.ceschim@unesp.br</t>
+          <t>thaynaralima_tsll@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>Luís Gustavo Gomes Lobo</t>
+          <t>Anna Theresa De Souza Liberal</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>gustavo2620@outlook.com</t>
+          <t>theresaliberal@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>Diliane Harumi Yaguinuma</t>
+          <t>Thiago Jose de Carvalho Andre</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>diliane-harumi@hotmail.com</t>
+          <t>thiago.andre@unb.br</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>Ênio Gustavo de Oliveira</t>
+          <t>Thiago Silva Loboda</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>eniogustavo@estudante.ufscar.br</t>
+          <t>loboda_bio@yahoo.com.br</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>Aléxia Gonçalves Pereira</t>
+          <t>Thieres Tayroni Martins da Silva</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>alexiagp@gmail.com</t>
+          <t>thierestayroni@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>Maria Paula Cruz Schneider</t>
+          <t>Thomaz Pinotti</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>mariapaulacruzschneider@gmail.com</t>
+          <t>thomaz.pinoti@sund.ku.dk</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>Jose Alexandre Felizola Diniz Filho</t>
+          <t>Tiago Benedito dos Santos</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>diniz@ufg.br</t>
+          <t>tiagobio02@yahoo.com.br</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>Nicolas Rocamundi</t>
+          <t>Tiago MarafigaDegrandi</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>nicolasrocamundi@gmail.com</t>
+          <t>tdegrandi@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>Ignacio Soto</t>
+          <t>Tiago Bosisio Quental</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>zorroyerizo@gmail.com</t>
+          <t>tbquental@usp.br</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>Nelio Marco Vincenzo Bizzo</t>
+          <t>Dra. Tiana Kohlsdorf</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>bizzo@unifesp.br</t>
+          <t>tiana@usp.br</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>Andrea Pedrosa Harand</t>
+          <t>Ubiratã Ferreira Souza</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>andrea.harand@ufpe.br</t>
+          <t>ubirataferreirasouza@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>George Pacheco</t>
+          <t>Urias Gabriel Leal Oliveira</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>george.pacheco@ibv.uio.no</t>
+          <t>uriasleal07@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>Waldemir rosa</t>
+          <t>Valéria Ribeiro Da Silva</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>waldemir.rosa@unila.edu.br</t>
+          <t>valeriaribeirosilva1@outlook.com</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>Santiago Benitez Vieyra</t>
+          <t>Vera Nisaka Solferini</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>santiagombv@gmail.com</t>
+          <t>veras@unicamp.br</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>Flávio Silva Junqueira de Souza</t>
+          <t>Vera Lucia da Silva Valente Gaiesky</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>fsouza.ingebi@gmail.com</t>
+          <t>vera.gaiesky@ufrgs.br</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>Eduardo Tarazona</t>
+          <t>Vic Sant'Ana dos Santos</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>edutars@icb.ufmg.br</t>
+          <t>rachel.santana2302@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>Luiz Eduardo Vieira Del Bem</t>
+          <t>Vitória Sávio Buchi</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>levdelbem@gmail.com</t>
+          <t>viccabuchi@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>Maria Emilia Yamamoto</t>
+          <t>Victor Alberto Tagliacollo</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>emiliayamamoto@gmail.com</t>
+          <t>vatagliacollo@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>Constanza Clara Maubecin</t>
+          <t>Victor Hugo Barbosa Pereira</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>cmaubecin@imbiv.unc.edu.ar</t>
+          <t>vhb.pereira@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>Marina Strelin</t>
+          <t>Victoria Bartolome Moulder</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>marina.strelin85@gmail.com</t>
+          <t>vbmoulder@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>Thomaz Pinotti</t>
+          <t>VILMAR FERNANDO BUENO JUNIOR</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>thomaz.pinoti@sund.ku.dk</t>
+          <t>vilmarbueno_@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>Ana Lúcia Tourinho</t>
+          <t>Vinicius Anelli</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>amtourinho@gmail.com</t>
+          <t>vnanell@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>Kateryna D Makov</t>
+          <t>Vinicius Oliveira Miranda</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>makovakateryna@gmail.com</t>
+          <t>viny.olmiranda@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>Mylena Daiana Santander</t>
+          <t>Vinícius José Carvalho Reis</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>mylena.santander@gmail.com</t>
+          <t>carvalhvinicius@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>CAMILO HECTOR RAYMAT RATTO</t>
+          <t>Vinicius Delgado da Rocha</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>camiloraymatratto@gmail.com</t>
+          <t>viniciusdelrocha@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>Kelly Zamudio</t>
+          <t>Shanmuganatham Vinoth</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>kelly.zamudio@austin.utexas.edu</t>
+          <t>vinothshanmuganatham@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>Virgilio Teixeira Carrijo</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>virgiliocarrijo@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>João Vitor Rodrigues Costa</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>vitorrodc@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>VITOR DE CASTRO RECH</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>vitor.castro.rech@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>Vitória de Carvalho da Silva</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>vicarvalho.2701@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>Vitória Ibane</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>viibane@outlook.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>Vitória Infran De Morais</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>vitoria.infran@ufms.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>Viviane da Silva-Pereira</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>visilvapereira@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>Waldemir rosa</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>waldemir.rosa@unila.edu.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>Wanderley Dantas dos Santos</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>wdsantos@uem.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>Welington Luis Sachetti Junior</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>ton.jr.bio@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>Welignton Clarindo</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>well.clarindo@ufv.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>Wes</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>wesley94moraes@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>Wesley Gomes Bojarski</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>wesleybojarski@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>Weverton dos Santos Azevedo</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>weverton.azevedo@hotmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>Yasmim Alvarenga</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>y.alvarenga.abreu@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>Yuri Belisario Mora Yépez</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>Yuribym@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>José Eduardo Gomes De Oliveira</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>zezinho20052005@gmail.com</t>
         </is>
       </c>
     </row>

--- a/Lists/SBBE24Attendees.xlsx
+++ b/Lists/SBBE24Attendees.xlsx
@@ -5256,7 +5256,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Luciana Aguilar Aleixo</t>
+          <t>UCIANA AGUILAR ALEIXO</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
